--- a/PSL02_Compliance_Log.xlsx
+++ b/PSL02_Compliance_Log.xlsx
@@ -5,15 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Appearances" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Appearances!$A$1:$G$404</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -71,259 +68,259 @@
     <t xml:space="preserve">Dr Shahid K Haq Cricket Ground, Karachi</t>
   </si>
   <si>
+    <t xml:space="preserve">Keamari Kings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazilpur Falcons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kemari Kings opt to bat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazilpur Falcons won by 9 wickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-16|15:30:00|Kemari Kings|Fazilpur Falcons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-16 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macchike Mustangs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahmoodkot Mavericks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahmoodkot Mavericks opt to field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macchike Mustangs won by 9 runs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-16|18:00:00|Macchike Mustangs|Mahmoodkot Mavericks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-19 15:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Qasim Panthers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubak Blasters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubak Blasters opt to field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Qasim Panthers won by 2 runs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-19|15:09:00|Port Qasim Panthers|Bubak Blasters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-19 18:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shikarpur Stallions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kot Bahadur Shah Bulls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shikarpur Stallions opt to bat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kot Bahadur Shah Bulls won by 9 wickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-19|18:27:00|Shikarpur Stallions|Kot Bahadur Shah Bulls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-20 15:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahmoodkot Mavericks won by 9 wickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-20|15:17:00|Kemari Kings|Mahmoodkot Mavericks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-20 18:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazilpur Falcons opt to field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-20|18:29:00|Port Qasim Panthers|Fazilpur Falcons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-23 16:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahmoodkot Mavericks won by 7 wickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-23|16:02:00|Shikarpur Stallions|Mahmoodkot Mavericks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-23 18:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kemari Kings opt to field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kemari Kings won by 8 wickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-23|18:31:00|Port Qasim Panthers|Kemari Kings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-26 15:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kot Bahadur Shah Bulls opt to field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazilpur Falcons won by 3 runs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-26|15:08:00|Fazilpur Falcons|Kot Bahadur Shah Bulls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-26 18:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macchike Mustangs opt to field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macchike Mustangs won by 10 wickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-26|18:46:00|Bubak Blasters|Macchike Mustangs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-27 15:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keamari Kings won by 8 wickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-27|15:49:00|Shikarpur Stallions|Keamari Kings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-27 18:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kot Bahadur Shah Bulls won by 7 wickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-27|18:13:00|Port Qasim Panthers|Kot Bahadur Shah Bulls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-28 14:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macchike Mustangs won by 9 wickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-28|14:11:00|Shikarpur Stallions|Macchike Mustangs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-28 18:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubak Blasters won by 7 wickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-28|18:41:00|Kot Bahadur Shah Bulls|Bubak Blasters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-29 15:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubak Blasters won by 15 runs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-29|15:19:00|Bubak Blasters|Mahmoodkot Mavericks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-29 18:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macchike Mustangs won by 5 wickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-29|18:48:00|Fazilpur Falcons|Macchike Mustangs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsCaptain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsWicketKeeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humays Khan (vc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playing-squad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kemari Kings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fazilpur Falcons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kemari Kings opt to bat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fazilpur Falcons won by 9 wickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-16|15:30:00|Kemari Kings|Fazilpur Falcons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-16 18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macchike Mustangs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahmoodkot Mavericks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahmoodkot Mavericks opt to field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macchike Mustangs won by 9 runs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-16|18:00:00|Macchike Mustangs|Mahmoodkot Mavericks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-19 15:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Qasim Panthers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bubak Blasters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bubak Blasters opt to field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Qasim Panthers won by 2 runs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-19|15:09:00|Port Qasim Panthers|Bubak Blasters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-19 18:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shikarpur Stallions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kot Bahadur Shah Bulls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shikarpur Stallions opt to bat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kot Bahadur Shah Bulls won by 9 wickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-19|18:27:00|Shikarpur Stallions|Kot Bahadur Shah Bulls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-20 15:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahmoodkot Mavericks won by 9 wickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-20|15:17:00|Kemari Kings|Mahmoodkot Mavericks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-20 18:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fazilpur Falcons opt to field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-20|18:29:00|Port Qasim Panthers|Fazilpur Falcons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-23 16:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahmoodkot Mavericks won by 7 wickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-23|16:02:00|Shikarpur Stallions|Mahmoodkot Mavericks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-23 18:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kemari Kings opt to field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kemari Kings won by 8 wickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-23|18:31:00|Port Qasim Panthers|Kemari Kings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-26 15:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kot Bahadur Shah Bulls opt to field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fazilpur Falcons won by 3 runs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-26|15:08:00|Fazilpur Falcons|Kot Bahadur Shah Bulls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-26 18:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macchike Mustangs opt to field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macchike Mustangs won by 10 wickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-26|18:46:00|Bubak Blasters|Macchike Mustangs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-27 15:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keamari Kings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keamari Kings won by 8 wickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-27|15:49:00|Shikarpur Stallions|Keamari Kings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-27 18:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kot Bahadur Shah Bulls won by 7 wickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-27|18:13:00|Port Qasim Panthers|Kot Bahadur Shah Bulls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-28 14:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macchike Mustangs won by 9 wickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-28|14:11:00|Shikarpur Stallions|Macchike Mustangs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-28 18:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bubak Blasters won by 7 wickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-28|18:41:00|Kot Bahadur Shah Bulls|Bubak Blasters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-29 15:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bubak Blasters won by 15 runs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-29|15:19:00|Bubak Blasters|Mahmoodkot Mavericks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-29 18:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macchike Mustangs won by 5 wickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-29|18:48:00|Fazilpur Falcons|Macchike Mustangs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IsCaptain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IsWicketKeeper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humays Khan (vc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playing-squad</t>
   </si>
   <si>
     <t xml:space="preserve">Muhammad Khursheed</t>
@@ -879,10 +876,6 @@
     </dxf>
   </dxfs>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,8 +1060,8 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1494,16 +1487,16 @@
         <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,10 +1510,10 @@
         <v>46049</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
@@ -1535,10 +1528,10 @@
         <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,10 +1545,10 @@
         <v>46050</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
@@ -1570,10 +1563,10 @@
         <v>65</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,10 +1580,10 @@
         <v>46050</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
@@ -1605,10 +1598,10 @@
         <v>31</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,10 +1615,10 @@
         <v>46051</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
@@ -1640,10 +1633,10 @@
         <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,10 +1650,10 @@
         <v>46051</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>14</v>
@@ -1675,10 +1668,10 @@
         <v>65</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,13 +1704,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D405" activeCellId="0" sqref="D405"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1739,22 +1732,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -1762,13 +1755,13 @@
         <v>46038</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1779,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -1787,13 +1780,13 @@
         <v>46038</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1804,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
@@ -1812,13 +1805,13 @@
         <v>46038</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1829,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1837,13 +1830,13 @@
         <v>46038</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1854,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
@@ -1862,13 +1855,13 @@
         <v>46038</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1879,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -1887,13 +1880,13 @@
         <v>46042</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1904,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>1</v>
       </c>
@@ -1912,13 +1905,13 @@
         <v>46038</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1929,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>1</v>
       </c>
@@ -1937,13 +1930,13 @@
         <v>46038</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1954,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1</v>
       </c>
@@ -1962,13 +1955,13 @@
         <v>46038</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1979,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>1</v>
       </c>
@@ -1987,13 +1980,13 @@
         <v>46038</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2004,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>5</v>
       </c>
@@ -2012,13 +2005,13 @@
         <v>46042</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2029,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
@@ -2037,13 +2030,13 @@
         <v>46045</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2054,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>1</v>
       </c>
@@ -2079,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1</v>
       </c>
@@ -2093,7 +2086,7 @@
         <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2104,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1</v>
       </c>
@@ -2118,7 +2111,7 @@
         <v>111</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2129,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
@@ -2143,7 +2136,7 @@
         <v>112</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2154,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>6</v>
       </c>
@@ -2168,7 +2161,7 @@
         <v>111</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2179,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1</v>
       </c>
@@ -2193,7 +2186,7 @@
         <v>113</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2204,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>1</v>
       </c>
@@ -2218,7 +2211,7 @@
         <v>114</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2229,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>9</v>
       </c>
@@ -2243,7 +2236,7 @@
         <v>111</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2254,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>1</v>
       </c>
@@ -2268,7 +2261,7 @@
         <v>115</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2279,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>16</v>
       </c>
@@ -2293,7 +2286,7 @@
         <v>111</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2304,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>1</v>
       </c>
@@ -2318,7 +2311,7 @@
         <v>116</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2329,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>1</v>
       </c>
@@ -2343,7 +2336,7 @@
         <v>117</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2354,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>2</v>
       </c>
@@ -2368,7 +2361,7 @@
         <v>118</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2379,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>10</v>
       </c>
@@ -2393,7 +2386,7 @@
         <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2404,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>2</v>
       </c>
@@ -2418,7 +2411,7 @@
         <v>119</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2429,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>2</v>
       </c>
@@ -2443,7 +2436,7 @@
         <v>120</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2454,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>2</v>
       </c>
@@ -2468,7 +2461,7 @@
         <v>121</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2479,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>13</v>
       </c>
@@ -2493,7 +2486,7 @@
         <v>118</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2504,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>2</v>
       </c>
@@ -2518,7 +2511,7 @@
         <v>122</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2529,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>16</v>
       </c>
@@ -2543,7 +2536,7 @@
         <v>118</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2554,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>2</v>
       </c>
@@ -2568,7 +2561,7 @@
         <v>123</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2579,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>2</v>
       </c>
@@ -2604,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>2</v>
       </c>
@@ -2618,7 +2611,7 @@
         <v>125</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2629,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>2</v>
       </c>
@@ -2643,7 +2636,7 @@
         <v>126</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2654,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>2</v>
       </c>
@@ -2668,7 +2661,7 @@
         <v>127</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2679,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>2</v>
       </c>
@@ -2704,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>2</v>
       </c>
@@ -2718,7 +2711,7 @@
         <v>130</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2729,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>2</v>
       </c>
@@ -2743,7 +2736,7 @@
         <v>131</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2754,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>2</v>
       </c>
@@ -2768,7 +2761,7 @@
         <v>132</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2779,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>2</v>
       </c>
@@ -2793,7 +2786,7 @@
         <v>133</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2804,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>2</v>
       </c>
@@ -2818,7 +2811,7 @@
         <v>134</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F44" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2829,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>5</v>
       </c>
@@ -2843,7 +2836,7 @@
         <v>130</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2854,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>2</v>
       </c>
@@ -2868,7 +2861,7 @@
         <v>135</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2879,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>2</v>
       </c>
@@ -2893,7 +2886,7 @@
         <v>136</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2904,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>2</v>
       </c>
@@ -2918,7 +2911,7 @@
         <v>137</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F48" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2929,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>2</v>
       </c>
@@ -2943,7 +2936,7 @@
         <v>138</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F49" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2954,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>2</v>
       </c>
@@ -2968,7 +2961,7 @@
         <v>139</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F50" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2979,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>3</v>
       </c>
@@ -3004,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>3</v>
       </c>
@@ -3018,7 +3011,7 @@
         <v>141</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F52" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3029,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>3</v>
       </c>
@@ -3043,7 +3036,7 @@
         <v>142</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F53" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3054,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>3</v>
       </c>
@@ -3068,7 +3061,7 @@
         <v>143</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F54" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3079,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>3</v>
       </c>
@@ -3093,7 +3086,7 @@
         <v>144</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F55" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3104,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>3</v>
       </c>
@@ -3118,7 +3111,7 @@
         <v>145</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F56" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3129,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>6</v>
       </c>
@@ -3143,7 +3136,7 @@
         <v>141</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F57" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3154,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>3</v>
       </c>
@@ -3168,7 +3161,7 @@
         <v>146</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F58" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3179,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>3</v>
       </c>
@@ -3193,7 +3186,7 @@
         <v>147</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F59" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3204,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>8</v>
       </c>
@@ -3218,7 +3211,7 @@
         <v>141</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F60" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3229,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>3</v>
       </c>
@@ -3251,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>3</v>
       </c>
@@ -3265,7 +3258,7 @@
         <v>149</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F62" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3276,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>3</v>
       </c>
@@ -3290,7 +3283,7 @@
         <v>150</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F63" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3301,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>3</v>
       </c>
@@ -3315,7 +3308,7 @@
         <v>151</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F64" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3326,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>3</v>
       </c>
@@ -3340,7 +3333,7 @@
         <v>152</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F65" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3351,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>3</v>
       </c>
@@ -3365,7 +3358,7 @@
         <v>153</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F66" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3376,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>10</v>
       </c>
@@ -3390,7 +3383,7 @@
         <v>149</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F67" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3401,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>3</v>
       </c>
@@ -3415,7 +3408,7 @@
         <v>154</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F68" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3426,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>3</v>
       </c>
@@ -3440,7 +3433,7 @@
         <v>155</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F69" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3451,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>14</v>
       </c>
@@ -3476,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>3</v>
       </c>
@@ -3490,7 +3483,7 @@
         <v>156</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F71" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3501,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>4</v>
       </c>
@@ -3515,7 +3508,7 @@
         <v>157</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F72" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3526,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>4</v>
       </c>
@@ -3540,7 +3533,7 @@
         <v>158</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F73" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3551,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>4</v>
       </c>
@@ -3576,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>4</v>
       </c>
@@ -3590,7 +3583,7 @@
         <v>160</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F75" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3601,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>4</v>
       </c>
@@ -3615,7 +3608,7 @@
         <v>161</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F76" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3626,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>4</v>
       </c>
@@ -3640,7 +3633,7 @@
         <v>162</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F77" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3651,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>7</v>
       </c>
@@ -3665,7 +3658,7 @@
         <v>161</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F78" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3676,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>11</v>
       </c>
@@ -3690,7 +3683,7 @@
         <v>161</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F79" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3701,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>4</v>
       </c>
@@ -3715,7 +3708,7 @@
         <v>163</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F80" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3726,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>4</v>
       </c>
@@ -3740,7 +3733,7 @@
         <v>164</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F81" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3751,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>13</v>
       </c>
@@ -3765,7 +3758,7 @@
         <v>161</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F82" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3776,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>4</v>
       </c>
@@ -3790,7 +3783,7 @@
         <v>165</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F83" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3801,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>4</v>
       </c>
@@ -3815,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F84" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3826,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>4</v>
       </c>
@@ -3840,7 +3833,7 @@
         <v>167</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F85" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3851,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>9</v>
       </c>
@@ -3865,7 +3858,7 @@
         <v>165</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F86" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3876,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>4</v>
       </c>
@@ -3890,7 +3883,7 @@
         <v>168</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F87" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3901,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>12</v>
       </c>
@@ -3915,7 +3908,7 @@
         <v>165</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F88" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3926,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>4</v>
       </c>
@@ -3940,7 +3933,7 @@
         <v>169</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F89" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3951,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>4</v>
       </c>
@@ -3965,7 +3958,7 @@
         <v>170</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F90" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3976,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>4</v>
       </c>
@@ -3990,7 +3983,7 @@
         <v>171</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F91" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4001,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>14</v>
       </c>
@@ -4015,7 +4008,7 @@
         <v>165</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F92" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4026,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>4</v>
       </c>
@@ -4040,7 +4033,7 @@
         <v>172</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F93" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4051,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>4</v>
       </c>
@@ -4073,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>1</v>
       </c>
@@ -4081,7 +4074,7 @@
         <v>46038</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>174</v>
@@ -4098,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>5</v>
       </c>
@@ -4106,13 +4099,13 @@
         <v>46042</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F96" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4123,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>5</v>
       </c>
@@ -4131,13 +4124,13 @@
         <v>46042</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F97" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4148,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>5</v>
       </c>
@@ -4156,13 +4149,13 @@
         <v>46042</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F98" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4173,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>5</v>
       </c>
@@ -4181,13 +4174,13 @@
         <v>46042</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F99" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4198,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>5</v>
       </c>
@@ -4206,7 +4199,7 @@
         <v>46042</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>174</v>
@@ -4223,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>5</v>
       </c>
@@ -4231,13 +4224,13 @@
         <v>46042</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F101" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4248,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>5</v>
       </c>
@@ -4256,13 +4249,13 @@
         <v>46042</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F102" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4273,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>5</v>
       </c>
@@ -4281,13 +4274,13 @@
         <v>46042</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F103" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4298,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>8</v>
       </c>
@@ -4306,7 +4299,7 @@
         <v>46045</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>174</v>
@@ -4323,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>1</v>
       </c>
@@ -4331,13 +4324,13 @@
         <v>46038</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>175</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F105" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4348,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>5</v>
       </c>
@@ -4356,13 +4349,13 @@
         <v>46042</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>175</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F106" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4373,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>5</v>
       </c>
@@ -4398,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>7</v>
       </c>
@@ -4412,7 +4405,7 @@
         <v>130</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F108" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4423,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>5</v>
       </c>
@@ -4437,7 +4430,7 @@
         <v>131</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F109" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4448,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>5</v>
       </c>
@@ -4462,7 +4455,7 @@
         <v>132</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F110" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4473,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>5</v>
       </c>
@@ -4487,7 +4480,7 @@
         <v>133</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F111" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4498,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>5</v>
       </c>
@@ -4512,7 +4505,7 @@
         <v>176</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F112" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4523,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>15</v>
       </c>
@@ -4537,7 +4530,7 @@
         <v>130</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F113" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4548,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>5</v>
       </c>
@@ -4562,7 +4555,7 @@
         <v>135</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F114" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4573,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>5</v>
       </c>
@@ -4587,7 +4580,7 @@
         <v>134</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F115" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4598,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>5</v>
       </c>
@@ -4612,7 +4605,7 @@
         <v>137</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F116" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4623,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>5</v>
       </c>
@@ -4637,7 +4630,7 @@
         <v>138</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F117" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4648,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>6</v>
       </c>
@@ -4662,7 +4655,7 @@
         <v>140</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F118" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4673,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>12</v>
       </c>
@@ -4687,7 +4680,7 @@
         <v>141</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F119" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4698,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>6</v>
       </c>
@@ -4712,7 +4705,7 @@
         <v>142</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F120" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4723,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>6</v>
       </c>
@@ -4737,7 +4730,7 @@
         <v>143</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F121" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4748,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>6</v>
       </c>
@@ -4762,7 +4755,7 @@
         <v>144</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F122" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4773,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>3</v>
       </c>
@@ -4787,7 +4780,7 @@
         <v>177</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F123" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4798,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>6</v>
       </c>
@@ -4812,7 +4805,7 @@
         <v>177</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F124" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4823,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>6</v>
       </c>
@@ -4837,7 +4830,7 @@
         <v>146</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F125" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4848,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>6</v>
       </c>
@@ -4862,7 +4855,7 @@
         <v>145</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F126" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4873,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>8</v>
       </c>
@@ -4887,7 +4880,7 @@
         <v>177</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F127" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4898,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>6</v>
       </c>
@@ -4912,7 +4905,7 @@
         <v>148</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F128" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4923,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>6</v>
       </c>
@@ -4945,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>6</v>
       </c>
@@ -4970,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>6</v>
       </c>
@@ -4984,7 +4977,7 @@
         <v>110</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F131" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4995,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>6</v>
       </c>
@@ -5009,7 +5002,7 @@
         <v>116</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F132" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5020,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>6</v>
       </c>
@@ -5034,7 +5027,7 @@
         <v>112</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F133" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5045,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>9</v>
       </c>
@@ -5059,7 +5052,7 @@
         <v>116</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F134" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5070,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>6</v>
       </c>
@@ -5084,7 +5077,7 @@
         <v>179</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F135" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5095,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>6</v>
       </c>
@@ -5109,7 +5102,7 @@
         <v>114</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F136" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5120,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>1</v>
       </c>
@@ -5134,7 +5127,7 @@
         <v>180</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F137" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5145,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>6</v>
       </c>
@@ -5159,7 +5152,7 @@
         <v>181</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F138" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5170,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>6</v>
       </c>
@@ -5184,7 +5177,7 @@
         <v>180</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F139" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5195,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>9</v>
       </c>
@@ -5209,7 +5202,7 @@
         <v>180</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F140" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5220,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>6</v>
       </c>
@@ -5234,7 +5227,7 @@
         <v>182</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F141" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5245,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>7</v>
       </c>
@@ -5259,7 +5252,7 @@
         <v>157</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F142" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5270,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>7</v>
       </c>
@@ -5284,7 +5277,7 @@
         <v>158</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F143" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5295,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>7</v>
       </c>
@@ -5309,7 +5302,7 @@
         <v>183</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F144" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5320,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>7</v>
       </c>
@@ -5334,7 +5327,7 @@
         <v>160</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F145" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5345,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>4</v>
       </c>
@@ -5359,7 +5352,7 @@
         <v>184</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F146" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5370,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>7</v>
       </c>
@@ -5395,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>13</v>
       </c>
@@ -5409,7 +5402,7 @@
         <v>184</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F148" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5420,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>4</v>
       </c>
@@ -5434,7 +5427,7 @@
         <v>185</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F149" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5445,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>7</v>
       </c>
@@ -5459,7 +5452,7 @@
         <v>186</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F150" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5470,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>7</v>
       </c>
@@ -5484,7 +5477,7 @@
         <v>164</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F151" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5495,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>7</v>
       </c>
@@ -5509,7 +5502,7 @@
         <v>185</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F152" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5520,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>7</v>
       </c>
@@ -5542,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>7</v>
       </c>
@@ -5556,7 +5549,7 @@
         <v>188</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F154" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5567,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>7</v>
       </c>
@@ -5581,7 +5574,7 @@
         <v>128</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F155" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5592,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>7</v>
       </c>
@@ -5606,7 +5599,7 @@
         <v>131</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F156" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5617,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>7</v>
       </c>
@@ -5631,7 +5624,7 @@
         <v>132</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F157" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5642,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>7</v>
       </c>
@@ -5656,7 +5649,7 @@
         <v>133</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F158" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5667,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>7</v>
       </c>
@@ -5681,7 +5674,7 @@
         <v>176</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F159" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5692,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>15</v>
       </c>
@@ -5706,7 +5699,7 @@
         <v>189</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F160" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5717,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>7</v>
       </c>
@@ -5731,7 +5724,7 @@
         <v>135</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F161" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5742,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>7</v>
       </c>
@@ -5756,7 +5749,7 @@
         <v>190</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F162" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5767,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>7</v>
       </c>
@@ -5781,7 +5774,7 @@
         <v>137</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F163" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5792,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>7</v>
       </c>
@@ -5806,7 +5799,7 @@
         <v>138</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F164" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5817,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>2</v>
       </c>
@@ -5831,7 +5824,7 @@
         <v>191</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F165" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5842,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>8</v>
       </c>
@@ -5867,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>12</v>
       </c>
@@ -5881,7 +5874,7 @@
         <v>177</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F167" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5892,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>3</v>
       </c>
@@ -5906,7 +5899,7 @@
         <v>192</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F168" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5917,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>8</v>
       </c>
@@ -5931,7 +5924,7 @@
         <v>143</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F169" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5942,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>8</v>
       </c>
@@ -5956,7 +5949,7 @@
         <v>144</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F170" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5967,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>8</v>
       </c>
@@ -5981,7 +5974,7 @@
         <v>145</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F171" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5992,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>6</v>
       </c>
@@ -6006,7 +5999,7 @@
         <v>192</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F172" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6017,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>8</v>
       </c>
@@ -6031,7 +6024,7 @@
         <v>146</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F173" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6042,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>8</v>
       </c>
@@ -6056,7 +6049,7 @@
         <v>147</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F174" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6067,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>8</v>
       </c>
@@ -6081,7 +6074,7 @@
         <v>192</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F175" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6092,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>8</v>
       </c>
@@ -6106,7 +6099,7 @@
         <v>148</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F176" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6117,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <v>8</v>
       </c>
@@ -6139,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>8</v>
       </c>
@@ -6147,13 +6140,13 @@
         <v>46045</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>175</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F178" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6164,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>8</v>
       </c>
@@ -6172,13 +6165,13 @@
         <v>46045</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F179" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6189,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <v>5</v>
       </c>
@@ -6197,7 +6190,7 @@
         <v>46042</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>194</v>
@@ -6211,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>8</v>
       </c>
@@ -6219,13 +6212,13 @@
         <v>46045</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F181" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6236,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>8</v>
       </c>
@@ -6244,13 +6237,13 @@
         <v>46045</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F182" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6261,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <v>8</v>
       </c>
@@ -6269,13 +6262,13 @@
         <v>46045</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F183" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6286,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>8</v>
       </c>
@@ -6294,13 +6287,13 @@
         <v>46045</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F184" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6311,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <v>8</v>
       </c>
@@ -6319,13 +6312,13 @@
         <v>46045</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F185" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6336,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>8</v>
       </c>
@@ -6344,13 +6337,13 @@
         <v>46045</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F186" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6361,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>1</v>
       </c>
@@ -6369,7 +6362,7 @@
         <v>46038</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>195</v>
@@ -6383,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <v>8</v>
       </c>
@@ -6391,13 +6384,13 @@
         <v>46045</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F188" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6408,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>8</v>
       </c>
@@ -6416,13 +6409,13 @@
         <v>46045</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F189" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6433,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>9</v>
       </c>
@@ -6458,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>9</v>
       </c>
@@ -6472,7 +6465,7 @@
         <v>110</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F191" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6483,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>16</v>
       </c>
@@ -6497,7 +6490,7 @@
         <v>180</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F192" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6508,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <v>9</v>
       </c>
@@ -6522,7 +6515,7 @@
         <v>112</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F193" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6533,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <v>1</v>
       </c>
@@ -6547,7 +6540,7 @@
         <v>197</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F194" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6558,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>9</v>
       </c>
@@ -6572,7 +6565,7 @@
         <v>113</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F195" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6583,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <v>9</v>
       </c>
@@ -6597,7 +6590,7 @@
         <v>114</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F196" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6608,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <v>6</v>
       </c>
@@ -6622,7 +6615,7 @@
         <v>197</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F197" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6633,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <v>9</v>
       </c>
@@ -6647,7 +6640,7 @@
         <v>115</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F198" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6658,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>9</v>
       </c>
@@ -6672,7 +6665,7 @@
         <v>197</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F199" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6683,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <v>16</v>
       </c>
@@ -6697,7 +6690,7 @@
         <v>197</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F200" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6708,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <v>9</v>
       </c>
@@ -6722,7 +6715,7 @@
         <v>198</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F201" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6733,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <v>4</v>
       </c>
@@ -6747,7 +6740,7 @@
         <v>199</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F202" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6758,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>9</v>
       </c>
@@ -6772,7 +6765,7 @@
         <v>166</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F203" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6783,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <v>9</v>
       </c>
@@ -6797,7 +6790,7 @@
         <v>167</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F204" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6808,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <v>12</v>
       </c>
@@ -6822,7 +6815,7 @@
         <v>199</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F205" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6833,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <v>9</v>
       </c>
@@ -6847,7 +6840,7 @@
         <v>168</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F206" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6858,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <v>9</v>
       </c>
@@ -6872,7 +6865,7 @@
         <v>171</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F207" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6883,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>9</v>
       </c>
@@ -6897,7 +6890,7 @@
         <v>169</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F208" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6908,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>9</v>
       </c>
@@ -6922,7 +6915,7 @@
         <v>170</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F209" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6933,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <v>9</v>
       </c>
@@ -6947,7 +6940,7 @@
         <v>200</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F210" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6958,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <v>14</v>
       </c>
@@ -6972,7 +6965,7 @@
         <v>199</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F211" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6983,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>9</v>
       </c>
@@ -6997,7 +6990,7 @@
         <v>172</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F212" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7008,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <v>4</v>
       </c>
@@ -7022,7 +7015,7 @@
         <v>201</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F213" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7033,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <v>15</v>
       </c>
@@ -7047,7 +7040,7 @@
         <v>149</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F214" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7058,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>3</v>
       </c>
@@ -7072,7 +7065,7 @@
         <v>202</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F215" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7083,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <v>10</v>
       </c>
@@ -7097,7 +7090,7 @@
         <v>202</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F216" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7108,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>10</v>
       </c>
@@ -7122,7 +7115,7 @@
         <v>151</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F217" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7133,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>10</v>
       </c>
@@ -7147,7 +7140,7 @@
         <v>152</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F218" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7158,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>10</v>
       </c>
@@ -7172,7 +7165,7 @@
         <v>203</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F219" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7183,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>14</v>
       </c>
@@ -7197,7 +7190,7 @@
         <v>202</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F220" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7208,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <v>10</v>
       </c>
@@ -7222,7 +7215,7 @@
         <v>154</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F221" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7233,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <v>10</v>
       </c>
@@ -7247,7 +7240,7 @@
         <v>204</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F222" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7258,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <v>15</v>
       </c>
@@ -7272,7 +7265,7 @@
         <v>202</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F223" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7283,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <v>10</v>
       </c>
@@ -7297,7 +7290,7 @@
         <v>205</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F224" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7308,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <v>10</v>
       </c>
@@ -7330,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <v>10</v>
       </c>
@@ -7355,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <v>13</v>
       </c>
@@ -7380,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>10</v>
       </c>
@@ -7394,7 +7387,7 @@
         <v>119</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F228" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7405,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <v>10</v>
       </c>
@@ -7419,7 +7412,7 @@
         <v>121</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F229" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7430,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <v>16</v>
       </c>
@@ -7455,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <v>10</v>
       </c>
@@ -7469,7 +7462,7 @@
         <v>122</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F231" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7480,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <v>2</v>
       </c>
@@ -7494,7 +7487,7 @@
         <v>207</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F232" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7505,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <v>10</v>
       </c>
@@ -7519,7 +7512,7 @@
         <v>123</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F233" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7530,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <v>10</v>
       </c>
@@ -7544,7 +7537,7 @@
         <v>207</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F234" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7555,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>10</v>
       </c>
@@ -7569,7 +7562,7 @@
         <v>125</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F235" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7580,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <v>10</v>
       </c>
@@ -7594,7 +7587,7 @@
         <v>126</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F236" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7605,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <v>10</v>
       </c>
@@ -7619,7 +7612,7 @@
         <v>127</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F237" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7630,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <v>11</v>
       </c>
@@ -7644,7 +7637,7 @@
         <v>157</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F238" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7655,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <v>11</v>
       </c>
@@ -7669,7 +7662,7 @@
         <v>158</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F239" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7680,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <v>11</v>
       </c>
@@ -7694,7 +7687,7 @@
         <v>183</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F240" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7705,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <v>11</v>
       </c>
@@ -7719,7 +7712,7 @@
         <v>160</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F241" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7730,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <v>11</v>
       </c>
@@ -7744,7 +7737,7 @@
         <v>185</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F242" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7755,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <v>11</v>
       </c>
@@ -7769,7 +7762,7 @@
         <v>208</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F243" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7780,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <v>13</v>
       </c>
@@ -7794,7 +7787,7 @@
         <v>185</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F244" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7805,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <v>7</v>
       </c>
@@ -7819,7 +7812,7 @@
         <v>159</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F245" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7830,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
         <v>11</v>
       </c>
@@ -7844,7 +7837,7 @@
         <v>209</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F246" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7855,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
         <v>11</v>
       </c>
@@ -7869,7 +7862,7 @@
         <v>164</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F247" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7880,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <v>11</v>
       </c>
@@ -7905,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
         <v>11</v>
       </c>
@@ -7919,7 +7912,7 @@
         <v>211</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F249" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7930,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
         <v>11</v>
       </c>
@@ -7938,13 +7931,13 @@
         <v>46049</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F250" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7955,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
         <v>11</v>
       </c>
@@ -7963,13 +7956,13 @@
         <v>46049</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F251" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7980,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
         <v>11</v>
       </c>
@@ -7988,13 +7981,13 @@
         <v>46049</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F252" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8005,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
         <v>11</v>
       </c>
@@ -8013,13 +8006,13 @@
         <v>46049</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F253" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8030,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
         <v>11</v>
       </c>
@@ -8038,13 +8031,13 @@
         <v>46049</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F254" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8055,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
         <v>11</v>
       </c>
@@ -8063,7 +8056,7 @@
         <v>46049</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>196</v>
@@ -8080,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
         <v>11</v>
       </c>
@@ -8088,13 +8081,13 @@
         <v>46049</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F256" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8105,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
         <v>11</v>
       </c>
@@ -8113,13 +8106,13 @@
         <v>46049</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F257" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8130,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
         <v>11</v>
       </c>
@@ -8138,13 +8131,13 @@
         <v>46049</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>212</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F258" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8155,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
         <v>11</v>
       </c>
@@ -8163,13 +8156,13 @@
         <v>46049</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F259" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8180,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
         <v>11</v>
       </c>
@@ -8188,10 +8181,10 @@
         <v>46049</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F260" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8202,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
         <v>12</v>
       </c>
@@ -8227,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
         <v>12</v>
       </c>
@@ -8241,7 +8234,7 @@
         <v>192</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F262" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8252,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
         <v>12</v>
       </c>
@@ -8266,7 +8259,7 @@
         <v>142</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F263" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8277,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
         <v>12</v>
       </c>
@@ -8291,7 +8284,7 @@
         <v>143</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F264" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8302,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
         <v>12</v>
       </c>
@@ -8316,7 +8309,7 @@
         <v>144</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F265" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8327,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
         <v>6</v>
       </c>
@@ -8341,7 +8334,7 @@
         <v>213</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F266" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8352,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
         <v>8</v>
       </c>
@@ -8366,7 +8359,7 @@
         <v>213</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F267" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8377,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
         <v>12</v>
       </c>
@@ -8391,7 +8384,7 @@
         <v>146</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F268" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8402,7 +8395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
         <v>12</v>
       </c>
@@ -8416,7 +8409,7 @@
         <v>193</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F269" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8427,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
         <v>12</v>
       </c>
@@ -8441,7 +8434,7 @@
         <v>213</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F270" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8452,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
         <v>12</v>
       </c>
@@ -8466,7 +8459,7 @@
         <v>148</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F271" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8477,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
         <v>12</v>
       </c>
@@ -8491,7 +8484,7 @@
         <v>214</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F272" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8502,7 +8495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <v>9</v>
       </c>
@@ -8516,7 +8509,7 @@
         <v>201</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F273" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8527,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
         <v>12</v>
       </c>
@@ -8541,7 +8534,7 @@
         <v>166</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F274" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8552,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
         <v>12</v>
       </c>
@@ -8566,7 +8559,7 @@
         <v>167</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F275" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8577,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
         <v>12</v>
       </c>
@@ -8591,7 +8584,7 @@
         <v>201</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F276" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8602,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
         <v>12</v>
       </c>
@@ -8616,7 +8609,7 @@
         <v>168</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F277" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8627,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
         <v>14</v>
       </c>
@@ -8641,7 +8634,7 @@
         <v>201</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F278" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8652,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
         <v>12</v>
       </c>
@@ -8666,7 +8659,7 @@
         <v>169</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F279" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8677,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
         <v>12</v>
       </c>
@@ -8691,7 +8684,7 @@
         <v>170</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F280" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8702,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
         <v>12</v>
       </c>
@@ -8716,7 +8709,7 @@
         <v>171</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F281" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8727,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
         <v>4</v>
       </c>
@@ -8752,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
         <v>12</v>
       </c>
@@ -8766,7 +8759,7 @@
         <v>172</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F283" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8777,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
         <v>12</v>
       </c>
@@ -8799,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
         <v>13</v>
       </c>
@@ -8813,7 +8806,7 @@
         <v>157</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F285" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8824,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
         <v>13</v>
       </c>
@@ -8838,7 +8831,7 @@
         <v>158</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F286" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8849,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
         <v>13</v>
       </c>
@@ -8874,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
         <v>13</v>
       </c>
@@ -8888,7 +8881,7 @@
         <v>160</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F288" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8899,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
         <v>4</v>
       </c>
@@ -8913,7 +8906,7 @@
         <v>217</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F289" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8924,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
         <v>13</v>
       </c>
@@ -8938,7 +8931,7 @@
         <v>183</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F290" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8949,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
         <v>7</v>
       </c>
@@ -8963,7 +8956,7 @@
         <v>217</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F291" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8974,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
         <v>11</v>
       </c>
@@ -8988,7 +8981,7 @@
         <v>217</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F292" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8999,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
         <v>13</v>
       </c>
@@ -9013,7 +9006,7 @@
         <v>209</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F293" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9024,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
         <v>13</v>
       </c>
@@ -9038,7 +9031,7 @@
         <v>164</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F294" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9049,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
         <v>13</v>
       </c>
@@ -9063,7 +9056,7 @@
         <v>217</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F295" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9074,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
         <v>13</v>
       </c>
@@ -9096,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="n">
         <v>13</v>
       </c>
@@ -9110,7 +9103,7 @@
         <v>207</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F297" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9121,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
         <v>2</v>
       </c>
@@ -9135,7 +9128,7 @@
         <v>218</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F298" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9146,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
         <v>13</v>
       </c>
@@ -9160,7 +9153,7 @@
         <v>119</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F299" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9171,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
         <v>13</v>
       </c>
@@ -9185,7 +9178,7 @@
         <v>121</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F300" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9196,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
         <v>10</v>
       </c>
@@ -9210,7 +9203,7 @@
         <v>218</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F301" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9221,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
         <v>13</v>
       </c>
@@ -9235,7 +9228,7 @@
         <v>122</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F302" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9246,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
         <v>13</v>
       </c>
@@ -9260,7 +9253,7 @@
         <v>218</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F303" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9271,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
         <v>13</v>
       </c>
@@ -9285,7 +9278,7 @@
         <v>123</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F304" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9296,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
         <v>16</v>
       </c>
@@ -9310,7 +9303,7 @@
         <v>218</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F305" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9321,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
         <v>13</v>
       </c>
@@ -9335,7 +9328,7 @@
         <v>125</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F306" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9346,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
         <v>13</v>
       </c>
@@ -9360,7 +9353,7 @@
         <v>126</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F307" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9371,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
         <v>2</v>
       </c>
@@ -9385,7 +9378,7 @@
         <v>219</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F308" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9396,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
         <v>9</v>
       </c>
@@ -9421,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
         <v>14</v>
       </c>
@@ -9435,7 +9428,7 @@
         <v>166</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F310" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9446,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
         <v>14</v>
       </c>
@@ -9460,7 +9453,7 @@
         <v>167</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F311" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9471,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
         <v>12</v>
       </c>
@@ -9496,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
         <v>14</v>
       </c>
@@ -9510,7 +9503,7 @@
         <v>168</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F313" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9521,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
         <v>14</v>
       </c>
@@ -9546,7 +9539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
         <v>14</v>
       </c>
@@ -9560,7 +9553,7 @@
         <v>169</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F315" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9571,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
         <v>14</v>
       </c>
@@ -9585,7 +9578,7 @@
         <v>170</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F316" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9596,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
         <v>14</v>
       </c>
@@ -9610,7 +9603,7 @@
         <v>173</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F317" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9621,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
         <v>9</v>
       </c>
@@ -9643,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
         <v>14</v>
       </c>
@@ -9657,7 +9650,7 @@
         <v>172</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F319" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9668,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
         <v>14</v>
       </c>
@@ -9690,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
         <v>3</v>
       </c>
@@ -9704,7 +9697,7 @@
         <v>223</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F321" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9715,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
         <v>14</v>
       </c>
@@ -9729,7 +9722,7 @@
         <v>152</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F322" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9740,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
         <v>14</v>
       </c>
@@ -9754,7 +9747,7 @@
         <v>150</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F323" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9765,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
         <v>14</v>
       </c>
@@ -9779,7 +9772,7 @@
         <v>151</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F324" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9790,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
         <v>10</v>
       </c>
@@ -9804,7 +9797,7 @@
         <v>223</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F325" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9815,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
         <v>14</v>
       </c>
@@ -9829,7 +9822,7 @@
         <v>205</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F326" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9840,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
         <v>14</v>
       </c>
@@ -9854,7 +9847,7 @@
         <v>223</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F327" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9865,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
         <v>14</v>
       </c>
@@ -9879,7 +9872,7 @@
         <v>154</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F328" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9890,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
         <v>15</v>
       </c>
@@ -9904,7 +9897,7 @@
         <v>223</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F329" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9915,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
         <v>10</v>
       </c>
@@ -9929,7 +9922,7 @@
         <v>224</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F330" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9940,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
         <v>14</v>
       </c>
@@ -9954,7 +9947,7 @@
         <v>156</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F331" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9965,7 +9958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
         <v>14</v>
       </c>
@@ -9979,7 +9972,7 @@
         <v>225</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F332" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9990,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
         <v>14</v>
       </c>
@@ -10004,7 +9997,7 @@
         <v>224</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F333" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10015,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
         <v>15</v>
       </c>
@@ -10029,7 +10022,7 @@
         <v>224</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F334" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10040,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
         <v>15</v>
       </c>
@@ -10054,7 +10047,7 @@
         <v>150</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F335" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10065,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
         <v>15</v>
       </c>
@@ -10090,7 +10083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
         <v>15</v>
       </c>
@@ -10104,7 +10097,7 @@
         <v>152</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F337" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10115,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="n">
         <v>15</v>
       </c>
@@ -10129,7 +10122,7 @@
         <v>205</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F338" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10140,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
         <v>3</v>
       </c>
@@ -10165,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
         <v>15</v>
       </c>
@@ -10179,7 +10172,7 @@
         <v>154</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F340" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10190,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
         <v>10</v>
       </c>
@@ -10215,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
         <v>14</v>
       </c>
@@ -10229,7 +10222,7 @@
         <v>227</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F342" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10240,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
         <v>15</v>
       </c>
@@ -10254,7 +10247,7 @@
         <v>156</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F343" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10265,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
         <v>15</v>
       </c>
@@ -10279,7 +10272,7 @@
         <v>203</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F344" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10290,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
         <v>15</v>
       </c>
@@ -10315,7 +10308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
         <v>15</v>
       </c>
@@ -10340,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
         <v>5</v>
       </c>
@@ -10354,7 +10347,7 @@
         <v>191</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F347" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10365,7 +10358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
         <v>15</v>
       </c>
@@ -10379,7 +10372,7 @@
         <v>131</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F348" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10390,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
         <v>15</v>
       </c>
@@ -10404,7 +10397,7 @@
         <v>132</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F349" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10415,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
         <v>15</v>
       </c>
@@ -10429,7 +10422,7 @@
         <v>133</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F350" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10440,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
         <v>15</v>
       </c>
@@ -10454,7 +10447,7 @@
         <v>190</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F351" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10465,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
         <v>7</v>
       </c>
@@ -10490,7 +10483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
         <v>15</v>
       </c>
@@ -10504,7 +10497,7 @@
         <v>135</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F353" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10515,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
         <v>15</v>
       </c>
@@ -10529,7 +10522,7 @@
         <v>136</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F354" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10540,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
         <v>15</v>
       </c>
@@ -10554,7 +10547,7 @@
         <v>137</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F355" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10565,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
         <v>15</v>
       </c>
@@ -10579,7 +10572,7 @@
         <v>138</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F356" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10590,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
         <v>15</v>
       </c>
@@ -10604,7 +10597,7 @@
         <v>191</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F357" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10615,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
         <v>16</v>
       </c>
@@ -10640,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
         <v>16</v>
       </c>
@@ -10654,7 +10647,7 @@
         <v>110</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F359" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10665,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
         <v>16</v>
       </c>
@@ -10679,7 +10672,7 @@
         <v>113</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F360" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10690,7 +10683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
         <v>16</v>
       </c>
@@ -10704,7 +10697,7 @@
         <v>112</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F361" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10715,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
         <v>1</v>
       </c>
@@ -10729,7 +10722,7 @@
         <v>229</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F362" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10740,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
         <v>16</v>
       </c>
@@ -10754,7 +10747,7 @@
         <v>115</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F363" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10765,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
         <v>16</v>
       </c>
@@ -10779,7 +10772,7 @@
         <v>108</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F364" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10790,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
         <v>6</v>
       </c>
@@ -10804,7 +10797,7 @@
         <v>229</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F365" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10815,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
         <v>16</v>
       </c>
@@ -10829,7 +10822,7 @@
         <v>179</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F366" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10840,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
         <v>9</v>
       </c>
@@ -10854,7 +10847,7 @@
         <v>229</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F367" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10865,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
         <v>16</v>
       </c>
@@ -10879,7 +10872,7 @@
         <v>229</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F368" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10890,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
         <v>16</v>
       </c>
@@ -10912,7 +10905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
         <v>10</v>
       </c>
@@ -10926,7 +10919,7 @@
         <v>219</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F370" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10937,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
         <v>13</v>
       </c>
@@ -10951,7 +10944,7 @@
         <v>219</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F371" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10962,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
         <v>16</v>
       </c>
@@ -10976,7 +10969,7 @@
         <v>119</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F372" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10987,7 +10980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
         <v>16</v>
       </c>
@@ -11001,7 +10994,7 @@
         <v>121</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F373" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11012,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
         <v>16</v>
       </c>
@@ -11026,7 +11019,7 @@
         <v>219</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F374" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11037,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
         <v>16</v>
       </c>
@@ -11051,7 +11044,7 @@
         <v>122</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F375" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11062,7 +11055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
         <v>13</v>
       </c>
@@ -11076,7 +11069,7 @@
         <v>230</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F376" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11087,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
         <v>16</v>
       </c>
@@ -11101,7 +11094,7 @@
         <v>123</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F377" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11112,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
         <v>16</v>
       </c>
@@ -11126,7 +11119,7 @@
         <v>127</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F378" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11137,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
         <v>16</v>
       </c>
@@ -11151,7 +11144,7 @@
         <v>125</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F379" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11162,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
         <v>16</v>
       </c>
@@ -11176,7 +11169,7 @@
         <v>126</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F380" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11187,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
         <v>16</v>
       </c>
@@ -11201,7 +11194,7 @@
         <v>120</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F381" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11212,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="5" t="n">
         <v>17</v>
       </c>
@@ -11226,7 +11219,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="5" t="n">
         <v>17</v>
       </c>
@@ -11240,7 +11233,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="5" t="n">
         <v>17</v>
       </c>
@@ -11254,7 +11247,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="5" t="n">
         <v>17</v>
       </c>
@@ -11268,7 +11261,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="5" t="n">
         <v>17</v>
       </c>
@@ -11282,7 +11275,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="5" t="n">
         <v>17</v>
       </c>
@@ -11296,7 +11289,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="5" t="n">
         <v>17</v>
       </c>
@@ -11310,7 +11303,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="5" t="n">
         <v>17</v>
       </c>
@@ -11324,7 +11317,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="5" t="n">
         <v>17</v>
       </c>
@@ -11338,7 +11331,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="5" t="n">
         <v>17</v>
       </c>
@@ -11352,7 +11345,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="5" t="n">
         <v>17</v>
       </c>
@@ -11366,7 +11359,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="n">
         <v>17</v>
       </c>
@@ -11537,21 +11530,6 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:G404">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Bubak Blasters"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="0">
-      <filters>
-        <filter val="17"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:G404">
-      <sortCondition ref="A2:A404" customList=""/>
-    </sortState>
-  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11559,6 +11537,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PSL02_Compliance_Log.xlsx
+++ b/PSL02_Compliance_Log.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="251">
   <si>
     <t xml:space="preserve">MatchID</t>
   </si>
@@ -299,6 +299,12 @@
     <t xml:space="preserve">2026-01-29|18:48:00|Fazilpur Falcons|Macchike Mustangs</t>
   </si>
   <si>
+    <t xml:space="preserve">Mahmoodkot Mavericks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahmoodkot Mavericks won by 73 runs </t>
+  </si>
+  <si>
     <t xml:space="preserve">Team</t>
   </si>
   <si>
@@ -726,6 +732,48 @@
   </si>
   <si>
     <t xml:space="preserve">Muhammad Yousuf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fakhir Sohail (C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad Rafe Noman Lodhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asgher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehmood Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mustafa Kamal Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rizwan Zafar Siddiqui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zohaib Yaqoob </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irfan Shaikh (C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghavir Imran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Anwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Usman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Izaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munawar Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waqas</t>
   </si>
 </sst>
 </file>
@@ -736,7 +784,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,6 +812,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -816,7 +872,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -831,6 +887,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -849,6 +909,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,23 +922,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1058,10 +1105,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1691,6 +1738,26 @@
         <v>30</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>46052</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1709,8 +1776,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A385" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E414" activeCellId="0" sqref="E414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1732,19 +1799,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,11 +1824,11 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>97</v>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1780,13 +1847,13 @@
         <v>46038</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1805,13 +1872,13 @@
         <v>46038</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1830,13 +1897,13 @@
         <v>46038</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1855,13 +1922,13 @@
         <v>46038</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1882,11 +1949,11 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>97</v>
+      <c r="D7" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1905,13 +1972,13 @@
         <v>46038</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1930,13 +1997,13 @@
         <v>46038</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1955,13 +2022,13 @@
         <v>46038</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1982,11 +2049,11 @@
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>107</v>
+      <c r="D11" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2007,11 +2074,11 @@
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>107</v>
+      <c r="D12" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2032,11 +2099,11 @@
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>107</v>
+      <c r="D13" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2057,11 +2124,11 @@
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>108</v>
+      <c r="D14" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F14" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -2082,11 +2149,11 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>110</v>
+      <c r="D15" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2107,11 +2174,11 @@
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>111</v>
+      <c r="D16" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2132,11 +2199,11 @@
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>112</v>
+      <c r="D17" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2157,11 +2224,11 @@
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>111</v>
+      <c r="D18" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2182,11 +2249,11 @@
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>113</v>
+      <c r="D19" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F19" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2207,11 +2274,11 @@
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>114</v>
+      <c r="D20" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2232,11 +2299,11 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>111</v>
+      <c r="D21" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F21" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2257,11 +2324,11 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>115</v>
+      <c r="D22" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2282,11 +2349,11 @@
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>111</v>
+      <c r="D23" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2307,11 +2374,11 @@
       <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>116</v>
+      <c r="D24" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2332,11 +2399,11 @@
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>117</v>
+      <c r="D25" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2357,11 +2424,11 @@
       <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>118</v>
+      <c r="D26" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2382,11 +2449,11 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>118</v>
+      <c r="D27" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2407,11 +2474,11 @@
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>119</v>
+      <c r="D28" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F28" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2432,11 +2499,11 @@
       <c r="C29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>120</v>
+      <c r="D29" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F29" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2457,11 +2524,11 @@
       <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>121</v>
+      <c r="D30" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F30" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2482,11 +2549,11 @@
       <c r="C31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>118</v>
+      <c r="D31" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2507,11 +2574,11 @@
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>122</v>
+      <c r="D32" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2532,11 +2599,11 @@
       <c r="C33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>118</v>
+      <c r="D33" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F33" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2557,11 +2624,11 @@
       <c r="C34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>123</v>
+      <c r="D34" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2582,11 +2649,11 @@
       <c r="C35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>124</v>
+      <c r="D35" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F35" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -2607,11 +2674,11 @@
       <c r="C36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>125</v>
+      <c r="D36" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F36" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2632,11 +2699,11 @@
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>126</v>
+      <c r="D37" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2657,11 +2724,11 @@
       <c r="C38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>127</v>
+      <c r="D38" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F38" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2682,11 +2749,11 @@
       <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>128</v>
+      <c r="D39" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F39" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -2707,11 +2774,11 @@
       <c r="C40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>130</v>
+      <c r="D40" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F40" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2732,11 +2799,11 @@
       <c r="C41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>131</v>
+      <c r="D41" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F41" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2757,11 +2824,11 @@
       <c r="C42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>132</v>
+      <c r="D42" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F42" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2782,11 +2849,11 @@
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>133</v>
+      <c r="D43" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F43" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2807,11 +2874,11 @@
       <c r="C44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>134</v>
+      <c r="D44" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F44" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2832,11 +2899,11 @@
       <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>130</v>
+      <c r="D45" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F45" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2857,11 +2924,11 @@
       <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>135</v>
+      <c r="D46" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F46" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2882,11 +2949,11 @@
       <c r="C47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>136</v>
+      <c r="D47" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F47" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2907,11 +2974,11 @@
       <c r="C48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>137</v>
+      <c r="D48" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F48" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2932,11 +2999,11 @@
       <c r="C49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>138</v>
+      <c r="D49" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F49" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2957,11 +3024,11 @@
       <c r="C50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>139</v>
+      <c r="D50" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F50" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2982,11 +3049,11 @@
       <c r="C51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>140</v>
+      <c r="D51" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F51" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3007,11 +3074,11 @@
       <c r="C52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>141</v>
+      <c r="D52" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F52" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3032,11 +3099,11 @@
       <c r="C53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>142</v>
+      <c r="D53" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F53" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3057,11 +3124,11 @@
       <c r="C54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>143</v>
+      <c r="D54" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F54" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3082,11 +3149,11 @@
       <c r="C55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>144</v>
+      <c r="D55" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F55" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3107,11 +3174,11 @@
       <c r="C56" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>145</v>
+      <c r="D56" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F56" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3132,11 +3199,11 @@
       <c r="C57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>141</v>
+      <c r="D57" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F57" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3157,11 +3224,11 @@
       <c r="C58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>146</v>
+      <c r="D58" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F58" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3182,11 +3249,11 @@
       <c r="C59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>147</v>
+      <c r="D59" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F59" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3207,11 +3274,11 @@
       <c r="C60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>141</v>
+      <c r="D60" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F60" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3232,8 +3299,8 @@
       <c r="C61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>148</v>
+      <c r="D61" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="F61" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3254,11 +3321,11 @@
       <c r="C62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>149</v>
+      <c r="D62" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F62" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3279,11 +3346,11 @@
       <c r="C63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>150</v>
+      <c r="D63" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F63" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3304,11 +3371,11 @@
       <c r="C64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>151</v>
+      <c r="D64" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F64" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3329,11 +3396,11 @@
       <c r="C65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>152</v>
+      <c r="D65" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F65" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3354,11 +3421,11 @@
       <c r="C66" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>153</v>
+      <c r="D66" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F66" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3379,11 +3446,11 @@
       <c r="C67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>149</v>
+      <c r="D67" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F67" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3404,11 +3471,11 @@
       <c r="C68" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>154</v>
+      <c r="D68" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F68" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3429,11 +3496,11 @@
       <c r="C69" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>155</v>
+      <c r="D69" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F69" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3454,11 +3521,11 @@
       <c r="C70" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>149</v>
+      <c r="D70" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F70" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3479,11 +3546,11 @@
       <c r="C71" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>156</v>
+      <c r="D71" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F71" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3504,11 +3571,11 @@
       <c r="C72" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>157</v>
+      <c r="D72" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F72" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3529,11 +3596,11 @@
       <c r="C73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>158</v>
+      <c r="D73" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F73" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3554,11 +3621,11 @@
       <c r="C74" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>159</v>
+      <c r="D74" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F74" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3579,11 +3646,11 @@
       <c r="C75" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>160</v>
+      <c r="D75" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F75" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3604,11 +3671,11 @@
       <c r="C76" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>161</v>
+      <c r="D76" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F76" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3629,11 +3696,11 @@
       <c r="C77" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>162</v>
+      <c r="D77" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F77" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3654,11 +3721,11 @@
       <c r="C78" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>161</v>
+      <c r="D78" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F78" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3679,11 +3746,11 @@
       <c r="C79" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>161</v>
+      <c r="D79" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F79" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3704,11 +3771,11 @@
       <c r="C80" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>163</v>
+      <c r="D80" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F80" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3729,11 +3796,11 @@
       <c r="C81" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>164</v>
+      <c r="D81" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F81" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3754,11 +3821,11 @@
       <c r="C82" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>161</v>
+      <c r="D82" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F82" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3779,11 +3846,11 @@
       <c r="C83" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>165</v>
+      <c r="D83" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F83" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3804,11 +3871,11 @@
       <c r="C84" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>166</v>
+      <c r="D84" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F84" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3829,11 +3896,11 @@
       <c r="C85" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>167</v>
+      <c r="D85" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F85" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3854,11 +3921,11 @@
       <c r="C86" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>165</v>
+      <c r="D86" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F86" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3879,11 +3946,11 @@
       <c r="C87" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>168</v>
+      <c r="D87" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F87" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3904,11 +3971,11 @@
       <c r="C88" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>165</v>
+      <c r="D88" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F88" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3929,11 +3996,11 @@
       <c r="C89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>169</v>
+      <c r="D89" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F89" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3954,11 +4021,11 @@
       <c r="C90" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>170</v>
+      <c r="D90" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F90" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3979,11 +4046,11 @@
       <c r="C91" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>171</v>
+      <c r="D91" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F91" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4004,11 +4071,11 @@
       <c r="C92" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>165</v>
+      <c r="D92" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F92" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4029,11 +4096,11 @@
       <c r="C93" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>172</v>
+      <c r="D93" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F93" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4054,8 +4121,8 @@
       <c r="C94" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>173</v>
+      <c r="D94" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="F94" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4076,11 +4143,11 @@
       <c r="C95" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>174</v>
+      <c r="D95" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F95" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -4099,13 +4166,13 @@
         <v>46042</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F96" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4124,13 +4191,13 @@
         <v>46042</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="D97" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="E97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F97" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4149,13 +4216,13 @@
         <v>46042</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F98" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4174,13 +4241,13 @@
         <v>46042</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F99" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4201,11 +4268,11 @@
       <c r="C100" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>174</v>
+      <c r="D100" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F100" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -4224,13 +4291,13 @@
         <v>46042</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F101" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4249,13 +4316,13 @@
         <v>46042</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F102" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4274,13 +4341,13 @@
         <v>46042</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F103" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4301,11 +4368,11 @@
       <c r="C104" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>174</v>
+      <c r="D104" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F104" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -4326,11 +4393,11 @@
       <c r="C105" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>175</v>
+      <c r="D105" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F105" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4351,11 +4418,11 @@
       <c r="C106" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>175</v>
+      <c r="D106" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F106" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4376,11 +4443,11 @@
       <c r="C107" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>128</v>
+      <c r="D107" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F107" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -4401,11 +4468,11 @@
       <c r="C108" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>130</v>
+      <c r="D108" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F108" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4426,11 +4493,11 @@
       <c r="C109" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>131</v>
+      <c r="D109" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F109" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4451,11 +4518,11 @@
       <c r="C110" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>132</v>
+      <c r="D110" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F110" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4476,11 +4543,11 @@
       <c r="C111" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>133</v>
+      <c r="D111" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F111" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4501,11 +4568,11 @@
       <c r="C112" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>176</v>
+      <c r="D112" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F112" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4526,11 +4593,11 @@
       <c r="C113" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>130</v>
+      <c r="D113" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F113" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4551,11 +4618,11 @@
       <c r="C114" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>135</v>
+      <c r="D114" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F114" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4576,11 +4643,11 @@
       <c r="C115" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>134</v>
+      <c r="D115" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F115" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4601,11 +4668,11 @@
       <c r="C116" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>137</v>
+      <c r="D116" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F116" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4626,11 +4693,11 @@
       <c r="C117" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>138</v>
+      <c r="D117" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F117" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4651,11 +4718,11 @@
       <c r="C118" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>140</v>
+      <c r="D118" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F118" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4676,11 +4743,11 @@
       <c r="C119" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>141</v>
+      <c r="D119" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F119" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4701,11 +4768,11 @@
       <c r="C120" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>142</v>
+      <c r="D120" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F120" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4726,11 +4793,11 @@
       <c r="C121" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>143</v>
+      <c r="D121" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F121" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4751,11 +4818,11 @@
       <c r="C122" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>144</v>
+      <c r="D122" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F122" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4776,11 +4843,11 @@
       <c r="C123" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>177</v>
+      <c r="D123" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F123" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4801,11 +4868,11 @@
       <c r="C124" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>177</v>
+      <c r="D124" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F124" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4826,11 +4893,11 @@
       <c r="C125" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>146</v>
+      <c r="D125" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F125" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4851,11 +4918,11 @@
       <c r="C126" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>145</v>
+      <c r="D126" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F126" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4876,11 +4943,11 @@
       <c r="C127" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>177</v>
+      <c r="D127" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F127" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4901,11 +4968,11 @@
       <c r="C128" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>148</v>
+      <c r="D128" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F128" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4926,8 +4993,8 @@
       <c r="C129" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>178</v>
+      <c r="D129" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="F129" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4948,11 +5015,11 @@
       <c r="C130" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>108</v>
+      <c r="D130" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F130" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -4973,11 +5040,11 @@
       <c r="C131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>110</v>
+      <c r="D131" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F131" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4998,11 +5065,11 @@
       <c r="C132" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>116</v>
+      <c r="D132" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F132" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5023,11 +5090,11 @@
       <c r="C133" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>112</v>
+      <c r="D133" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F133" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5048,11 +5115,11 @@
       <c r="C134" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>116</v>
+      <c r="D134" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F134" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5073,11 +5140,11 @@
       <c r="C135" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>179</v>
+      <c r="D135" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F135" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5098,11 +5165,11 @@
       <c r="C136" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>114</v>
+      <c r="D136" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F136" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5123,11 +5190,11 @@
       <c r="C137" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>180</v>
+      <c r="D137" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F137" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5148,11 +5215,11 @@
       <c r="C138" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>181</v>
+      <c r="D138" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F138" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5173,11 +5240,11 @@
       <c r="C139" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>180</v>
+      <c r="D139" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F139" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5198,11 +5265,11 @@
       <c r="C140" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>180</v>
+      <c r="D140" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F140" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5223,11 +5290,11 @@
       <c r="C141" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>182</v>
+      <c r="D141" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F141" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5248,11 +5315,11 @@
       <c r="C142" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>157</v>
+      <c r="D142" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F142" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5273,11 +5340,11 @@
       <c r="C143" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>158</v>
+      <c r="D143" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F143" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5298,11 +5365,11 @@
       <c r="C144" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>183</v>
+      <c r="D144" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F144" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5323,11 +5390,11 @@
       <c r="C145" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>160</v>
+      <c r="D145" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F145" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5348,11 +5415,11 @@
       <c r="C146" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>184</v>
+      <c r="D146" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F146" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5373,11 +5440,11 @@
       <c r="C147" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>184</v>
+      <c r="D147" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F147" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -5398,11 +5465,11 @@
       <c r="C148" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>184</v>
+      <c r="D148" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F148" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5423,11 +5490,11 @@
       <c r="C149" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>185</v>
+      <c r="D149" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F149" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5448,11 +5515,11 @@
       <c r="C150" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D150" s="4" t="s">
-        <v>186</v>
+      <c r="D150" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F150" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5473,11 +5540,11 @@
       <c r="C151" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>164</v>
+      <c r="D151" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F151" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5498,11 +5565,11 @@
       <c r="C152" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>185</v>
+      <c r="D152" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F152" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5523,8 +5590,8 @@
       <c r="C153" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>187</v>
+      <c r="D153" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="F153" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5545,11 +5612,11 @@
       <c r="C154" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>188</v>
+      <c r="D154" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F154" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5570,11 +5637,11 @@
       <c r="C155" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>128</v>
+      <c r="D155" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F155" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5595,11 +5662,11 @@
       <c r="C156" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>131</v>
+      <c r="D156" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F156" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5620,11 +5687,11 @@
       <c r="C157" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>132</v>
+      <c r="D157" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F157" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5645,11 +5712,11 @@
       <c r="C158" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>133</v>
+      <c r="D158" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F158" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5670,11 +5737,11 @@
       <c r="C159" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>176</v>
+      <c r="D159" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F159" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5695,11 +5762,11 @@
       <c r="C160" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>189</v>
+      <c r="D160" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F160" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5720,11 +5787,11 @@
       <c r="C161" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>135</v>
+      <c r="D161" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F161" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5745,11 +5812,11 @@
       <c r="C162" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>190</v>
+      <c r="D162" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F162" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5770,11 +5837,11 @@
       <c r="C163" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>137</v>
+      <c r="D163" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F163" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5795,11 +5862,11 @@
       <c r="C164" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>138</v>
+      <c r="D164" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F164" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5820,11 +5887,11 @@
       <c r="C165" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>191</v>
+      <c r="D165" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F165" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5845,11 +5912,11 @@
       <c r="C166" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>140</v>
+      <c r="D166" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F166" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -5870,11 +5937,11 @@
       <c r="C167" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>177</v>
+      <c r="D167" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F167" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5895,11 +5962,11 @@
       <c r="C168" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>192</v>
+      <c r="D168" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F168" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5920,11 +5987,11 @@
       <c r="C169" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>143</v>
+      <c r="D169" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F169" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5945,11 +6012,11 @@
       <c r="C170" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>144</v>
+      <c r="D170" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F170" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5970,11 +6037,11 @@
       <c r="C171" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>145</v>
+      <c r="D171" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F171" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5995,11 +6062,11 @@
       <c r="C172" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>192</v>
+      <c r="D172" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F172" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6020,11 +6087,11 @@
       <c r="C173" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>146</v>
+      <c r="D173" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F173" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6045,11 +6112,11 @@
       <c r="C174" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>147</v>
+      <c r="D174" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F174" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6070,11 +6137,11 @@
       <c r="C175" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D175" s="4" t="s">
-        <v>192</v>
+      <c r="D175" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F175" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6095,11 +6162,11 @@
       <c r="C176" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="4" t="s">
-        <v>148</v>
+      <c r="D176" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F176" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6120,8 +6187,8 @@
       <c r="C177" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D177" s="4" t="s">
-        <v>193</v>
+      <c r="D177" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="F177" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6142,11 +6209,11 @@
       <c r="C178" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D178" s="4" t="s">
-        <v>175</v>
+      <c r="D178" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F178" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6165,13 +6232,13 @@
         <v>46045</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F179" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6192,8 +6259,8 @@
       <c r="C180" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D180" s="4" t="s">
-        <v>194</v>
+      <c r="D180" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="F180" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6212,13 +6279,13 @@
         <v>46045</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F181" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6237,13 +6304,13 @@
         <v>46045</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F182" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6262,13 +6329,13 @@
         <v>46045</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F183" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6287,13 +6354,13 @@
         <v>46045</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F184" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6312,13 +6379,13 @@
         <v>46045</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F185" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6339,11 +6406,11 @@
       <c r="C186" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>194</v>
+      <c r="D186" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F186" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6364,8 +6431,8 @@
       <c r="C187" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>195</v>
+      <c r="D187" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="F187" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6384,13 +6451,13 @@
         <v>46045</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D188" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="D188" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="E188" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F188" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6409,13 +6476,13 @@
         <v>46045</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>196</v>
+        <v>101</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F189" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6436,11 +6503,11 @@
       <c r="C190" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>108</v>
+      <c r="D190" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F190" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -6461,11 +6528,11 @@
       <c r="C191" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>110</v>
+      <c r="D191" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F191" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6486,11 +6553,11 @@
       <c r="C192" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>180</v>
+      <c r="D192" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F192" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6511,11 +6578,11 @@
       <c r="C193" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>112</v>
+      <c r="D193" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F193" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6536,11 +6603,11 @@
       <c r="C194" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>197</v>
+      <c r="D194" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F194" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6561,11 +6628,11 @@
       <c r="C195" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D195" s="4" t="s">
-        <v>113</v>
+      <c r="D195" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F195" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6586,11 +6653,11 @@
       <c r="C196" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D196" s="4" t="s">
-        <v>114</v>
+      <c r="D196" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F196" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6611,11 +6678,11 @@
       <c r="C197" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D197" s="4" t="s">
-        <v>197</v>
+      <c r="D197" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F197" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6636,11 +6703,11 @@
       <c r="C198" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D198" s="4" t="s">
-        <v>115</v>
+      <c r="D198" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F198" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6661,11 +6728,11 @@
       <c r="C199" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>197</v>
+      <c r="D199" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F199" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6686,11 +6753,11 @@
       <c r="C200" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>197</v>
+      <c r="D200" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F200" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6711,11 +6778,11 @@
       <c r="C201" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D201" s="4" t="s">
-        <v>198</v>
+      <c r="D201" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F201" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6736,11 +6803,11 @@
       <c r="C202" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>199</v>
+      <c r="D202" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F202" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6761,11 +6828,11 @@
       <c r="C203" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>166</v>
+      <c r="D203" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F203" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6786,11 +6853,11 @@
       <c r="C204" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>167</v>
+      <c r="D204" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F204" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6811,11 +6878,11 @@
       <c r="C205" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D205" s="4" t="s">
-        <v>199</v>
+      <c r="D205" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F205" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6836,11 +6903,11 @@
       <c r="C206" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D206" s="4" t="s">
-        <v>168</v>
+      <c r="D206" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F206" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6861,11 +6928,11 @@
       <c r="C207" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>171</v>
+      <c r="D207" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F207" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6886,11 +6953,11 @@
       <c r="C208" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D208" s="4" t="s">
-        <v>169</v>
+      <c r="D208" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F208" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6911,11 +6978,11 @@
       <c r="C209" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D209" s="4" t="s">
-        <v>170</v>
+      <c r="D209" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F209" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6936,11 +7003,11 @@
       <c r="C210" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D210" s="4" t="s">
-        <v>200</v>
+      <c r="D210" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F210" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6961,11 +7028,11 @@
       <c r="C211" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>199</v>
+      <c r="D211" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F211" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6986,11 +7053,11 @@
       <c r="C212" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D212" s="4" t="s">
-        <v>172</v>
+      <c r="D212" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F212" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7011,11 +7078,11 @@
       <c r="C213" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D213" s="4" t="s">
-        <v>201</v>
+      <c r="D213" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F213" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7036,11 +7103,11 @@
       <c r="C214" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D214" s="4" t="s">
-        <v>149</v>
+      <c r="D214" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F214" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7061,11 +7128,11 @@
       <c r="C215" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D215" s="4" t="s">
-        <v>202</v>
+      <c r="D215" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F215" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7086,11 +7153,11 @@
       <c r="C216" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>202</v>
+      <c r="D216" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F216" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7111,11 +7178,11 @@
       <c r="C217" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D217" s="4" t="s">
-        <v>151</v>
+      <c r="D217" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F217" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7136,11 +7203,11 @@
       <c r="C218" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D218" s="4" t="s">
-        <v>152</v>
+      <c r="D218" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F218" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7161,11 +7228,11 @@
       <c r="C219" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D219" s="4" t="s">
-        <v>203</v>
+      <c r="D219" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F219" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7186,11 +7253,11 @@
       <c r="C220" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D220" s="4" t="s">
-        <v>202</v>
+      <c r="D220" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F220" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7211,11 +7278,11 @@
       <c r="C221" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D221" s="4" t="s">
-        <v>154</v>
+      <c r="D221" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F221" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7236,11 +7303,11 @@
       <c r="C222" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D222" s="4" t="s">
-        <v>204</v>
+      <c r="D222" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F222" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7261,11 +7328,11 @@
       <c r="C223" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>202</v>
+      <c r="D223" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F223" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7286,11 +7353,11 @@
       <c r="C224" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>205</v>
+      <c r="D224" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F224" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7311,8 +7378,8 @@
       <c r="C225" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D225" s="4" t="s">
-        <v>206</v>
+      <c r="D225" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="F225" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7333,11 +7400,11 @@
       <c r="C226" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>124</v>
+      <c r="D226" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F226" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -7358,11 +7425,11 @@
       <c r="C227" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D227" s="4" t="s">
-        <v>124</v>
+      <c r="D227" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F227" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -7383,11 +7450,11 @@
       <c r="C228" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D228" s="4" t="s">
-        <v>119</v>
+      <c r="D228" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F228" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7408,11 +7475,11 @@
       <c r="C229" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D229" s="4" t="s">
-        <v>121</v>
+      <c r="D229" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F229" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7433,11 +7500,11 @@
       <c r="C230" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D230" s="4" t="s">
-        <v>124</v>
+      <c r="D230" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F230" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -7458,11 +7525,11 @@
       <c r="C231" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D231" s="4" t="s">
-        <v>122</v>
+      <c r="D231" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F231" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7483,11 +7550,11 @@
       <c r="C232" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D232" s="4" t="s">
-        <v>207</v>
+      <c r="D232" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F232" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7508,11 +7575,11 @@
       <c r="C233" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D233" s="4" t="s">
-        <v>123</v>
+      <c r="D233" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F233" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7533,11 +7600,11 @@
       <c r="C234" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D234" s="4" t="s">
-        <v>207</v>
+      <c r="D234" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F234" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7558,11 +7625,11 @@
       <c r="C235" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D235" s="4" t="s">
-        <v>125</v>
+      <c r="D235" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F235" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7583,11 +7650,11 @@
       <c r="C236" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D236" s="4" t="s">
-        <v>126</v>
+      <c r="D236" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F236" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7608,11 +7675,11 @@
       <c r="C237" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D237" s="4" t="s">
-        <v>127</v>
+      <c r="D237" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F237" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7633,11 +7700,11 @@
       <c r="C238" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D238" s="4" t="s">
-        <v>157</v>
+      <c r="D238" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F238" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7658,11 +7725,11 @@
       <c r="C239" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D239" s="4" t="s">
-        <v>158</v>
+      <c r="D239" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F239" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7683,11 +7750,11 @@
       <c r="C240" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D240" s="4" t="s">
-        <v>183</v>
+      <c r="D240" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F240" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7708,11 +7775,11 @@
       <c r="C241" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D241" s="4" t="s">
-        <v>160</v>
+      <c r="D241" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F241" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7733,11 +7800,11 @@
       <c r="C242" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D242" s="4" t="s">
-        <v>185</v>
+      <c r="D242" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F242" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7758,11 +7825,11 @@
       <c r="C243" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D243" s="4" t="s">
-        <v>208</v>
+      <c r="D243" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F243" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7783,11 +7850,11 @@
       <c r="C244" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D244" s="4" t="s">
-        <v>185</v>
+      <c r="D244" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F244" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7808,11 +7875,11 @@
       <c r="C245" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D245" s="4" t="s">
-        <v>159</v>
+      <c r="D245" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F245" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7833,11 +7900,11 @@
       <c r="C246" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D246" s="4" t="s">
-        <v>209</v>
+      <c r="D246" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F246" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7858,11 +7925,11 @@
       <c r="C247" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D247" s="4" t="s">
-        <v>164</v>
+      <c r="D247" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F247" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7883,11 +7950,11 @@
       <c r="C248" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D248" s="4" t="s">
-        <v>210</v>
+      <c r="D248" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F248" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -7908,11 +7975,11 @@
       <c r="C249" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D249" s="4" t="s">
-        <v>211</v>
+      <c r="D249" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F249" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7933,11 +8000,11 @@
       <c r="C250" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D250" s="4" t="s">
-        <v>102</v>
+      <c r="D250" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F250" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7958,11 +8025,11 @@
       <c r="C251" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D251" s="4" t="s">
-        <v>100</v>
+      <c r="D251" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F251" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7983,11 +8050,11 @@
       <c r="C252" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D252" s="4" t="s">
-        <v>194</v>
+      <c r="D252" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F252" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8008,11 +8075,11 @@
       <c r="C253" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D253" s="4" t="s">
-        <v>104</v>
+      <c r="D253" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F253" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8033,11 +8100,11 @@
       <c r="C254" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D254" s="4" t="s">
-        <v>103</v>
+      <c r="D254" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F254" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8058,11 +8125,11 @@
       <c r="C255" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D255" s="4" t="s">
-        <v>196</v>
+      <c r="D255" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F255" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -8083,11 +8150,11 @@
       <c r="C256" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D256" s="4" t="s">
-        <v>107</v>
+      <c r="D256" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F256" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8108,11 +8175,11 @@
       <c r="C257" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D257" s="4" t="s">
-        <v>105</v>
+      <c r="D257" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F257" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8133,11 +8200,11 @@
       <c r="C258" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D258" s="4" t="s">
-        <v>212</v>
+      <c r="D258" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F258" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8158,11 +8225,11 @@
       <c r="C259" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D259" s="4" t="s">
-        <v>174</v>
+      <c r="D259" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F259" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8183,8 +8250,8 @@
       <c r="C260" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D260" s="4" t="s">
-        <v>97</v>
+      <c r="D260" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F260" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8205,11 +8272,11 @@
       <c r="C261" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D261" s="4" t="s">
-        <v>140</v>
+      <c r="D261" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F261" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -8230,11 +8297,11 @@
       <c r="C262" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D262" s="4" t="s">
-        <v>192</v>
+      <c r="D262" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F262" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8255,11 +8322,11 @@
       <c r="C263" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D263" s="4" t="s">
-        <v>142</v>
+      <c r="D263" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F263" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8280,11 +8347,11 @@
       <c r="C264" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D264" s="4" t="s">
-        <v>143</v>
+      <c r="D264" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F264" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8305,11 +8372,11 @@
       <c r="C265" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D265" s="4" t="s">
-        <v>144</v>
+      <c r="D265" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F265" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8330,11 +8397,11 @@
       <c r="C266" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D266" s="4" t="s">
-        <v>213</v>
+      <c r="D266" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F266" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8355,11 +8422,11 @@
       <c r="C267" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D267" s="4" t="s">
-        <v>213</v>
+      <c r="D267" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F267" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8380,11 +8447,11 @@
       <c r="C268" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D268" s="4" t="s">
-        <v>146</v>
+      <c r="D268" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F268" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8405,11 +8472,11 @@
       <c r="C269" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D269" s="4" t="s">
-        <v>193</v>
+      <c r="D269" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F269" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8430,11 +8497,11 @@
       <c r="C270" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D270" s="4" t="s">
-        <v>213</v>
+      <c r="D270" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F270" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8455,11 +8522,11 @@
       <c r="C271" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D271" s="4" t="s">
-        <v>148</v>
+      <c r="D271" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F271" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8480,11 +8547,11 @@
       <c r="C272" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D272" s="4" t="s">
-        <v>214</v>
+      <c r="D272" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F272" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8505,11 +8572,11 @@
       <c r="C273" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D273" s="4" t="s">
-        <v>201</v>
+      <c r="D273" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F273" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8530,11 +8597,11 @@
       <c r="C274" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D274" s="4" t="s">
-        <v>166</v>
+      <c r="D274" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F274" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8555,11 +8622,11 @@
       <c r="C275" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D275" s="4" t="s">
-        <v>167</v>
+      <c r="D275" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F275" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8580,11 +8647,11 @@
       <c r="C276" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D276" s="4" t="s">
-        <v>201</v>
+      <c r="D276" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F276" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8605,11 +8672,11 @@
       <c r="C277" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D277" s="4" t="s">
-        <v>168</v>
+      <c r="D277" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F277" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8630,11 +8697,11 @@
       <c r="C278" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D278" s="4" t="s">
-        <v>201</v>
+      <c r="D278" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F278" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8655,11 +8722,11 @@
       <c r="C279" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D279" s="4" t="s">
-        <v>169</v>
+      <c r="D279" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F279" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8680,11 +8747,11 @@
       <c r="C280" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D280" s="4" t="s">
-        <v>170</v>
+      <c r="D280" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F280" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8705,11 +8772,11 @@
       <c r="C281" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D281" s="4" t="s">
-        <v>171</v>
+      <c r="D281" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F281" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8730,11 +8797,11 @@
       <c r="C282" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D282" s="4" t="s">
-        <v>215</v>
+      <c r="D282" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F282" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -8755,11 +8822,11 @@
       <c r="C283" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D283" s="4" t="s">
-        <v>172</v>
+      <c r="D283" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F283" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8780,8 +8847,8 @@
       <c r="C284" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D284" s="4" t="s">
-        <v>216</v>
+      <c r="D284" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="F284" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8802,11 +8869,11 @@
       <c r="C285" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D285" s="4" t="s">
-        <v>157</v>
+      <c r="D285" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F285" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8827,11 +8894,11 @@
       <c r="C286" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D286" s="4" t="s">
-        <v>158</v>
+      <c r="D286" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F286" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8852,11 +8919,11 @@
       <c r="C287" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D287" s="4" t="s">
-        <v>210</v>
+      <c r="D287" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F287" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -8877,11 +8944,11 @@
       <c r="C288" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D288" s="4" t="s">
-        <v>160</v>
+      <c r="D288" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F288" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8902,11 +8969,11 @@
       <c r="C289" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D289" s="4" t="s">
-        <v>217</v>
+      <c r="D289" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F289" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8927,11 +8994,11 @@
       <c r="C290" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D290" s="4" t="s">
-        <v>183</v>
+      <c r="D290" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F290" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8952,11 +9019,11 @@
       <c r="C291" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D291" s="4" t="s">
-        <v>217</v>
+      <c r="D291" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F291" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8977,11 +9044,11 @@
       <c r="C292" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D292" s="4" t="s">
-        <v>217</v>
+      <c r="D292" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F292" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9002,11 +9069,11 @@
       <c r="C293" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D293" s="4" t="s">
-        <v>209</v>
+      <c r="D293" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F293" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9027,11 +9094,11 @@
       <c r="C294" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D294" s="4" t="s">
-        <v>164</v>
+      <c r="D294" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F294" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9052,11 +9119,11 @@
       <c r="C295" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D295" s="4" t="s">
-        <v>217</v>
+      <c r="D295" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F295" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9077,8 +9144,8 @@
       <c r="C296" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D296" s="4" t="s">
-        <v>159</v>
+      <c r="D296" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="F296" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9099,11 +9166,11 @@
       <c r="C297" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D297" s="4" t="s">
-        <v>207</v>
+      <c r="D297" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F297" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9124,11 +9191,11 @@
       <c r="C298" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D298" s="4" t="s">
-        <v>218</v>
+      <c r="D298" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F298" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9149,11 +9216,11 @@
       <c r="C299" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D299" s="4" t="s">
-        <v>119</v>
+      <c r="D299" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F299" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9174,11 +9241,11 @@
       <c r="C300" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D300" s="4" t="s">
-        <v>121</v>
+      <c r="D300" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F300" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9199,11 +9266,11 @@
       <c r="C301" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D301" s="4" t="s">
-        <v>218</v>
+      <c r="D301" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F301" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9224,11 +9291,11 @@
       <c r="C302" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D302" s="4" t="s">
-        <v>122</v>
+      <c r="D302" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F302" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9249,11 +9316,11 @@
       <c r="C303" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D303" s="4" t="s">
-        <v>218</v>
+      <c r="D303" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F303" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9274,11 +9341,11 @@
       <c r="C304" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D304" s="4" t="s">
-        <v>123</v>
+      <c r="D304" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F304" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9299,11 +9366,11 @@
       <c r="C305" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D305" s="4" t="s">
-        <v>218</v>
+      <c r="D305" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F305" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9324,11 +9391,11 @@
       <c r="C306" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D306" s="4" t="s">
-        <v>125</v>
+      <c r="D306" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F306" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9349,11 +9416,11 @@
       <c r="C307" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D307" s="4" t="s">
-        <v>126</v>
+      <c r="D307" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F307" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9374,11 +9441,11 @@
       <c r="C308" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D308" s="4" t="s">
-        <v>219</v>
+      <c r="D308" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F308" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9399,11 +9466,11 @@
       <c r="C309" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D309" s="4" t="s">
-        <v>215</v>
+      <c r="D309" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F309" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -9424,11 +9491,11 @@
       <c r="C310" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D310" s="4" t="s">
-        <v>166</v>
+      <c r="D310" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F310" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9449,11 +9516,11 @@
       <c r="C311" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D311" s="4" t="s">
-        <v>167</v>
+      <c r="D311" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F311" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9474,11 +9541,11 @@
       <c r="C312" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D312" s="4" t="s">
-        <v>215</v>
+      <c r="D312" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F312" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -9499,11 +9566,11 @@
       <c r="C313" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D313" s="4" t="s">
-        <v>168</v>
+      <c r="D313" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F313" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9524,11 +9591,11 @@
       <c r="C314" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D314" s="4" t="s">
-        <v>215</v>
+      <c r="D314" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F314" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -9549,11 +9616,11 @@
       <c r="C315" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D315" s="4" t="s">
-        <v>169</v>
+      <c r="D315" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F315" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9574,11 +9641,11 @@
       <c r="C316" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D316" s="4" t="s">
-        <v>170</v>
+      <c r="D316" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F316" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9599,11 +9666,11 @@
       <c r="C317" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D317" s="4" t="s">
-        <v>173</v>
+      <c r="D317" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F317" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9624,8 +9691,8 @@
       <c r="C318" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D318" s="4" t="s">
-        <v>221</v>
+      <c r="D318" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="F318" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9646,11 +9713,11 @@
       <c r="C319" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D319" s="4" t="s">
-        <v>172</v>
+      <c r="D319" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F319" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9671,8 +9738,8 @@
       <c r="C320" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D320" s="4" t="s">
-        <v>222</v>
+      <c r="D320" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="F320" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9693,11 +9760,11 @@
       <c r="C321" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D321" s="4" t="s">
-        <v>223</v>
+      <c r="D321" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F321" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9718,11 +9785,11 @@
       <c r="C322" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D322" s="4" t="s">
-        <v>152</v>
+      <c r="D322" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F322" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9743,11 +9810,11 @@
       <c r="C323" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D323" s="4" t="s">
-        <v>150</v>
+      <c r="D323" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F323" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9768,11 +9835,11 @@
       <c r="C324" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D324" s="4" t="s">
-        <v>151</v>
+      <c r="D324" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F324" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9793,11 +9860,11 @@
       <c r="C325" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D325" s="4" t="s">
-        <v>223</v>
+      <c r="D325" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F325" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9818,11 +9885,11 @@
       <c r="C326" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D326" s="4" t="s">
-        <v>205</v>
+      <c r="D326" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F326" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9843,11 +9910,11 @@
       <c r="C327" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D327" s="4" t="s">
-        <v>223</v>
+      <c r="D327" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F327" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9868,11 +9935,11 @@
       <c r="C328" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D328" s="4" t="s">
-        <v>154</v>
+      <c r="D328" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F328" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9893,11 +9960,11 @@
       <c r="C329" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D329" s="4" t="s">
-        <v>223</v>
+      <c r="D329" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F329" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9918,11 +9985,11 @@
       <c r="C330" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D330" s="4" t="s">
-        <v>224</v>
+      <c r="D330" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F330" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9943,11 +10010,11 @@
       <c r="C331" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D331" s="4" t="s">
-        <v>156</v>
+      <c r="D331" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F331" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9968,11 +10035,11 @@
       <c r="C332" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D332" s="4" t="s">
-        <v>225</v>
+      <c r="D332" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F332" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9993,11 +10060,11 @@
       <c r="C333" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D333" s="4" t="s">
-        <v>224</v>
+      <c r="D333" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F333" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10018,11 +10085,11 @@
       <c r="C334" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D334" s="4" t="s">
-        <v>224</v>
+      <c r="D334" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F334" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10043,11 +10110,11 @@
       <c r="C335" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D335" s="4" t="s">
-        <v>150</v>
+      <c r="D335" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F335" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10068,11 +10135,11 @@
       <c r="C336" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D336" s="4" t="s">
-        <v>151</v>
+      <c r="D336" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F336" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10093,11 +10160,11 @@
       <c r="C337" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D337" s="4" t="s">
-        <v>152</v>
+      <c r="D337" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F337" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10118,11 +10185,11 @@
       <c r="C338" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D338" s="4" t="s">
-        <v>205</v>
+      <c r="D338" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F338" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10143,11 +10210,11 @@
       <c r="C339" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D339" s="4" t="s">
-        <v>227</v>
+      <c r="D339" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F339" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -10168,11 +10235,11 @@
       <c r="C340" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D340" s="4" t="s">
-        <v>154</v>
+      <c r="D340" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F340" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10193,11 +10260,11 @@
       <c r="C341" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D341" s="4" t="s">
-        <v>227</v>
+      <c r="D341" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F341" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -10218,11 +10285,11 @@
       <c r="C342" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D342" s="4" t="s">
-        <v>227</v>
+      <c r="D342" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F342" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10243,11 +10310,11 @@
       <c r="C343" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D343" s="4" t="s">
-        <v>156</v>
+      <c r="D343" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F343" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10268,11 +10335,11 @@
       <c r="C344" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D344" s="4" t="s">
-        <v>203</v>
+      <c r="D344" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F344" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10293,11 +10360,11 @@
       <c r="C345" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D345" s="4" t="s">
-        <v>227</v>
+      <c r="D345" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F345" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -10318,11 +10385,11 @@
       <c r="C346" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D346" s="4" t="s">
-        <v>128</v>
+      <c r="D346" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F346" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -10343,11 +10410,11 @@
       <c r="C347" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D347" s="4" t="s">
-        <v>191</v>
+      <c r="D347" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F347" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10368,11 +10435,11 @@
       <c r="C348" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D348" s="4" t="s">
-        <v>131</v>
+      <c r="D348" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F348" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10393,11 +10460,11 @@
       <c r="C349" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D349" s="4" t="s">
-        <v>132</v>
+      <c r="D349" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F349" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10418,11 +10485,11 @@
       <c r="C350" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D350" s="4" t="s">
-        <v>133</v>
+      <c r="D350" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F350" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10443,11 +10510,11 @@
       <c r="C351" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D351" s="4" t="s">
-        <v>190</v>
+      <c r="D351" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F351" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10468,11 +10535,11 @@
       <c r="C352" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D352" s="4" t="s">
-        <v>191</v>
+      <c r="D352" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F352" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -10493,11 +10560,11 @@
       <c r="C353" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D353" s="4" t="s">
-        <v>135</v>
+      <c r="D353" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F353" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10518,11 +10585,11 @@
       <c r="C354" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D354" s="4" t="s">
-        <v>136</v>
+      <c r="D354" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F354" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10543,11 +10610,11 @@
       <c r="C355" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D355" s="4" t="s">
-        <v>137</v>
+      <c r="D355" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F355" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10568,11 +10635,11 @@
       <c r="C356" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D356" s="4" t="s">
-        <v>138</v>
+      <c r="D356" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F356" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10593,11 +10660,11 @@
       <c r="C357" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D357" s="4" t="s">
-        <v>191</v>
+      <c r="D357" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F357" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10618,11 +10685,11 @@
       <c r="C358" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D358" s="4" t="s">
-        <v>114</v>
+      <c r="D358" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F358" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -10643,11 +10710,11 @@
       <c r="C359" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D359" s="4" t="s">
-        <v>110</v>
+      <c r="D359" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F359" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10668,11 +10735,11 @@
       <c r="C360" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D360" s="4" t="s">
-        <v>113</v>
+      <c r="D360" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F360" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10693,11 +10760,11 @@
       <c r="C361" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D361" s="4" t="s">
-        <v>112</v>
+      <c r="D361" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F361" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10718,11 +10785,11 @@
       <c r="C362" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D362" s="4" t="s">
-        <v>229</v>
+      <c r="D362" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F362" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10743,11 +10810,11 @@
       <c r="C363" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D363" s="4" t="s">
-        <v>115</v>
+      <c r="D363" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F363" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10768,11 +10835,11 @@
       <c r="C364" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D364" s="4" t="s">
-        <v>108</v>
+      <c r="D364" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F364" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10793,11 +10860,11 @@
       <c r="C365" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D365" s="4" t="s">
-        <v>229</v>
+      <c r="D365" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F365" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10818,11 +10885,11 @@
       <c r="C366" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D366" s="4" t="s">
-        <v>179</v>
+      <c r="D366" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F366" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10843,11 +10910,11 @@
       <c r="C367" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D367" s="4" t="s">
-        <v>229</v>
+      <c r="D367" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F367" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10868,11 +10935,11 @@
       <c r="C368" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D368" s="4" t="s">
-        <v>229</v>
+      <c r="D368" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F368" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10893,8 +10960,8 @@
       <c r="C369" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D369" s="4" t="s">
-        <v>181</v>
+      <c r="D369" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="F369" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10915,11 +10982,11 @@
       <c r="C370" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D370" s="4" t="s">
-        <v>219</v>
+      <c r="D370" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F370" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10940,11 +11007,11 @@
       <c r="C371" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D371" s="4" t="s">
-        <v>219</v>
+      <c r="D371" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F371" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10965,11 +11032,11 @@
       <c r="C372" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D372" s="4" t="s">
-        <v>119</v>
+      <c r="D372" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F372" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10990,11 +11057,11 @@
       <c r="C373" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D373" s="4" t="s">
-        <v>121</v>
+      <c r="D373" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F373" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11015,11 +11082,11 @@
       <c r="C374" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D374" s="4" t="s">
-        <v>219</v>
+      <c r="D374" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F374" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11040,11 +11107,11 @@
       <c r="C375" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D375" s="4" t="s">
-        <v>122</v>
+      <c r="D375" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F375" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11065,11 +11132,11 @@
       <c r="C376" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D376" s="4" t="s">
-        <v>230</v>
+      <c r="D376" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F376" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11090,11 +11157,11 @@
       <c r="C377" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D377" s="4" t="s">
-        <v>123</v>
+      <c r="D377" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F377" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11115,11 +11182,11 @@
       <c r="C378" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D378" s="4" t="s">
-        <v>127</v>
+      <c r="D378" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F378" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11140,11 +11207,11 @@
       <c r="C379" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D379" s="4" t="s">
-        <v>125</v>
+      <c r="D379" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F379" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11165,11 +11232,11 @@
       <c r="C380" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D380" s="4" t="s">
-        <v>126</v>
+      <c r="D380" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F380" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11190,11 +11257,11 @@
       <c r="C381" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D381" s="4" t="s">
-        <v>120</v>
+      <c r="D381" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F381" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11206,157 +11273,157 @@
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="5" t="n">
+      <c r="A382" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B382" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C382" s="6" t="s">
+      <c r="C382" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D382" s="6" t="s">
-        <v>160</v>
+      <c r="D382" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="5" t="n">
+      <c r="A383" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B383" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C383" s="6" t="s">
+      <c r="C383" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D383" s="6" t="s">
-        <v>187</v>
+      <c r="D383" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="5" t="n">
+      <c r="A384" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B384" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C384" s="6" t="s">
+      <c r="C384" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D384" s="6" t="s">
-        <v>161</v>
+      <c r="D384" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="5" t="n">
+      <c r="A385" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B385" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C385" s="6" t="s">
+      <c r="C385" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D385" s="6" t="s">
-        <v>184</v>
+      <c r="D385" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="5" t="n">
+      <c r="A386" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B386" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C386" s="6" t="s">
+      <c r="C386" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D386" s="6" t="s">
-        <v>211</v>
+      <c r="D386" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="5" t="n">
+      <c r="A387" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B387" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C387" s="6" t="s">
+      <c r="C387" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D387" s="6" t="s">
-        <v>158</v>
+      <c r="D387" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="5" t="n">
+      <c r="A388" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B388" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C388" s="6" t="s">
+      <c r="C388" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D388" s="6" t="s">
-        <v>183</v>
+      <c r="D388" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="5" t="n">
+      <c r="A389" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B389" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C389" s="6" t="s">
+      <c r="C389" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D389" s="6" t="s">
-        <v>231</v>
+      <c r="D389" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="5" t="n">
+      <c r="A390" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B390" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C390" s="6" t="s">
+      <c r="C390" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D390" s="6" t="s">
-        <v>209</v>
+      <c r="D390" s="7" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="5" t="n">
+      <c r="A391" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B391" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C391" s="6" t="s">
+      <c r="C391" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D391" s="6" t="s">
-        <v>210</v>
+      <c r="D391" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="5" t="n">
+      <c r="A392" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B392" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C392" s="6" t="s">
+      <c r="C392" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D392" s="6" t="s">
-        <v>232</v>
+      <c r="D392" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11369,162 +11436,512 @@
       <c r="C393" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D393" s="6" t="s">
-        <v>233</v>
+      <c r="D393" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="5" t="n">
+      <c r="A394" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B394" s="7" t="n">
+      <c r="B394" s="8" t="n">
         <v>46052</v>
       </c>
-      <c r="C394" s="6" t="s">
+      <c r="C394" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D394" s="6" t="s">
-        <v>149</v>
+      <c r="D394" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="5" t="n">
+      <c r="A395" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B395" s="7" t="n">
+      <c r="B395" s="8" t="n">
         <v>46052</v>
       </c>
-      <c r="C395" s="6" t="s">
+      <c r="C395" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D395" s="6" t="s">
+      <c r="D395" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B396" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D396" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="5" t="n">
+    <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B396" s="7" t="n">
+      <c r="B397" s="8" t="n">
         <v>46052</v>
       </c>
-      <c r="C396" s="6" t="s">
+      <c r="C397" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D396" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="5" t="n">
+      <c r="D397" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B397" s="7" t="n">
+      <c r="B398" s="8" t="n">
         <v>46052</v>
       </c>
-      <c r="C397" s="6" t="s">
+      <c r="C398" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D397" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="5" t="n">
+      <c r="D398" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B398" s="7" t="n">
+      <c r="B399" s="8" t="n">
         <v>46052</v>
       </c>
-      <c r="C398" s="6" t="s">
+      <c r="C399" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D398" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="5" t="n">
+      <c r="D399" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B399" s="7" t="n">
+      <c r="B400" s="8" t="n">
         <v>46052</v>
       </c>
-      <c r="C399" s="6" t="s">
+      <c r="C400" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D399" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="5" t="n">
+      <c r="D400" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B400" s="7" t="n">
+      <c r="B401" s="8" t="n">
         <v>46052</v>
       </c>
-      <c r="C400" s="6" t="s">
+      <c r="C401" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D400" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="5" t="n">
+      <c r="D401" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B401" s="7" t="n">
+      <c r="B402" s="8" t="n">
         <v>46052</v>
       </c>
-      <c r="C401" s="6" t="s">
+      <c r="C402" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D401" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="5" t="n">
+      <c r="D402" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B402" s="7" t="n">
+      <c r="B403" s="8" t="n">
         <v>46052</v>
       </c>
-      <c r="C402" s="6" t="s">
+      <c r="C403" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D402" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="5" t="n">
+      <c r="D403" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B403" s="7" t="n">
+      <c r="B404" s="8" t="n">
         <v>46052</v>
       </c>
-      <c r="C403" s="6" t="s">
+      <c r="C404" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D403" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B404" s="7" t="n">
+      <c r="D404" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B405" s="8" t="n">
         <v>46052</v>
       </c>
-      <c r="C404" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D404" s="6" t="s">
-        <v>156</v>
+      <c r="C405" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B406" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B407" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D407" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B408" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D408" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B409" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D409" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B410" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D410" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B411" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D411" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B412" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D412" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B413" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B414" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D414" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B415" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D415" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B416" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D416" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B417" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D417" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B418" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D418" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B419" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D419" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B420" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D420" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B421" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B422" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D422" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B423" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D423" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B424" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D424" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B425" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D425" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B426" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D426" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B427" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D427" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B428" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D428" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B429" s="8" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D429" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/PSL02_Compliance_Log.xlsx
+++ b/PSL02_Compliance_Log.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="250">
   <si>
     <t xml:space="preserve">MatchID</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t xml:space="preserve">2026-01-29|18:48:00|Fazilpur Falcons|Macchike Mustangs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahmoodkot Mavericks </t>
   </si>
   <si>
     <t xml:space="preserve">Mahmoodkot Mavericks won by 73 runs </t>
@@ -872,7 +869,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -889,7 +886,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -901,15 +898,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1108,7 +1101,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1119,7 +1112,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="30.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="35.77"/>
@@ -1738,7 +1731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -1748,14 +1741,14 @@
       <c r="C19" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>92</v>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1769,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A385" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A391" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E414" activeCellId="0" sqref="E414"/>
     </sheetView>
   </sheetViews>
@@ -1799,19 +1792,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,10 +1818,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1847,13 +1840,13 @@
         <v>46038</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1872,13 +1865,13 @@
         <v>46038</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1897,13 +1890,13 @@
         <v>46038</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1922,13 +1915,13 @@
         <v>46038</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1950,10 +1943,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1972,13 +1965,13 @@
         <v>46038</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -1997,13 +1990,13 @@
         <v>46038</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2022,13 +2015,13 @@
         <v>46038</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2050,10 +2043,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2075,10 +2068,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2100,10 +2093,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2125,10 +2118,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F14" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -2150,10 +2143,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2175,10 +2168,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2200,10 +2193,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2225,10 +2218,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2250,10 +2243,10 @@
         <v>16</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2275,10 +2268,10 @@
         <v>16</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2300,10 +2293,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2325,10 +2318,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2350,10 +2343,10 @@
         <v>16</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2375,10 +2368,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2400,10 +2393,10 @@
         <v>16</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2425,10 +2418,10 @@
         <v>22</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2450,10 +2443,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2475,10 +2468,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2500,10 +2493,10 @@
         <v>22</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2525,10 +2518,10 @@
         <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F30" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2550,10 +2543,10 @@
         <v>22</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2575,10 +2568,10 @@
         <v>22</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F32" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2600,10 +2593,10 @@
         <v>22</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F33" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2625,10 +2618,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2650,10 +2643,10 @@
         <v>22</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -2675,10 +2668,10 @@
         <v>22</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2700,10 +2693,10 @@
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F37" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2725,10 +2718,10 @@
         <v>22</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F38" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2750,10 +2743,10 @@
         <v>23</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="F39" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -2775,10 +2768,10 @@
         <v>23</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2800,10 +2793,10 @@
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F41" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2825,10 +2818,10 @@
         <v>23</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2850,10 +2843,10 @@
         <v>23</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2875,10 +2868,10 @@
         <v>23</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2900,10 +2893,10 @@
         <v>23</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F45" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2925,10 +2918,10 @@
         <v>23</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F46" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2950,10 +2943,10 @@
         <v>23</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F47" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -2975,10 +2968,10 @@
         <v>23</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F48" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3000,10 +2993,10 @@
         <v>23</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F49" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3025,10 +3018,10 @@
         <v>23</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F50" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3050,10 +3043,10 @@
         <v>29</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3075,10 +3068,10 @@
         <v>29</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F52" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3100,10 +3093,10 @@
         <v>29</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F53" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3125,10 +3118,10 @@
         <v>29</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F54" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3150,10 +3143,10 @@
         <v>29</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F55" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3175,10 +3168,10 @@
         <v>29</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F56" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3200,10 +3193,10 @@
         <v>29</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F57" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3225,10 +3218,10 @@
         <v>29</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F58" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3250,10 +3243,10 @@
         <v>29</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F59" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3275,10 +3268,10 @@
         <v>29</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F60" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3300,7 +3293,7 @@
         <v>29</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F61" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3322,10 +3315,10 @@
         <v>30</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F62" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3347,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F63" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3372,10 +3365,10 @@
         <v>30</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F64" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3397,10 +3390,10 @@
         <v>30</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F65" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3422,10 +3415,10 @@
         <v>30</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F66" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3447,10 +3440,10 @@
         <v>30</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F67" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3472,10 +3465,10 @@
         <v>30</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F68" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3497,10 +3490,10 @@
         <v>30</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F69" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3522,10 +3515,10 @@
         <v>30</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F70" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3547,10 +3540,10 @@
         <v>30</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F71" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3572,10 +3565,10 @@
         <v>36</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F72" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3597,10 +3590,10 @@
         <v>36</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F73" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3622,10 +3615,10 @@
         <v>36</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F74" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3647,10 +3640,10 @@
         <v>36</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F75" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3672,10 +3665,10 @@
         <v>36</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F76" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3697,10 +3690,10 @@
         <v>36</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F77" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3722,10 +3715,10 @@
         <v>36</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F78" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3747,10 +3740,10 @@
         <v>36</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F79" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3772,10 +3765,10 @@
         <v>36</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F80" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3797,10 +3790,10 @@
         <v>36</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F81" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3822,10 +3815,10 @@
         <v>36</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F82" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3847,10 +3840,10 @@
         <v>37</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F83" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3872,10 +3865,10 @@
         <v>37</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F84" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3897,10 +3890,10 @@
         <v>37</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F85" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3922,10 +3915,10 @@
         <v>37</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F86" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3947,10 +3940,10 @@
         <v>37</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F87" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3972,10 +3965,10 @@
         <v>37</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F88" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3997,10 +3990,10 @@
         <v>37</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F89" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4022,10 +4015,10 @@
         <v>37</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F90" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4047,10 +4040,10 @@
         <v>37</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F91" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4072,10 +4065,10 @@
         <v>37</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F92" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4097,10 +4090,10 @@
         <v>37</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F93" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4122,7 +4115,7 @@
         <v>37</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F94" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4144,10 +4137,10 @@
         <v>15</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F95" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -4166,13 +4159,13 @@
         <v>46042</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F96" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4191,13 +4184,13 @@
         <v>46042</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F97" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4216,13 +4209,13 @@
         <v>46042</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F98" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4241,13 +4234,13 @@
         <v>46042</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F99" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4269,10 +4262,10 @@
         <v>15</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F100" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -4291,13 +4284,13 @@
         <v>46042</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F101" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4316,13 +4309,13 @@
         <v>46042</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F102" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4341,13 +4334,13 @@
         <v>46042</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F103" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4369,10 +4362,10 @@
         <v>15</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F104" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -4394,10 +4387,10 @@
         <v>15</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F105" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4419,10 +4412,10 @@
         <v>15</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F106" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4444,10 +4437,10 @@
         <v>23</v>
       </c>
       <c r="D107" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="F107" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -4469,10 +4462,10 @@
         <v>23</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F108" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4494,10 +4487,10 @@
         <v>23</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F109" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4519,10 +4512,10 @@
         <v>23</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F110" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4544,10 +4537,10 @@
         <v>23</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F111" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4569,10 +4562,10 @@
         <v>23</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F112" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4594,10 +4587,10 @@
         <v>23</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F113" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4619,10 +4612,10 @@
         <v>23</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F114" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4644,10 +4637,10 @@
         <v>23</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F115" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4669,10 +4662,10 @@
         <v>23</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F116" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4694,10 +4687,10 @@
         <v>23</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F117" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4719,10 +4712,10 @@
         <v>29</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F118" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4744,10 +4737,10 @@
         <v>29</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F119" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4769,10 +4762,10 @@
         <v>29</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F120" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4794,10 +4787,10 @@
         <v>29</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F121" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4819,10 +4812,10 @@
         <v>29</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F122" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4844,10 +4837,10 @@
         <v>29</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F123" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4869,10 +4862,10 @@
         <v>29</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F124" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4894,10 +4887,10 @@
         <v>29</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F125" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4919,10 +4912,10 @@
         <v>29</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F126" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4944,10 +4937,10 @@
         <v>29</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F127" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4969,10 +4962,10 @@
         <v>29</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F128" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -4994,7 +4987,7 @@
         <v>29</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F129" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5016,10 +5009,10 @@
         <v>16</v>
       </c>
       <c r="D130" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F130" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -5041,10 +5034,10 @@
         <v>16</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F131" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5066,10 +5059,10 @@
         <v>16</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F132" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5091,10 +5084,10 @@
         <v>16</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F133" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5116,10 +5109,10 @@
         <v>16</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F134" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5141,10 +5134,10 @@
         <v>16</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F135" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5166,10 +5159,10 @@
         <v>16</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F136" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5191,10 +5184,10 @@
         <v>16</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F137" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5216,10 +5209,10 @@
         <v>16</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F138" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5241,10 +5234,10 @@
         <v>16</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F139" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5266,10 +5259,10 @@
         <v>16</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F140" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5291,10 +5284,10 @@
         <v>16</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F141" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5316,10 +5309,10 @@
         <v>36</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F142" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5341,10 +5334,10 @@
         <v>36</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F143" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5366,10 +5359,10 @@
         <v>36</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F144" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5391,10 +5384,10 @@
         <v>36</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F145" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5416,10 +5409,10 @@
         <v>36</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F146" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5441,10 +5434,10 @@
         <v>36</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F147" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -5466,10 +5459,10 @@
         <v>36</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F148" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5491,10 +5484,10 @@
         <v>36</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F149" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5516,10 +5509,10 @@
         <v>36</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F150" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5541,10 +5534,10 @@
         <v>36</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F151" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5566,10 +5559,10 @@
         <v>36</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F152" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5591,7 +5584,7 @@
         <v>36</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F153" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5613,10 +5606,10 @@
         <v>23</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F154" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5638,10 +5631,10 @@
         <v>23</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F155" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5663,10 +5656,10 @@
         <v>23</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F156" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5688,10 +5681,10 @@
         <v>23</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F157" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5713,10 +5706,10 @@
         <v>23</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F158" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5738,10 +5731,10 @@
         <v>23</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F159" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5763,10 +5756,10 @@
         <v>23</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F160" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5788,10 +5781,10 @@
         <v>23</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F161" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5813,10 +5806,10 @@
         <v>23</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F162" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5838,10 +5831,10 @@
         <v>23</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F163" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5863,10 +5856,10 @@
         <v>23</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F164" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5888,10 +5881,10 @@
         <v>23</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F165" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5913,10 +5906,10 @@
         <v>29</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F166" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -5938,10 +5931,10 @@
         <v>29</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F167" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5963,10 +5956,10 @@
         <v>29</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F168" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5988,10 +5981,10 @@
         <v>29</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F169" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6013,10 +6006,10 @@
         <v>29</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F170" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6038,10 +6031,10 @@
         <v>29</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F171" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6063,10 +6056,10 @@
         <v>29</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F172" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6088,10 +6081,10 @@
         <v>29</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F173" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6113,10 +6106,10 @@
         <v>29</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F174" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6138,10 +6131,10 @@
         <v>29</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F175" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6163,10 +6156,10 @@
         <v>29</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F176" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6188,7 +6181,7 @@
         <v>29</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F177" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6210,10 +6203,10 @@
         <v>15</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F178" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6232,13 +6225,13 @@
         <v>46045</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D179" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="E179" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F179" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6260,7 +6253,7 @@
         <v>15</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F180" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6279,13 +6272,13 @@
         <v>46045</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F181" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6304,13 +6297,13 @@
         <v>46045</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F182" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6329,13 +6322,13 @@
         <v>46045</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F183" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6354,13 +6347,13 @@
         <v>46045</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F184" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6379,13 +6372,13 @@
         <v>46045</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F185" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6407,10 +6400,10 @@
         <v>15</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F186" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6432,7 +6425,7 @@
         <v>15</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F187" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6451,13 +6444,13 @@
         <v>46045</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F188" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6476,13 +6469,13 @@
         <v>46045</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F189" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6504,10 +6497,10 @@
         <v>16</v>
       </c>
       <c r="D190" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F190" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -6529,10 +6522,10 @@
         <v>16</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F191" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6554,10 +6547,10 @@
         <v>16</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F192" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6579,10 +6572,10 @@
         <v>16</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F193" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6604,10 +6597,10 @@
         <v>16</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F194" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6629,10 +6622,10 @@
         <v>16</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F195" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6654,10 +6647,10 @@
         <v>16</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F196" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6679,10 +6672,10 @@
         <v>16</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F197" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6704,10 +6697,10 @@
         <v>16</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F198" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6729,10 +6722,10 @@
         <v>16</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F199" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6754,10 +6747,10 @@
         <v>16</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F200" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6779,10 +6772,10 @@
         <v>16</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F201" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6804,10 +6797,10 @@
         <v>37</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F202" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6829,10 +6822,10 @@
         <v>37</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F203" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6854,10 +6847,10 @@
         <v>37</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F204" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6879,10 +6872,10 @@
         <v>37</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F205" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6904,10 +6897,10 @@
         <v>37</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F206" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6929,10 +6922,10 @@
         <v>37</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F207" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6954,10 +6947,10 @@
         <v>37</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F208" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -6979,10 +6972,10 @@
         <v>37</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F209" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7004,10 +6997,10 @@
         <v>37</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F210" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7029,10 +7022,10 @@
         <v>37</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F211" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7054,10 +7047,10 @@
         <v>37</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F212" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7079,10 +7072,10 @@
         <v>37</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F213" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7104,10 +7097,10 @@
         <v>30</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F214" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7129,10 +7122,10 @@
         <v>30</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F215" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7154,10 +7147,10 @@
         <v>30</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F216" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7179,10 +7172,10 @@
         <v>30</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F217" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7204,10 +7197,10 @@
         <v>30</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F218" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7229,10 +7222,10 @@
         <v>30</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F219" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7254,10 +7247,10 @@
         <v>30</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F220" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7279,10 +7272,10 @@
         <v>30</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F221" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7304,10 +7297,10 @@
         <v>30</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F222" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7329,10 +7322,10 @@
         <v>30</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F223" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7354,10 +7347,10 @@
         <v>30</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F224" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7379,7 +7372,7 @@
         <v>30</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F225" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7401,10 +7394,10 @@
         <v>22</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F226" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -7426,10 +7419,10 @@
         <v>22</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F227" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -7451,10 +7444,10 @@
         <v>22</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F228" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7476,10 +7469,10 @@
         <v>22</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F229" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7501,10 +7494,10 @@
         <v>22</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F230" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -7526,10 +7519,10 @@
         <v>22</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F231" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7551,10 +7544,10 @@
         <v>22</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F232" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7576,10 +7569,10 @@
         <v>22</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F233" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7601,10 +7594,10 @@
         <v>22</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F234" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7626,10 +7619,10 @@
         <v>22</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F235" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7651,10 +7644,10 @@
         <v>22</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F236" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7676,10 +7669,10 @@
         <v>22</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F237" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7701,10 +7694,10 @@
         <v>36</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F238" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7726,10 +7719,10 @@
         <v>36</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F239" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7751,10 +7744,10 @@
         <v>36</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F240" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7776,10 +7769,10 @@
         <v>36</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F241" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7801,10 +7794,10 @@
         <v>36</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F242" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7826,10 +7819,10 @@
         <v>36</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F243" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7851,10 +7844,10 @@
         <v>36</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F244" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7876,10 +7869,10 @@
         <v>36</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F245" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7901,10 +7894,10 @@
         <v>36</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F246" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7926,10 +7919,10 @@
         <v>36</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F247" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -7951,10 +7944,10 @@
         <v>36</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F248" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -7976,10 +7969,10 @@
         <v>36</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F249" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8001,10 +7994,10 @@
         <v>15</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F250" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8026,10 +8019,10 @@
         <v>15</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F251" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8051,10 +8044,10 @@
         <v>15</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F252" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8076,10 +8069,10 @@
         <v>15</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F253" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8101,10 +8094,10 @@
         <v>15</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F254" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8126,10 +8119,10 @@
         <v>15</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F255" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -8151,10 +8144,10 @@
         <v>15</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F256" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8176,10 +8169,10 @@
         <v>15</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F257" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8201,10 +8194,10 @@
         <v>15</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F258" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8226,10 +8219,10 @@
         <v>15</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F259" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8251,7 +8244,7 @@
         <v>15</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F260" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8273,10 +8266,10 @@
         <v>29</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F261" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -8298,10 +8291,10 @@
         <v>29</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F262" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8323,10 +8316,10 @@
         <v>29</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F263" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8348,10 +8341,10 @@
         <v>29</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F264" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8373,10 +8366,10 @@
         <v>29</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F265" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8398,10 +8391,10 @@
         <v>29</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F266" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8423,10 +8416,10 @@
         <v>29</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F267" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8448,10 +8441,10 @@
         <v>29</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F268" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8473,10 +8466,10 @@
         <v>29</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F269" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8498,10 +8491,10 @@
         <v>29</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F270" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8523,10 +8516,10 @@
         <v>29</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F271" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8548,10 +8541,10 @@
         <v>29</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F272" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8573,10 +8566,10 @@
         <v>37</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F273" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8598,10 +8591,10 @@
         <v>37</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F274" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8623,10 +8616,10 @@
         <v>37</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F275" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8648,10 +8641,10 @@
         <v>37</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F276" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8673,10 +8666,10 @@
         <v>37</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F277" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8698,10 +8691,10 @@
         <v>37</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F278" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8723,10 +8716,10 @@
         <v>37</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F279" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8748,10 +8741,10 @@
         <v>37</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F280" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8773,10 +8766,10 @@
         <v>37</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F281" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8798,10 +8791,10 @@
         <v>37</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F282" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -8823,10 +8816,10 @@
         <v>37</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F283" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8848,7 +8841,7 @@
         <v>37</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F284" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8870,10 +8863,10 @@
         <v>36</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F285" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8895,10 +8888,10 @@
         <v>36</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F286" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8920,10 +8913,10 @@
         <v>36</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F287" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -8945,10 +8938,10 @@
         <v>36</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F288" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8970,10 +8963,10 @@
         <v>36</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F289" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -8995,10 +8988,10 @@
         <v>36</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F290" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9020,10 +9013,10 @@
         <v>36</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F291" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9045,10 +9038,10 @@
         <v>36</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F292" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9070,10 +9063,10 @@
         <v>36</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F293" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9095,10 +9088,10 @@
         <v>36</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F294" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9120,10 +9113,10 @@
         <v>36</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F295" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9145,7 +9138,7 @@
         <v>36</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F296" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9167,10 +9160,10 @@
         <v>22</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F297" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9192,10 +9185,10 @@
         <v>22</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F298" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9217,10 +9210,10 @@
         <v>22</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F299" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9242,10 +9235,10 @@
         <v>22</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F300" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9267,10 +9260,10 @@
         <v>22</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F301" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9292,10 +9285,10 @@
         <v>22</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F302" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9317,10 +9310,10 @@
         <v>22</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F303" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9342,10 +9335,10 @@
         <v>22</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F304" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9367,10 +9360,10 @@
         <v>22</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F305" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9392,10 +9385,10 @@
         <v>22</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F306" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9417,10 +9410,10 @@
         <v>22</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F307" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9442,10 +9435,10 @@
         <v>22</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F308" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9467,10 +9460,10 @@
         <v>37</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F309" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -9492,10 +9485,10 @@
         <v>37</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F310" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9517,10 +9510,10 @@
         <v>37</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F311" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9542,10 +9535,10 @@
         <v>37</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F312" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -9567,10 +9560,10 @@
         <v>37</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F313" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9592,10 +9585,10 @@
         <v>37</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F314" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -9617,10 +9610,10 @@
         <v>37</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F315" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9642,10 +9635,10 @@
         <v>37</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F316" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9667,10 +9660,10 @@
         <v>37</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F317" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9692,7 +9685,7 @@
         <v>37</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F318" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9714,10 +9707,10 @@
         <v>37</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F319" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9739,7 +9732,7 @@
         <v>37</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F320" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9761,10 +9754,10 @@
         <v>30</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F321" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9786,10 +9779,10 @@
         <v>30</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F322" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9811,10 +9804,10 @@
         <v>30</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F323" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9836,10 +9829,10 @@
         <v>30</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F324" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9861,10 +9854,10 @@
         <v>30</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F325" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9886,10 +9879,10 @@
         <v>30</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F326" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9911,10 +9904,10 @@
         <v>30</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F327" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9936,10 +9929,10 @@
         <v>30</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F328" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9961,10 +9954,10 @@
         <v>30</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F329" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -9986,10 +9979,10 @@
         <v>30</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F330" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10011,10 +10004,10 @@
         <v>30</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F331" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10036,10 +10029,10 @@
         <v>30</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F332" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10061,10 +10054,10 @@
         <v>30</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F333" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10086,10 +10079,10 @@
         <v>30</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F334" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10111,10 +10104,10 @@
         <v>30</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F335" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10136,10 +10129,10 @@
         <v>30</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F336" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10161,10 +10154,10 @@
         <v>30</v>
       </c>
       <c r="D337" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F337" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10186,10 +10179,10 @@
         <v>30</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F338" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10211,10 +10204,10 @@
         <v>30</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F339" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -10236,10 +10229,10 @@
         <v>30</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F340" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10261,10 +10254,10 @@
         <v>30</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F341" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -10286,10 +10279,10 @@
         <v>30</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F342" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10311,10 +10304,10 @@
         <v>30</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F343" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10336,10 +10329,10 @@
         <v>30</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F344" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10361,10 +10354,10 @@
         <v>30</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F345" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -10386,10 +10379,10 @@
         <v>23</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F346" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -10411,10 +10404,10 @@
         <v>23</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F347" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10436,10 +10429,10 @@
         <v>23</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F348" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10461,10 +10454,10 @@
         <v>23</v>
       </c>
       <c r="D349" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F349" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10486,10 +10479,10 @@
         <v>23</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F350" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10511,10 +10504,10 @@
         <v>23</v>
       </c>
       <c r="D351" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F351" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10536,10 +10529,10 @@
         <v>23</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F352" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -10561,10 +10554,10 @@
         <v>23</v>
       </c>
       <c r="D353" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F353" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10586,10 +10579,10 @@
         <v>23</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F354" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10611,10 +10604,10 @@
         <v>23</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F355" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10636,10 +10629,10 @@
         <v>23</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F356" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10661,10 +10654,10 @@
         <v>23</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F357" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10686,10 +10679,10 @@
         <v>16</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F358" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -10711,10 +10704,10 @@
         <v>16</v>
       </c>
       <c r="D359" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F359" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10736,10 +10729,10 @@
         <v>16</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F360" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10761,10 +10754,10 @@
         <v>16</v>
       </c>
       <c r="D361" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F361" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10786,10 +10779,10 @@
         <v>16</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F362" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10811,10 +10804,10 @@
         <v>16</v>
       </c>
       <c r="D363" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F363" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10836,10 +10829,10 @@
         <v>16</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F364" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10861,10 +10854,10 @@
         <v>16</v>
       </c>
       <c r="D365" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F365" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10886,10 +10879,10 @@
         <v>16</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F366" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10911,10 +10904,10 @@
         <v>16</v>
       </c>
       <c r="D367" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F367" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10936,10 +10929,10 @@
         <v>16</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F368" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10961,7 +10954,7 @@
         <v>16</v>
       </c>
       <c r="D369" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F369" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -10983,10 +10976,10 @@
         <v>22</v>
       </c>
       <c r="D370" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F370" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11008,10 +11001,10 @@
         <v>22</v>
       </c>
       <c r="D371" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F371" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11033,10 +11026,10 @@
         <v>22</v>
       </c>
       <c r="D372" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F372" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11058,10 +11051,10 @@
         <v>22</v>
       </c>
       <c r="D373" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F373" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11083,10 +11076,10 @@
         <v>22</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F374" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11108,10 +11101,10 @@
         <v>22</v>
       </c>
       <c r="D375" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F375" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11133,10 +11126,10 @@
         <v>22</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F376" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11158,10 +11151,10 @@
         <v>22</v>
       </c>
       <c r="D377" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F377" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11183,10 +11176,10 @@
         <v>22</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F378" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11208,10 +11201,10 @@
         <v>22</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F379" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11233,10 +11226,10 @@
         <v>22</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F380" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11258,10 +11251,10 @@
         <v>22</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F381" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -11279,11 +11272,11 @@
       <c r="B382" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C382" s="7" t="s">
+      <c r="C382" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D382" s="7" t="s">
-        <v>162</v>
+      <c r="D382" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11293,11 +11286,11 @@
       <c r="B383" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C383" s="7" t="s">
+      <c r="C383" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D383" s="7" t="s">
-        <v>189</v>
+      <c r="D383" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11307,11 +11300,11 @@
       <c r="B384" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C384" s="7" t="s">
+      <c r="C384" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D384" s="7" t="s">
-        <v>163</v>
+      <c r="D384" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11321,11 +11314,11 @@
       <c r="B385" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C385" s="7" t="s">
+      <c r="C385" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D385" s="7" t="s">
-        <v>186</v>
+      <c r="D385" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11335,11 +11328,11 @@
       <c r="B386" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C386" s="7" t="s">
+      <c r="C386" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D386" s="7" t="s">
-        <v>213</v>
+      <c r="D386" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11349,11 +11342,11 @@
       <c r="B387" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C387" s="7" t="s">
+      <c r="C387" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D387" s="7" t="s">
-        <v>160</v>
+      <c r="D387" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11363,11 +11356,11 @@
       <c r="B388" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C388" s="7" t="s">
+      <c r="C388" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D388" s="7" t="s">
-        <v>185</v>
+      <c r="D388" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11377,11 +11370,11 @@
       <c r="B389" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C389" s="7" t="s">
+      <c r="C389" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D389" s="7" t="s">
-        <v>233</v>
+      <c r="D389" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11391,11 +11384,11 @@
       <c r="B390" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C390" s="7" t="s">
+      <c r="C390" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D390" s="7" t="s">
-        <v>211</v>
+      <c r="D390" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11405,11 +11398,11 @@
       <c r="B391" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C391" s="7" t="s">
+      <c r="C391" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D391" s="7" t="s">
-        <v>212</v>
+      <c r="D391" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11419,11 +11412,11 @@
       <c r="B392" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="C392" s="7" t="s">
+      <c r="C392" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D392" s="7" t="s">
-        <v>234</v>
+      <c r="D392" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11436,512 +11429,512 @@
       <c r="C393" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D393" s="7" t="s">
-        <v>235</v>
+      <c r="D393" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B394" s="8" t="n">
+      <c r="B394" s="7" t="n">
         <v>46052</v>
       </c>
-      <c r="C394" s="7" t="s">
+      <c r="C394" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D394" s="7" t="s">
-        <v>151</v>
+      <c r="D394" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B395" s="8" t="n">
+      <c r="B395" s="7" t="n">
         <v>46052</v>
       </c>
-      <c r="C395" s="7" t="s">
+      <c r="C395" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D395" s="7" t="s">
-        <v>154</v>
+      <c r="D395" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B396" s="8" t="n">
+      <c r="B396" s="7" t="n">
         <v>46052</v>
       </c>
-      <c r="C396" s="7" t="s">
+      <c r="C396" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D396" s="7" t="s">
-        <v>152</v>
+      <c r="D396" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B397" s="8" t="n">
+      <c r="B397" s="7" t="n">
         <v>46052</v>
       </c>
-      <c r="C397" s="7" t="s">
+      <c r="C397" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D397" s="7" t="s">
-        <v>153</v>
+      <c r="D397" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B398" s="8" t="n">
+      <c r="B398" s="7" t="n">
         <v>46052</v>
       </c>
-      <c r="C398" s="7" t="s">
+      <c r="C398" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D398" s="7" t="s">
-        <v>229</v>
+      <c r="D398" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B399" s="8" t="n">
+      <c r="B399" s="7" t="n">
         <v>46052</v>
       </c>
-      <c r="C399" s="7" t="s">
+      <c r="C399" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D399" s="7" t="s">
-        <v>155</v>
+      <c r="D399" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B400" s="8" t="n">
+      <c r="B400" s="7" t="n">
         <v>46052</v>
       </c>
-      <c r="C400" s="7" t="s">
+      <c r="C400" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D400" s="7" t="s">
-        <v>204</v>
+      <c r="D400" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B401" s="8" t="n">
+      <c r="B401" s="7" t="n">
         <v>46052</v>
       </c>
-      <c r="C401" s="7" t="s">
+      <c r="C401" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D401" s="7" t="s">
-        <v>156</v>
+      <c r="D401" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B402" s="8" t="n">
+      <c r="B402" s="7" t="n">
         <v>46052</v>
       </c>
-      <c r="C402" s="7" t="s">
+      <c r="C402" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D402" s="7" t="s">
-        <v>236</v>
+      <c r="D402" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B403" s="8" t="n">
+      <c r="B403" s="7" t="n">
         <v>46052</v>
       </c>
-      <c r="C403" s="7" t="s">
+      <c r="C403" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D403" s="7" t="s">
-        <v>225</v>
+      <c r="D403" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B404" s="8" t="n">
+      <c r="B404" s="7" t="n">
         <v>46052</v>
       </c>
-      <c r="C404" s="7" t="s">
+      <c r="C404" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D404" s="7" t="s">
-        <v>158</v>
+      <c r="D404" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B405" s="8" t="n">
+      <c r="B405" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B406" s="8" t="n">
+      <c r="B406" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B407" s="8" t="n">
+      <c r="B407" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B408" s="8" t="n">
+      <c r="B408" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B409" s="8" t="n">
+      <c r="B409" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D409" s="9" t="s">
-        <v>139</v>
+      <c r="D409" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B410" s="8" t="n">
+      <c r="B410" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B411" s="8" t="n">
+      <c r="B411" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B412" s="8" t="n">
+      <c r="B412" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B413" s="8" t="n">
+      <c r="B413" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B414" s="8" t="n">
+      <c r="B414" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B415" s="8" t="n">
+      <c r="B415" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B416" s="8" t="n">
+      <c r="B416" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B417" s="8" t="n">
+      <c r="B417" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B418" s="8" t="n">
+      <c r="B418" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B419" s="8" t="n">
+      <c r="B419" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B420" s="8" t="n">
+      <c r="B420" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B421" s="8" t="n">
+      <c r="B421" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B422" s="8" t="n">
+      <c r="B422" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B423" s="8" t="n">
+      <c r="B423" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B424" s="8" t="n">
+      <c r="B424" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B425" s="8" t="n">
+      <c r="B425" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B426" s="8" t="n">
+      <c r="B426" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B427" s="8" t="n">
+      <c r="B427" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B428" s="8" t="n">
+      <c r="B428" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B429" s="8" t="n">
+      <c r="B429" s="7" t="n">
         <v>46052</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/PSL02_Compliance_Log.xlsx
+++ b/PSL02_Compliance_Log.xlsx
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parcopk-my.sharepoint.com/personal/zohaib_hassan_parco_com_pk/Documents/Recordings/Zohaib_Parco/3. Projects/20. PSL App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FDDDC55-0262-4069-80E2-C9D590C0839A}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB4D977-9AF0-44B8-A63A-0A777FBA664C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="1" r:id="rId1"/>
     <sheet name="Appearances" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$429</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$452</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matches!$A$1:$K$19</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -30,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="257">
   <si>
     <t>MatchID</t>
   </si>
@@ -777,6 +788,30 @@
   </si>
   <si>
     <t>Waqas</t>
+  </si>
+  <si>
+    <t>Macchike Mustangs won by 82 runs</t>
+  </si>
+  <si>
+    <t>Muhammad Kaleem Ullah</t>
+  </si>
+  <si>
+    <t>Syed Saad Nasim</t>
+  </si>
+  <si>
+    <t>Saad Mansoor</t>
+  </si>
+  <si>
+    <t>Muhammad Sohaib Asghar</t>
+  </si>
+  <si>
+    <t>Shabbir Sultan (c)</t>
+  </si>
+  <si>
+    <t>Danish Khan Sherwani</t>
+  </si>
+  <si>
+    <t>Kashif Sultan</t>
   </si>
 </sst>
 </file>
@@ -844,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -861,6 +896,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,25 +1100,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="30.77734375" customWidth="1"/>
-    <col min="10" max="10" width="35.77734375" customWidth="1"/>
-    <col min="11" max="11" width="57.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1709,6 +1750,40 @@
       </c>
       <c r="J19" s="3" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8">
+        <v>46055</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8">
+        <v>46055</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1720,11 +1795,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G429"/>
+  <dimension ref="A1:G477"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A442" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1887,16 +1960,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>46042</v>
+        <v>46038</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
         <v>99</v>
@@ -1921,7 +1994,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
         <v>99</v>
@@ -1946,7 +2019,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
         <v>99</v>
@@ -1971,7 +2044,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
         <v>99</v>
@@ -1993,17 +2066,17 @@
         <v>46038</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <f>FALSE()</f>
@@ -2012,16 +2085,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>46042</v>
+        <v>46038</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
         <v>99</v>
@@ -2037,16 +2110,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>46045</v>
+        <v>46038</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
         <v>99</v>
@@ -2071,14 +2144,14 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <f>FALSE()</f>
@@ -2096,7 +2169,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
         <v>99</v>
@@ -2121,7 +2194,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
         <v>99</v>
@@ -2146,7 +2219,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
         <v>99</v>
@@ -2162,16 +2235,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>46042</v>
+        <v>46038</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
         <v>99</v>
@@ -2196,7 +2269,7 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
         <v>99</v>
@@ -2218,17 +2291,17 @@
         <v>46038</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F20" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <f>FALSE()</f>
@@ -2237,16 +2310,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2">
-        <v>46048</v>
+        <v>46038</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s">
         <v>99</v>
@@ -2271,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s">
         <v>99</v>
@@ -2287,19 +2360,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>46051</v>
+        <v>46038</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="F23" t="b">
         <f>FALSE()</f>
@@ -2321,7 +2391,7 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="E24" t="s">
         <v>99</v>
@@ -2346,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="E25" t="s">
         <v>99</v>
@@ -2371,7 +2441,7 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
         <v>99</v>
@@ -2387,16 +2457,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2">
-        <v>46048</v>
+        <v>46038</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
         <v>99</v>
@@ -2421,14 +2491,14 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F28" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <f>FALSE()</f>
@@ -2446,7 +2516,7 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="E29" t="s">
         <v>99</v>
@@ -2471,7 +2541,7 @@
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
         <v>99</v>
@@ -2487,23 +2557,23 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B31" s="2">
-        <v>46050</v>
+        <v>46038</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F31" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <f>FALSE()</f>
@@ -2518,10 +2588,10 @@
         <v>46038</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
         <v>99</v>
@@ -2537,16 +2607,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2">
-        <v>46051</v>
+        <v>46038</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
         <v>99</v>
@@ -2568,10 +2638,10 @@
         <v>46038</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
         <v>99</v>
@@ -2593,17 +2663,17 @@
         <v>46038</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F35" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G35" t="b">
         <f>FALSE()</f>
@@ -2618,10 +2688,10 @@
         <v>46038</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
         <v>99</v>
@@ -2643,10 +2713,10 @@
         <v>46038</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
         <v>99</v>
@@ -2668,10 +2738,10 @@
         <v>46038</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
         <v>99</v>
@@ -2696,14 +2766,14 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F39" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G39" t="b">
         <f>FALSE()</f>
@@ -2721,7 +2791,7 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
         <v>99</v>
@@ -2746,7 +2816,7 @@
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
         <v>99</v>
@@ -2771,7 +2841,7 @@
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="E42" t="s">
         <v>99</v>
@@ -2793,10 +2863,10 @@
         <v>46038</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E43" t="s">
         <v>99</v>
@@ -2818,10 +2888,10 @@
         <v>46038</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="E44" t="s">
         <v>99</v>
@@ -2837,16 +2907,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B45" s="2">
-        <v>46042</v>
+        <v>46038</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
         <v>99</v>
@@ -2868,10 +2938,10 @@
         <v>46038</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
         <v>99</v>
@@ -2893,10 +2963,10 @@
         <v>46038</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
         <v>99</v>
@@ -2918,10 +2988,10 @@
         <v>46038</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
         <v>99</v>
@@ -2943,10 +3013,10 @@
         <v>46038</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
         <v>99</v>
@@ -2968,10 +3038,10 @@
         <v>46038</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
         <v>99</v>
@@ -2996,14 +3066,14 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F51" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G51" t="b">
         <f>FALSE()</f>
@@ -3021,7 +3091,7 @@
         <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E52" t="s">
         <v>99</v>
@@ -3046,7 +3116,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E53" t="s">
         <v>99</v>
@@ -3071,7 +3141,7 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s">
         <v>99</v>
@@ -3093,10 +3163,10 @@
         <v>46041</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
         <v>99</v>
@@ -3118,10 +3188,10 @@
         <v>46041</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E56" t="s">
         <v>99</v>
@@ -3137,16 +3207,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B57" s="2">
-        <v>46042</v>
+        <v>46041</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E57" t="s">
         <v>99</v>
@@ -3168,10 +3238,10 @@
         <v>46041</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
         <v>99</v>
@@ -3193,10 +3263,10 @@
         <v>46041</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
         <v>99</v>
@@ -3212,16 +3282,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B60" s="2">
-        <v>46045</v>
+        <v>46041</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E60" t="s">
         <v>99</v>
@@ -3243,10 +3313,13 @@
         <v>46041</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>148</v>
+        <v>155</v>
+      </c>
+      <c r="E61" t="s">
+        <v>99</v>
       </c>
       <c r="F61" t="b">
         <f>FALSE()</f>
@@ -3268,7 +3341,7 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E62" t="s">
         <v>99</v>
@@ -3290,10 +3363,10 @@
         <v>46041</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
         <v>99</v>
@@ -3315,10 +3388,10 @@
         <v>46041</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s">
         <v>99</v>
@@ -3343,7 +3416,7 @@
         <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="E65" t="s">
         <v>99</v>
@@ -3368,7 +3441,7 @@
         <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="E66" t="s">
         <v>99</v>
@@ -3384,23 +3457,23 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B67" s="2">
-        <v>46048</v>
+        <v>46041</v>
       </c>
       <c r="C67" t="s">
         <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="E67" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F67" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
         <f>FALSE()</f>
@@ -3415,10 +3488,10 @@
         <v>46041</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E68" t="s">
         <v>99</v>
@@ -3440,13 +3513,10 @@
         <v>46041</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>155</v>
-      </c>
-      <c r="E69" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="F69" t="b">
         <f>FALSE()</f>
@@ -3459,16 +3529,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B70" s="2">
-        <v>46050</v>
+        <v>46041</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E70" t="s">
         <v>109</v>
@@ -3490,10 +3560,10 @@
         <v>46041</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E71" t="s">
         <v>99</v>
@@ -3509,16 +3579,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72" s="2">
         <v>46041</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
         <v>99</v>
@@ -3543,7 +3613,7 @@
         <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
         <v>99</v>
@@ -3568,14 +3638,14 @@
         <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F74" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G74" t="b">
         <f>FALSE()</f>
@@ -3593,14 +3663,14 @@
         <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F75" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
         <f>FALSE()</f>
@@ -3618,7 +3688,7 @@
         <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
         <v>99</v>
@@ -3643,7 +3713,7 @@
         <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
         <v>99</v>
@@ -3659,16 +3729,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>46045</v>
+        <v>46041</v>
       </c>
       <c r="C78" t="s">
         <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
         <v>99</v>
@@ -3684,16 +3754,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>46049</v>
+        <v>46041</v>
       </c>
       <c r="C79" t="s">
         <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
         <v>99</v>
@@ -3718,7 +3788,7 @@
         <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
         <v>99</v>
@@ -3740,10 +3810,10 @@
         <v>46041</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E81" t="s">
         <v>99</v>
@@ -3759,16 +3829,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>46050</v>
+        <v>46041</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E82" t="s">
         <v>99</v>
@@ -3793,7 +3863,7 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E83" t="s">
         <v>99</v>
@@ -3818,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E84" t="s">
         <v>99</v>
@@ -3843,7 +3913,7 @@
         <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s">
         <v>99</v>
@@ -3859,16 +3929,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>46048</v>
+        <v>46041</v>
       </c>
       <c r="C86" t="s">
         <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E86" t="s">
         <v>99</v>
@@ -3893,7 +3963,7 @@
         <v>37</v>
       </c>
       <c r="D87" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E87" t="s">
         <v>99</v>
@@ -3909,16 +3979,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>46049</v>
+        <v>46041</v>
       </c>
       <c r="C88" t="s">
         <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E88" t="s">
         <v>99</v>
@@ -3943,10 +4013,7 @@
         <v>37</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
-      </c>
-      <c r="E89" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="F89" t="b">
         <f>FALSE()</f>
@@ -3965,10 +4032,10 @@
         <v>46041</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D90" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E90" t="s">
         <v>99</v>
@@ -3990,10 +4057,10 @@
         <v>46041</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D91" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E91" t="s">
         <v>99</v>
@@ -4009,16 +4076,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>46050</v>
+        <v>46041</v>
       </c>
       <c r="C92" t="s">
         <v>37</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="E92" t="s">
         <v>99</v>
@@ -4043,7 +4110,7 @@
         <v>37</v>
       </c>
       <c r="D93" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="E93" t="s">
         <v>99</v>
@@ -4068,11 +4135,14 @@
         <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>173</v>
+        <v>215</v>
+      </c>
+      <c r="E94" t="s">
+        <v>109</v>
       </c>
       <c r="F94" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
         <f>FALSE()</f>
@@ -4081,23 +4151,23 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>46038</v>
+        <v>46041</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E95" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F95" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G95" t="b">
         <f>FALSE()</f>
@@ -4115,7 +4185,7 @@
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E96" t="s">
         <v>99</v>
@@ -4140,7 +4210,7 @@
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E97" t="s">
         <v>99</v>
@@ -4162,10 +4232,10 @@
         <v>46042</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="E98" t="s">
         <v>99</v>
@@ -4190,7 +4260,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E99" t="s">
         <v>99</v>
@@ -4215,14 +4285,14 @@
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F100" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G100" t="b">
         <f>FALSE()</f>
@@ -4240,7 +4310,7 @@
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E101" t="s">
         <v>99</v>
@@ -4265,7 +4335,7 @@
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E102" t="s">
         <v>99</v>
@@ -4290,14 +4360,14 @@
         <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="E103" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F103" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
         <f>FALSE()</f>
@@ -4306,23 +4376,23 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B104" s="2">
-        <v>46045</v>
+        <v>46042</v>
       </c>
       <c r="C104" t="s">
         <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="E104" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F104" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G104" t="b">
         <f>FALSE()</f>
@@ -4331,16 +4401,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B105" s="2">
-        <v>46038</v>
+        <v>46042</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="E105" t="s">
         <v>99</v>
@@ -4365,7 +4435,7 @@
         <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="E106" t="s">
         <v>99</v>
@@ -4387,42 +4457,42 @@
         <v>46042</v>
       </c>
       <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>175</v>
+      </c>
+      <c r="E107" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G107" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>5</v>
+      </c>
+      <c r="B108" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C108" t="s">
         <v>23</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>128</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>129</v>
       </c>
-      <c r="F107" t="b">
+      <c r="F108" t="b">
         <f>TRUE()</f>
         <v>1</v>
-      </c>
-      <c r="G107" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>7</v>
-      </c>
-      <c r="B108" s="2">
-        <v>46045</v>
-      </c>
-      <c r="C108" t="s">
-        <v>23</v>
-      </c>
-      <c r="D108" t="s">
-        <v>130</v>
-      </c>
-      <c r="E108" t="s">
-        <v>99</v>
-      </c>
-      <c r="F108" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
       </c>
       <c r="G108" t="b">
         <f>FALSE()</f>
@@ -4531,16 +4601,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B113" s="2">
-        <v>46051</v>
+        <v>46042</v>
       </c>
       <c r="C113" t="s">
         <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E113" t="s">
         <v>99</v>
@@ -4565,7 +4635,7 @@
         <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E114" t="s">
         <v>99</v>
@@ -4590,7 +4660,7 @@
         <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E115" t="s">
         <v>99</v>
@@ -4615,7 +4685,7 @@
         <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E116" t="s">
         <v>99</v>
@@ -4637,13 +4707,10 @@
         <v>46042</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>138</v>
-      </c>
-      <c r="E117" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="F117" t="b">
         <f>FALSE()</f>
@@ -4656,16 +4723,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B118" s="2">
         <v>46042</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="E118" t="s">
         <v>99</v>
@@ -4681,16 +4748,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B119" s="2">
-        <v>46049</v>
+        <v>46042</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E119" t="s">
         <v>99</v>
@@ -4715,7 +4782,7 @@
         <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E120" t="s">
         <v>99</v>
@@ -4740,7 +4807,7 @@
         <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E121" t="s">
         <v>99</v>
@@ -4765,7 +4832,7 @@
         <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E122" t="s">
         <v>99</v>
@@ -4781,16 +4848,16 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B123" s="2">
-        <v>46041</v>
+        <v>46042</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
       </c>
       <c r="D123" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="E123" t="s">
         <v>99</v>
@@ -4815,7 +4882,7 @@
         <v>29</v>
       </c>
       <c r="D124" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="E124" t="s">
         <v>99</v>
@@ -4840,7 +4907,7 @@
         <v>29</v>
       </c>
       <c r="D125" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="E125" t="s">
         <v>99</v>
@@ -4865,7 +4932,7 @@
         <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E126" t="s">
         <v>99</v>
@@ -4881,16 +4948,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B127" s="2">
-        <v>46045</v>
+        <v>46042</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E127" t="s">
         <v>99</v>
@@ -5053,16 +5120,16 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B134" s="2">
-        <v>46048</v>
+        <v>46042</v>
       </c>
       <c r="C134" t="s">
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="E134" t="s">
         <v>99</v>
@@ -5087,7 +5154,7 @@
         <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="E135" t="s">
         <v>99</v>
@@ -5112,7 +5179,7 @@
         <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="E136" t="s">
         <v>99</v>
@@ -5128,10 +5195,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B137" s="2">
-        <v>46038</v>
+        <v>46042</v>
       </c>
       <c r="C137" t="s">
         <v>16</v>
@@ -5162,7 +5229,7 @@
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E138" t="s">
         <v>99</v>
@@ -5184,10 +5251,10 @@
         <v>46042</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E139" t="s">
         <v>99</v>
@@ -5203,16 +5270,16 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B140" s="2">
-        <v>46048</v>
+        <v>46042</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E140" t="s">
         <v>99</v>
@@ -5234,10 +5301,10 @@
         <v>46042</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D141" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="E141" t="s">
         <v>99</v>
@@ -5253,16 +5320,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B142" s="2">
-        <v>46045</v>
+        <v>46042</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="E142" t="s">
         <v>99</v>
@@ -5287,7 +5354,7 @@
         <v>36</v>
       </c>
       <c r="D143" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E143" t="s">
         <v>99</v>
@@ -5309,10 +5376,10 @@
         <v>46045</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D144" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="E144" t="s">
         <v>99</v>
@@ -5337,7 +5404,7 @@
         <v>36</v>
       </c>
       <c r="D145" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E145" t="s">
         <v>99</v>
@@ -5353,16 +5420,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B146" s="2">
-        <v>46041</v>
+        <v>46045</v>
       </c>
       <c r="C146" t="s">
         <v>36</v>
       </c>
       <c r="D146" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E146" t="s">
         <v>99</v>
@@ -5387,64 +5454,64 @@
         <v>36</v>
       </c>
       <c r="D147" t="s">
+        <v>183</v>
+      </c>
+      <c r="E147" t="s">
+        <v>99</v>
+      </c>
+      <c r="F147" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G147" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="B148" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C148" t="s">
+        <v>36</v>
+      </c>
+      <c r="D148" t="s">
+        <v>160</v>
+      </c>
+      <c r="E148" t="s">
+        <v>99</v>
+      </c>
+      <c r="F148" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G148" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>7</v>
+      </c>
+      <c r="B149" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C149" t="s">
+        <v>36</v>
+      </c>
+      <c r="D149" t="s">
         <v>184</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E149" t="s">
         <v>109</v>
       </c>
-      <c r="F147" t="b">
+      <c r="F149" t="b">
         <f>TRUE()</f>
         <v>1</v>
-      </c>
-      <c r="G147" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>13</v>
-      </c>
-      <c r="B148" s="2">
-        <v>46050</v>
-      </c>
-      <c r="C148" t="s">
-        <v>36</v>
-      </c>
-      <c r="D148" t="s">
-        <v>184</v>
-      </c>
-      <c r="E148" t="s">
-        <v>99</v>
-      </c>
-      <c r="F148" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G148" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>4</v>
-      </c>
-      <c r="B149" s="2">
-        <v>46041</v>
-      </c>
-      <c r="C149" t="s">
-        <v>36</v>
-      </c>
-      <c r="D149" t="s">
-        <v>185</v>
-      </c>
-      <c r="E149" t="s">
-        <v>99</v>
-      </c>
-      <c r="F149" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
       </c>
       <c r="G149" t="b">
         <f>FALSE()</f>
@@ -5700,16 +5767,16 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B160" s="2">
-        <v>46051</v>
+        <v>46045</v>
       </c>
       <c r="C160" t="s">
         <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="E160" t="s">
         <v>99</v>
@@ -5734,7 +5801,7 @@
         <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="E161" t="s">
         <v>99</v>
@@ -5759,7 +5826,7 @@
         <v>23</v>
       </c>
       <c r="D162" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="E162" t="s">
         <v>99</v>
@@ -5784,7 +5851,7 @@
         <v>23</v>
       </c>
       <c r="D163" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E163" t="s">
         <v>99</v>
@@ -5806,10 +5873,10 @@
         <v>46045</v>
       </c>
       <c r="C164" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D164" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="E164" t="s">
         <v>99</v>
@@ -5825,16 +5892,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B165" s="2">
-        <v>46038</v>
+        <v>46045</v>
       </c>
       <c r="C165" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D165" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="E165" t="s">
         <v>99</v>
@@ -5850,16 +5917,16 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B166" s="2">
         <v>46045</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D166" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="E166" t="s">
         <v>109</v>
@@ -5875,16 +5942,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B167" s="2">
-        <v>46049</v>
+        <v>46045</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="E167" t="s">
         <v>99</v>
@@ -5900,16 +5967,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B168" s="2">
-        <v>46041</v>
+        <v>46045</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
       </c>
       <c r="D168" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="E168" t="s">
         <v>99</v>
@@ -5931,17 +5998,17 @@
         <v>46045</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D169" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="E169" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F169" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
         <f>FALSE()</f>
@@ -5959,7 +6026,7 @@
         <v>29</v>
       </c>
       <c r="D170" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="E170" t="s">
         <v>99</v>
@@ -5984,14 +6051,14 @@
         <v>29</v>
       </c>
       <c r="D171" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E171" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F171" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
         <f>FALSE()</f>
@@ -6000,16 +6067,16 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B172" s="2">
-        <v>46042</v>
+        <v>46045</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
       </c>
       <c r="D172" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="E172" t="s">
         <v>99</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="D173" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E173" t="s">
         <v>99</v>
@@ -6059,7 +6126,7 @@
         <v>29</v>
       </c>
       <c r="D174" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E174" t="s">
         <v>99</v>
@@ -6084,7 +6151,7 @@
         <v>29</v>
       </c>
       <c r="D175" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="E175" t="s">
         <v>99</v>
@@ -6109,7 +6176,7 @@
         <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E176" t="s">
         <v>99</v>
@@ -6134,7 +6201,10 @@
         <v>29</v>
       </c>
       <c r="D177" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="E177" t="s">
+        <v>99</v>
       </c>
       <c r="F177" t="b">
         <f>FALSE()</f>
@@ -6153,10 +6223,10 @@
         <v>46045</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D178" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E178" t="s">
         <v>99</v>
@@ -6178,13 +6248,10 @@
         <v>46045</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D179" t="s">
-        <v>100</v>
-      </c>
-      <c r="E179" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="F179" t="b">
         <f>FALSE()</f>
@@ -6197,16 +6264,19 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B180" s="2">
-        <v>46042</v>
+        <v>46045</v>
       </c>
       <c r="C180" t="s">
         <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>194</v>
+        <v>175</v>
+      </c>
+      <c r="E180" t="s">
+        <v>99</v>
       </c>
       <c r="F180" t="b">
         <f>FALSE()</f>
@@ -6228,7 +6298,7 @@
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E181" t="s">
         <v>99</v>
@@ -6253,7 +6323,7 @@
         <v>15</v>
       </c>
       <c r="D182" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E182" t="s">
         <v>99</v>
@@ -6278,7 +6348,7 @@
         <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E183" t="s">
         <v>99</v>
@@ -6303,7 +6373,7 @@
         <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E184" t="s">
         <v>99</v>
@@ -6328,7 +6398,7 @@
         <v>15</v>
       </c>
       <c r="D185" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E185" t="s">
         <v>99</v>
@@ -6353,7 +6423,7 @@
         <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="E186" t="s">
         <v>99</v>
@@ -6369,16 +6439,19 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B187" s="2">
-        <v>46038</v>
+        <v>46045</v>
       </c>
       <c r="C187" t="s">
         <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="E187" t="s">
+        <v>99</v>
       </c>
       <c r="F187" t="b">
         <f>FALSE()</f>
@@ -6441,23 +6514,23 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B190" s="2">
-        <v>46048</v>
+        <v>46045</v>
       </c>
       <c r="C190" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D190" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="E190" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F190" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G190" t="b">
         <f>FALSE()</f>
@@ -6475,7 +6548,7 @@
         <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E191" t="s">
         <v>99</v>
@@ -6491,16 +6564,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B192" s="2">
-        <v>46051</v>
+        <v>46048</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D192" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E192" t="s">
         <v>99</v>
@@ -6525,7 +6598,7 @@
         <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E193" t="s">
         <v>99</v>
@@ -6541,16 +6614,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B194" s="2">
-        <v>46038</v>
+        <v>46048</v>
       </c>
       <c r="C194" t="s">
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E194" t="s">
         <v>99</v>
@@ -6575,14 +6648,14 @@
         <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E195" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F195" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
         <f>FALSE()</f>
@@ -6600,7 +6673,7 @@
         <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E196" t="s">
         <v>99</v>
@@ -6616,16 +6689,16 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B197" s="2">
-        <v>46042</v>
+        <v>46048</v>
       </c>
       <c r="C197" t="s">
         <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="E197" t="s">
         <v>99</v>
@@ -6650,7 +6723,7 @@
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E198" t="s">
         <v>99</v>
@@ -6675,7 +6748,7 @@
         <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="E199" t="s">
         <v>99</v>
@@ -6691,16 +6764,16 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B200" s="2">
-        <v>46051</v>
+        <v>46048</v>
       </c>
       <c r="C200" t="s">
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="E200" t="s">
         <v>99</v>
@@ -6725,7 +6798,7 @@
         <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E201" t="s">
         <v>99</v>
@@ -6741,16 +6814,16 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B202" s="2">
-        <v>46041</v>
+        <v>46048</v>
       </c>
       <c r="C202" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E202" t="s">
         <v>99</v>
@@ -6816,16 +6889,16 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B205" s="2">
-        <v>46049</v>
+        <v>46048</v>
       </c>
       <c r="C205" t="s">
         <v>37</v>
       </c>
       <c r="D205" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="E205" t="s">
         <v>99</v>
@@ -6850,7 +6923,7 @@
         <v>37</v>
       </c>
       <c r="D206" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E206" t="s">
         <v>99</v>
@@ -6875,7 +6948,7 @@
         <v>37</v>
       </c>
       <c r="D207" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E207" t="s">
         <v>99</v>
@@ -6900,7 +6973,7 @@
         <v>37</v>
       </c>
       <c r="D208" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E208" t="s">
         <v>99</v>
@@ -6925,7 +6998,7 @@
         <v>37</v>
       </c>
       <c r="D209" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E209" t="s">
         <v>99</v>
@@ -6950,7 +7023,7 @@
         <v>37</v>
       </c>
       <c r="D210" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="E210" t="s">
         <v>99</v>
@@ -6966,16 +7039,16 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B211" s="2">
-        <v>46050</v>
+        <v>46048</v>
       </c>
       <c r="C211" t="s">
         <v>37</v>
       </c>
       <c r="D211" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E211" t="s">
         <v>99</v>
@@ -7000,14 +7073,14 @@
         <v>37</v>
       </c>
       <c r="D212" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F212" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
         <f>FALSE()</f>
@@ -7016,19 +7089,16 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B213" s="2">
-        <v>46041</v>
+        <v>46048</v>
       </c>
       <c r="C213" t="s">
         <v>37</v>
       </c>
       <c r="D213" t="s">
-        <v>201</v>
-      </c>
-      <c r="E213" t="s">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="F213" t="b">
         <f>FALSE()</f>
@@ -7041,16 +7111,16 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B214" s="2">
-        <v>46051</v>
+        <v>46048</v>
       </c>
       <c r="C214" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D214" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="E214" t="s">
         <v>99</v>
@@ -7066,16 +7136,16 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B215" s="2">
-        <v>46041</v>
+        <v>46048</v>
       </c>
       <c r="C215" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D215" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="E215" t="s">
         <v>99</v>
@@ -7100,7 +7170,7 @@
         <v>30</v>
       </c>
       <c r="D216" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="E216" t="s">
         <v>99</v>
@@ -7125,7 +7195,7 @@
         <v>30</v>
       </c>
       <c r="D217" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="E217" t="s">
         <v>99</v>
@@ -7150,7 +7220,7 @@
         <v>30</v>
       </c>
       <c r="D218" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E218" t="s">
         <v>99</v>
@@ -7175,7 +7245,7 @@
         <v>30</v>
       </c>
       <c r="D219" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="E219" t="s">
         <v>99</v>
@@ -7191,16 +7261,16 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B220" s="2">
-        <v>46050</v>
+        <v>46048</v>
       </c>
       <c r="C220" t="s">
         <v>30</v>
       </c>
       <c r="D220" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E220" t="s">
         <v>99</v>
@@ -7266,16 +7336,16 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B223" s="2">
-        <v>46051</v>
+        <v>46048</v>
       </c>
       <c r="C223" t="s">
         <v>30</v>
       </c>
       <c r="D223" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E223" t="s">
         <v>99</v>
@@ -7300,10 +7370,7 @@
         <v>30</v>
       </c>
       <c r="D224" t="s">
-        <v>205</v>
-      </c>
-      <c r="E224" t="s">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="F224" t="b">
         <f>FALSE()</f>
@@ -7322,14 +7389,17 @@
         <v>46048</v>
       </c>
       <c r="C225" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D225" t="s">
-        <v>206</v>
+        <v>124</v>
+      </c>
+      <c r="E225" t="s">
+        <v>109</v>
       </c>
       <c r="F225" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G225" t="b">
         <f>FALSE()</f>
@@ -7347,14 +7417,14 @@
         <v>22</v>
       </c>
       <c r="D226" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E226" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F226" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G226" t="b">
         <f>FALSE()</f>
@@ -7363,23 +7433,23 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B227" s="2">
-        <v>46050</v>
+        <v>46048</v>
       </c>
       <c r="C227" t="s">
         <v>22</v>
       </c>
       <c r="D227" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E227" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F227" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G227" t="b">
         <f>FALSE()</f>
@@ -7397,7 +7467,7 @@
         <v>22</v>
       </c>
       <c r="D228" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E228" t="s">
         <v>99</v>
@@ -7422,7 +7492,7 @@
         <v>22</v>
       </c>
       <c r="D229" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E229" t="s">
         <v>99</v>
@@ -7438,23 +7508,23 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B230" s="2">
-        <v>46051</v>
+        <v>46048</v>
       </c>
       <c r="C230" t="s">
         <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="E230" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F230" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G230" t="b">
         <f>FALSE()</f>
@@ -7472,7 +7542,7 @@
         <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E231" t="s">
         <v>99</v>
@@ -7488,16 +7558,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B232" s="2">
-        <v>46038</v>
+        <v>46048</v>
       </c>
       <c r="C232" t="s">
         <v>22</v>
       </c>
       <c r="D232" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="E232" t="s">
         <v>99</v>
@@ -7522,7 +7592,7 @@
         <v>22</v>
       </c>
       <c r="D233" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E233" t="s">
         <v>99</v>
@@ -7547,7 +7617,7 @@
         <v>22</v>
       </c>
       <c r="D234" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E234" t="s">
         <v>99</v>
@@ -7569,10 +7639,10 @@
         <v>46048</v>
       </c>
       <c r="C235" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D235" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="E235" t="s">
         <v>99</v>
@@ -7594,10 +7664,10 @@
         <v>46048</v>
       </c>
       <c r="C236" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D236" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="E236" t="s">
         <v>99</v>
@@ -7619,17 +7689,17 @@
         <v>46048</v>
       </c>
       <c r="C237" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D237" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="E237" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F237" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G237" t="b">
         <f>FALSE()</f>
@@ -7638,16 +7708,16 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B238" s="2">
-        <v>46049</v>
+        <v>46048</v>
       </c>
       <c r="C238" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D238" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="E238" t="s">
         <v>99</v>
@@ -7672,7 +7742,7 @@
         <v>36</v>
       </c>
       <c r="D239" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E239" t="s">
         <v>99</v>
@@ -7697,7 +7767,7 @@
         <v>36</v>
       </c>
       <c r="D240" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E240" t="s">
         <v>99</v>
@@ -7722,7 +7792,7 @@
         <v>36</v>
       </c>
       <c r="D241" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E241" t="s">
         <v>99</v>
@@ -7747,7 +7817,7 @@
         <v>36</v>
       </c>
       <c r="D242" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E242" t="s">
         <v>99</v>
@@ -7772,7 +7842,7 @@
         <v>36</v>
       </c>
       <c r="D243" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="E243" t="s">
         <v>99</v>
@@ -7788,10 +7858,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B244" s="2">
-        <v>46050</v>
+        <v>46049</v>
       </c>
       <c r="C244" t="s">
         <v>36</v>
@@ -7813,16 +7883,16 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B245" s="2">
-        <v>46045</v>
+        <v>46049</v>
       </c>
       <c r="C245" t="s">
         <v>36</v>
       </c>
       <c r="D245" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="E245" t="s">
         <v>99</v>
@@ -8210,23 +8280,23 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B261" s="2">
         <v>46049</v>
       </c>
       <c r="C261" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D261" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="E261" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F261" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G261" t="b">
         <f>FALSE()</f>
@@ -8241,10 +8311,10 @@
         <v>46049</v>
       </c>
       <c r="C262" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D262" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E262" t="s">
         <v>99</v>
@@ -8269,7 +8339,7 @@
         <v>29</v>
       </c>
       <c r="D263" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E263" t="s">
         <v>99</v>
@@ -8294,7 +8364,7 @@
         <v>29</v>
       </c>
       <c r="D264" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="E264" t="s">
         <v>99</v>
@@ -8316,10 +8386,10 @@
         <v>46049</v>
       </c>
       <c r="C265" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D265" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="E265" t="s">
         <v>99</v>
@@ -8335,23 +8405,23 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B266" s="2">
-        <v>46042</v>
+        <v>46049</v>
       </c>
       <c r="C266" t="s">
         <v>29</v>
       </c>
       <c r="D266" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="E266" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F266" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G266" t="b">
         <f>FALSE()</f>
@@ -8360,16 +8430,16 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B267" s="2">
-        <v>46045</v>
+        <v>46049</v>
       </c>
       <c r="C267" t="s">
         <v>29</v>
       </c>
       <c r="D267" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E267" t="s">
         <v>99</v>
@@ -8394,7 +8464,7 @@
         <v>29</v>
       </c>
       <c r="D268" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E268" t="s">
         <v>99</v>
@@ -8419,7 +8489,7 @@
         <v>29</v>
       </c>
       <c r="D269" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="E269" t="s">
         <v>99</v>
@@ -8444,7 +8514,7 @@
         <v>29</v>
       </c>
       <c r="D270" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="E270" t="s">
         <v>99</v>
@@ -8469,7 +8539,7 @@
         <v>29</v>
       </c>
       <c r="D271" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E271" t="s">
         <v>99</v>
@@ -8494,7 +8564,7 @@
         <v>29</v>
       </c>
       <c r="D272" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E272" t="s">
         <v>99</v>
@@ -8510,16 +8580,16 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B273" s="2">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="C273" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D273" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E273" t="s">
         <v>99</v>
@@ -8541,10 +8611,10 @@
         <v>46049</v>
       </c>
       <c r="C274" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D274" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E274" t="s">
         <v>99</v>
@@ -8566,10 +8636,10 @@
         <v>46049</v>
       </c>
       <c r="C275" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D275" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="E275" t="s">
         <v>99</v>
@@ -8594,7 +8664,7 @@
         <v>37</v>
       </c>
       <c r="D276" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="E276" t="s">
         <v>99</v>
@@ -8619,7 +8689,7 @@
         <v>37</v>
       </c>
       <c r="D277" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E277" t="s">
         <v>99</v>
@@ -8635,10 +8705,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B278" s="2">
-        <v>46050</v>
+        <v>46049</v>
       </c>
       <c r="C278" t="s">
         <v>37</v>
@@ -8669,7 +8739,7 @@
         <v>37</v>
       </c>
       <c r="D279" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E279" t="s">
         <v>99</v>
@@ -8694,7 +8764,7 @@
         <v>37</v>
       </c>
       <c r="D280" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E280" t="s">
         <v>99</v>
@@ -8719,7 +8789,7 @@
         <v>37</v>
       </c>
       <c r="D281" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E281" t="s">
         <v>99</v>
@@ -8735,23 +8805,23 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B282" s="2">
-        <v>46041</v>
+        <v>46049</v>
       </c>
       <c r="C282" t="s">
         <v>37</v>
       </c>
       <c r="D282" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="E282" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F282" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G282" t="b">
         <f>FALSE()</f>
@@ -8807,23 +8877,23 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B285" s="2">
-        <v>46050</v>
+        <v>46049</v>
       </c>
       <c r="C285" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D285" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="E285" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F285" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G285" t="b">
         <f>FALSE()</f>
@@ -8838,10 +8908,10 @@
         <v>46050</v>
       </c>
       <c r="C286" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D286" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="E286" t="s">
         <v>99</v>
@@ -8866,14 +8936,14 @@
         <v>36</v>
       </c>
       <c r="D287" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="E287" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F287" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G287" t="b">
         <f>FALSE()</f>
@@ -8891,7 +8961,7 @@
         <v>36</v>
       </c>
       <c r="D288" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E288" t="s">
         <v>99</v>
@@ -8907,23 +8977,23 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B289" s="2">
-        <v>46041</v>
+        <v>46050</v>
       </c>
       <c r="C289" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D289" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="E289" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F289" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G289" t="b">
         <f>FALSE()</f>
@@ -8941,7 +9011,7 @@
         <v>36</v>
       </c>
       <c r="D290" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E290" t="s">
         <v>99</v>
@@ -8957,16 +9027,16 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B291" s="2">
-        <v>46045</v>
+        <v>46050</v>
       </c>
       <c r="C291" t="s">
         <v>36</v>
       </c>
       <c r="D291" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="E291" t="s">
         <v>99</v>
@@ -8982,16 +9052,16 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B292" s="2">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="C292" t="s">
         <v>36</v>
       </c>
       <c r="D292" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="E292" t="s">
         <v>99</v>
@@ -9016,14 +9086,14 @@
         <v>36</v>
       </c>
       <c r="D293" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E293" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F293" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G293" t="b">
         <f>FALSE()</f>
@@ -9041,7 +9111,7 @@
         <v>36</v>
       </c>
       <c r="D294" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E294" t="s">
         <v>99</v>
@@ -9066,7 +9136,7 @@
         <v>36</v>
       </c>
       <c r="D295" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="E295" t="s">
         <v>99</v>
@@ -9091,7 +9161,10 @@
         <v>36</v>
       </c>
       <c r="D296" t="s">
-        <v>159</v>
+        <v>209</v>
+      </c>
+      <c r="E296" t="s">
+        <v>99</v>
       </c>
       <c r="F296" t="b">
         <f>FALSE()</f>
@@ -9110,10 +9183,10 @@
         <v>46050</v>
       </c>
       <c r="C297" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D297" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="E297" t="s">
         <v>99</v>
@@ -9129,16 +9202,16 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B298" s="2">
-        <v>46038</v>
+        <v>46050</v>
       </c>
       <c r="C298" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D298" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E298" t="s">
         <v>99</v>
@@ -9160,13 +9233,10 @@
         <v>46050</v>
       </c>
       <c r="C299" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D299" t="s">
-        <v>119</v>
-      </c>
-      <c r="E299" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="F299" t="b">
         <f>FALSE()</f>
@@ -9188,7 +9258,7 @@
         <v>22</v>
       </c>
       <c r="D300" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="E300" t="s">
         <v>99</v>
@@ -9204,16 +9274,16 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B301" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="C301" t="s">
         <v>22</v>
       </c>
       <c r="D301" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="E301" t="s">
         <v>99</v>
@@ -9238,7 +9308,7 @@
         <v>22</v>
       </c>
       <c r="D302" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E302" t="s">
         <v>99</v>
@@ -9263,7 +9333,7 @@
         <v>22</v>
       </c>
       <c r="D303" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="E303" t="s">
         <v>99</v>
@@ -9288,7 +9358,7 @@
         <v>22</v>
       </c>
       <c r="D304" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="E304" t="s">
         <v>99</v>
@@ -9304,16 +9374,16 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B305" s="2">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="C305" t="s">
         <v>22</v>
       </c>
       <c r="D305" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="E305" t="s">
         <v>99</v>
@@ -9379,10 +9449,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B308" s="2">
-        <v>46038</v>
+        <v>46050</v>
       </c>
       <c r="C308" t="s">
         <v>22</v>
@@ -9404,23 +9474,23 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B309" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="C309" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D309" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E309" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F309" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G309" t="b">
         <f>FALSE()</f>
@@ -9435,17 +9505,17 @@
         <v>46050</v>
       </c>
       <c r="C310" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D310" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E310" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F310" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G310" t="b">
         <f>FALSE()</f>
@@ -9463,7 +9533,7 @@
         <v>37</v>
       </c>
       <c r="D311" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E311" t="s">
         <v>99</v>
@@ -9479,23 +9549,23 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B312" s="2">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="C312" t="s">
         <v>37</v>
       </c>
       <c r="D312" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E312" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F312" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G312" t="b">
         <f>FALSE()</f>
@@ -9510,10 +9580,10 @@
         <v>46050</v>
       </c>
       <c r="C313" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D313" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E313" t="s">
         <v>99</v>
@@ -9538,18 +9608,18 @@
         <v>37</v>
       </c>
       <c r="D314" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E314" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="F314" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G314" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -9563,7 +9633,7 @@
         <v>37</v>
       </c>
       <c r="D315" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E315" t="s">
         <v>99</v>
@@ -9588,7 +9658,7 @@
         <v>37</v>
       </c>
       <c r="D316" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E316" t="s">
         <v>99</v>
@@ -9613,7 +9683,7 @@
         <v>37</v>
       </c>
       <c r="D317" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E317" t="s">
         <v>99</v>
@@ -9629,24 +9699,27 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B318" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="C318" t="s">
         <v>37</v>
       </c>
       <c r="D318" t="s">
-        <v>221</v>
+        <v>215</v>
+      </c>
+      <c r="E318" t="s">
+        <v>220</v>
       </c>
       <c r="F318" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G318" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -9660,7 +9733,7 @@
         <v>37</v>
       </c>
       <c r="D319" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E319" t="s">
         <v>99</v>
@@ -9685,7 +9758,10 @@
         <v>37</v>
       </c>
       <c r="D320" t="s">
-        <v>222</v>
+        <v>170</v>
+      </c>
+      <c r="E320" t="s">
+        <v>99</v>
       </c>
       <c r="F320" t="b">
         <f>FALSE()</f>
@@ -9698,16 +9774,16 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B321" s="2">
-        <v>46041</v>
+        <v>46050</v>
       </c>
       <c r="C321" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D321" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="E321" t="s">
         <v>99</v>
@@ -9729,10 +9805,10 @@
         <v>46050</v>
       </c>
       <c r="C322" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D322" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="E322" t="s">
         <v>99</v>
@@ -9754,13 +9830,10 @@
         <v>46050</v>
       </c>
       <c r="C323" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D323" t="s">
-        <v>150</v>
-      </c>
-      <c r="E323" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="F323" t="b">
         <f>FALSE()</f>
@@ -9782,7 +9855,7 @@
         <v>30</v>
       </c>
       <c r="D324" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E324" t="s">
         <v>99</v>
@@ -9798,16 +9871,16 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B325" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="C325" t="s">
         <v>30</v>
       </c>
       <c r="D325" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="E325" t="s">
         <v>99</v>
@@ -9832,7 +9905,7 @@
         <v>30</v>
       </c>
       <c r="D326" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="E326" t="s">
         <v>99</v>
@@ -9857,7 +9930,7 @@
         <v>30</v>
       </c>
       <c r="D327" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E327" t="s">
         <v>99</v>
@@ -9882,7 +9955,7 @@
         <v>30</v>
       </c>
       <c r="D328" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="E328" t="s">
         <v>99</v>
@@ -9898,16 +9971,16 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B329" s="2">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="C329" t="s">
         <v>30</v>
       </c>
       <c r="D329" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="E329" t="s">
         <v>99</v>
@@ -9923,16 +9996,16 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B330" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="C330" t="s">
         <v>30</v>
       </c>
       <c r="D330" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="E330" t="s">
         <v>99</v>
@@ -9957,7 +10030,7 @@
         <v>30</v>
       </c>
       <c r="D331" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="E331" t="s">
         <v>99</v>
@@ -9982,7 +10055,7 @@
         <v>30</v>
       </c>
       <c r="D332" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E332" t="s">
         <v>99</v>
@@ -10007,7 +10080,7 @@
         <v>30</v>
       </c>
       <c r="D333" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E333" t="s">
         <v>99</v>
@@ -10029,10 +10102,10 @@
         <v>46051</v>
       </c>
       <c r="C334" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D334" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="E334" t="s">
         <v>99</v>
@@ -10054,10 +10127,10 @@
         <v>46051</v>
       </c>
       <c r="C335" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D335" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="E335" t="s">
         <v>99</v>
@@ -10082,18 +10155,18 @@
         <v>30</v>
       </c>
       <c r="D336" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E336" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="F336" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="G336" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
@@ -10107,7 +10180,7 @@
         <v>30</v>
       </c>
       <c r="D337" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="E337" t="s">
         <v>99</v>
@@ -10132,7 +10205,7 @@
         <v>30</v>
       </c>
       <c r="D338" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="E338" t="s">
         <v>99</v>
@@ -10148,23 +10221,23 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B339" s="2">
-        <v>46041</v>
+        <v>46051</v>
       </c>
       <c r="C339" t="s">
         <v>30</v>
       </c>
       <c r="D339" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E339" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F339" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G339" t="b">
         <f>FALSE()</f>
@@ -10182,7 +10255,7 @@
         <v>30</v>
       </c>
       <c r="D340" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E340" t="s">
         <v>99</v>
@@ -10198,41 +10271,41 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B341" s="2">
-        <v>46048</v>
+        <v>46051</v>
       </c>
       <c r="C341" t="s">
         <v>30</v>
       </c>
       <c r="D341" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="E341" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="F341" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G341" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G341" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B342" s="2">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="C342" t="s">
         <v>30</v>
       </c>
       <c r="D342" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="E342" t="s">
         <v>99</v>
@@ -10257,7 +10330,7 @@
         <v>30</v>
       </c>
       <c r="D343" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="E343" t="s">
         <v>99</v>
@@ -10282,7 +10355,7 @@
         <v>30</v>
       </c>
       <c r="D344" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="E344" t="s">
         <v>99</v>
@@ -10307,14 +10380,14 @@
         <v>30</v>
       </c>
       <c r="D345" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="E345" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F345" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G345" t="b">
         <f>FALSE()</f>
@@ -10329,42 +10402,42 @@
         <v>46051</v>
       </c>
       <c r="C346" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D346" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="E346" t="s">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="F346" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G346" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>15</v>
+      </c>
+      <c r="B347" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C347" t="s">
+        <v>30</v>
+      </c>
+      <c r="D347" t="s">
+        <v>227</v>
+      </c>
+      <c r="E347" t="s">
+        <v>109</v>
+      </c>
+      <c r="F347" t="b">
         <f>TRUE()</f>
         <v>1</v>
-      </c>
-      <c r="G346" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A347">
-        <v>5</v>
-      </c>
-      <c r="B347" s="2">
-        <v>46042</v>
-      </c>
-      <c r="C347" t="s">
-        <v>23</v>
-      </c>
-      <c r="D347" t="s">
-        <v>191</v>
-      </c>
-      <c r="E347" t="s">
-        <v>99</v>
-      </c>
-      <c r="F347" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
       </c>
       <c r="G347" t="b">
         <f>FALSE()</f>
@@ -10382,18 +10455,18 @@
         <v>23</v>
       </c>
       <c r="D348" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E348" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="F348" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G348" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
@@ -10407,7 +10480,7 @@
         <v>23</v>
       </c>
       <c r="D349" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E349" t="s">
         <v>99</v>
@@ -10432,7 +10505,7 @@
         <v>23</v>
       </c>
       <c r="D350" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E350" t="s">
         <v>99</v>
@@ -10457,7 +10530,7 @@
         <v>23</v>
       </c>
       <c r="D351" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="E351" t="s">
         <v>99</v>
@@ -10473,23 +10546,23 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B352" s="2">
-        <v>46045</v>
+        <v>46051</v>
       </c>
       <c r="C352" t="s">
         <v>23</v>
       </c>
       <c r="D352" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E352" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F352" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G352" t="b">
         <f>FALSE()</f>
@@ -10632,14 +10705,14 @@
         <v>16</v>
       </c>
       <c r="D358" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E358" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F358" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G358" t="b">
         <f>FALSE()</f>
@@ -10654,10 +10727,10 @@
         <v>46051</v>
       </c>
       <c r="C359" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D359" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E359" t="s">
         <v>99</v>
@@ -10682,7 +10755,7 @@
         <v>16</v>
       </c>
       <c r="D360" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="E360" t="s">
         <v>99</v>
@@ -10707,7 +10780,7 @@
         <v>16</v>
       </c>
       <c r="D361" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="E361" t="s">
         <v>99</v>
@@ -10723,23 +10796,23 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362">
+        <v>16</v>
+      </c>
+      <c r="B362" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C362" t="s">
+        <v>22</v>
+      </c>
+      <c r="D362" t="s">
+        <v>124</v>
+      </c>
+      <c r="E362" t="s">
+        <v>109</v>
+      </c>
+      <c r="F362" t="b">
+        <f>TRUE()</f>
         <v>1</v>
-      </c>
-      <c r="B362" s="2">
-        <v>46038</v>
-      </c>
-      <c r="C362" t="s">
-        <v>16</v>
-      </c>
-      <c r="D362" t="s">
-        <v>229</v>
-      </c>
-      <c r="E362" t="s">
-        <v>99</v>
-      </c>
-      <c r="F362" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
       </c>
       <c r="G362" t="b">
         <f>FALSE()</f>
@@ -10754,10 +10827,10 @@
         <v>46051</v>
       </c>
       <c r="C363" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D363" t="s">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="E363" t="s">
         <v>99</v>
@@ -10782,14 +10855,14 @@
         <v>16</v>
       </c>
       <c r="D364" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E364" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F364" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G364" t="b">
         <f>FALSE()</f>
@@ -10798,16 +10871,16 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B365" s="2">
-        <v>46042</v>
+        <v>46051</v>
       </c>
       <c r="C365" t="s">
         <v>16</v>
       </c>
       <c r="D365" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="E365" t="s">
         <v>99</v>
@@ -10832,7 +10905,7 @@
         <v>16</v>
       </c>
       <c r="D366" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="E366" t="s">
         <v>99</v>
@@ -10848,16 +10921,16 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B367" s="2">
-        <v>46048</v>
+        <v>46051</v>
       </c>
       <c r="C367" t="s">
         <v>16</v>
       </c>
       <c r="D367" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="E367" t="s">
         <v>99</v>
@@ -10882,7 +10955,7 @@
         <v>16</v>
       </c>
       <c r="D368" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="E368" t="s">
         <v>99</v>
@@ -10907,7 +10980,10 @@
         <v>16</v>
       </c>
       <c r="D369" t="s">
-        <v>181</v>
+        <v>108</v>
+      </c>
+      <c r="E369" t="s">
+        <v>99</v>
       </c>
       <c r="F369" t="b">
         <f>FALSE()</f>
@@ -10920,16 +10996,16 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B370" s="2">
-        <v>46048</v>
+        <v>46051</v>
       </c>
       <c r="C370" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D370" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="E370" t="s">
         <v>99</v>
@@ -10945,16 +11021,16 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B371" s="2">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="C371" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D371" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E371" t="s">
         <v>99</v>
@@ -10976,13 +11052,10 @@
         <v>46051</v>
       </c>
       <c r="C372" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D372" t="s">
-        <v>119</v>
-      </c>
-      <c r="E372" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="F372" t="b">
         <f>FALSE()</f>
@@ -11004,7 +11077,7 @@
         <v>22</v>
       </c>
       <c r="D373" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E373" t="s">
         <v>99</v>
@@ -11029,7 +11102,7 @@
         <v>22</v>
       </c>
       <c r="D374" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E374" t="s">
         <v>99</v>
@@ -11054,7 +11127,7 @@
         <v>22</v>
       </c>
       <c r="D375" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="E375" t="s">
         <v>99</v>
@@ -11070,16 +11143,16 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B376" s="2">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="C376" t="s">
         <v>22</v>
       </c>
       <c r="D376" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="E376" t="s">
         <v>99</v>
@@ -11246,7 +11319,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
         <v>17</v>
       </c>
@@ -11890,7 +11963,682 @@
         <v>115</v>
       </c>
     </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>19</v>
+      </c>
+      <c r="B430" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C430" t="s">
+        <v>22</v>
+      </c>
+      <c r="D430" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>19</v>
+      </c>
+      <c r="B431" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C431" t="s">
+        <v>22</v>
+      </c>
+      <c r="D431" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>19</v>
+      </c>
+      <c r="B432" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C432" t="s">
+        <v>22</v>
+      </c>
+      <c r="D432" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>19</v>
+      </c>
+      <c r="B433" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C433" t="s">
+        <v>22</v>
+      </c>
+      <c r="D433" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>19</v>
+      </c>
+      <c r="B434" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C434" t="s">
+        <v>22</v>
+      </c>
+      <c r="D434" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>19</v>
+      </c>
+      <c r="B435" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C435" t="s">
+        <v>22</v>
+      </c>
+      <c r="D435" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>19</v>
+      </c>
+      <c r="B436" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C436" t="s">
+        <v>22</v>
+      </c>
+      <c r="D436" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>19</v>
+      </c>
+      <c r="B437" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C437" t="s">
+        <v>22</v>
+      </c>
+      <c r="D437" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>19</v>
+      </c>
+      <c r="B438" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C438" t="s">
+        <v>22</v>
+      </c>
+      <c r="D438" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>19</v>
+      </c>
+      <c r="B439" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C439" t="s">
+        <v>22</v>
+      </c>
+      <c r="D439" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>19</v>
+      </c>
+      <c r="B440" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C440" t="s">
+        <v>22</v>
+      </c>
+      <c r="D440" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>19</v>
+      </c>
+      <c r="B441" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C441" t="s">
+        <v>22</v>
+      </c>
+      <c r="D441" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>19</v>
+      </c>
+      <c r="B442" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C442" t="s">
+        <v>29</v>
+      </c>
+      <c r="D442" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>19</v>
+      </c>
+      <c r="B443" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C443" t="s">
+        <v>29</v>
+      </c>
+      <c r="D443" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>19</v>
+      </c>
+      <c r="B444" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C444" t="s">
+        <v>29</v>
+      </c>
+      <c r="D444" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>19</v>
+      </c>
+      <c r="B445" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C445" t="s">
+        <v>29</v>
+      </c>
+      <c r="D445" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>19</v>
+      </c>
+      <c r="B446" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C446" t="s">
+        <v>29</v>
+      </c>
+      <c r="D446" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>19</v>
+      </c>
+      <c r="B447" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C447" t="s">
+        <v>29</v>
+      </c>
+      <c r="D447" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>19</v>
+      </c>
+      <c r="B448" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C448" t="s">
+        <v>29</v>
+      </c>
+      <c r="D448" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>19</v>
+      </c>
+      <c r="B449" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C449" t="s">
+        <v>29</v>
+      </c>
+      <c r="D449" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>19</v>
+      </c>
+      <c r="B450" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C450" t="s">
+        <v>29</v>
+      </c>
+      <c r="D450" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>19</v>
+      </c>
+      <c r="B451" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C451" t="s">
+        <v>29</v>
+      </c>
+      <c r="D451" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>19</v>
+      </c>
+      <c r="B452" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C452" t="s">
+        <v>29</v>
+      </c>
+      <c r="D452" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>19</v>
+      </c>
+      <c r="B453" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C453" t="s">
+        <v>29</v>
+      </c>
+      <c r="D453" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>20</v>
+      </c>
+      <c r="B454" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C454" t="s">
+        <v>15</v>
+      </c>
+      <c r="D454" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>20</v>
+      </c>
+      <c r="B455" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C455" t="s">
+        <v>15</v>
+      </c>
+      <c r="D455" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>20</v>
+      </c>
+      <c r="B456" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C456" t="s">
+        <v>15</v>
+      </c>
+      <c r="D456" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>20</v>
+      </c>
+      <c r="B457" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C457" t="s">
+        <v>15</v>
+      </c>
+      <c r="D457" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>20</v>
+      </c>
+      <c r="B458" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C458" t="s">
+        <v>15</v>
+      </c>
+      <c r="D458" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>20</v>
+      </c>
+      <c r="B459" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C459" t="s">
+        <v>15</v>
+      </c>
+      <c r="D459" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>20</v>
+      </c>
+      <c r="B460" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C460" t="s">
+        <v>15</v>
+      </c>
+      <c r="D460" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>20</v>
+      </c>
+      <c r="B461" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C461" t="s">
+        <v>15</v>
+      </c>
+      <c r="D461" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>20</v>
+      </c>
+      <c r="B462" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C462" t="s">
+        <v>15</v>
+      </c>
+      <c r="D462" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>20</v>
+      </c>
+      <c r="B463" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C463" t="s">
+        <v>15</v>
+      </c>
+      <c r="D463" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>20</v>
+      </c>
+      <c r="B464" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C464" t="s">
+        <v>15</v>
+      </c>
+      <c r="D464" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>20</v>
+      </c>
+      <c r="B465" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C465" t="s">
+        <v>15</v>
+      </c>
+      <c r="D465" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>20</v>
+      </c>
+      <c r="B466" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C466" t="s">
+        <v>37</v>
+      </c>
+      <c r="D466" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>20</v>
+      </c>
+      <c r="B467" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C467" t="s">
+        <v>37</v>
+      </c>
+      <c r="D467" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>20</v>
+      </c>
+      <c r="B468" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C468" t="s">
+        <v>37</v>
+      </c>
+      <c r="D468" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>20</v>
+      </c>
+      <c r="B469" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C469" t="s">
+        <v>37</v>
+      </c>
+      <c r="D469" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>20</v>
+      </c>
+      <c r="B470" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C470" t="s">
+        <v>37</v>
+      </c>
+      <c r="D470" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>20</v>
+      </c>
+      <c r="B471" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C471" t="s">
+        <v>37</v>
+      </c>
+      <c r="D471" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>20</v>
+      </c>
+      <c r="B472" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C472" t="s">
+        <v>37</v>
+      </c>
+      <c r="D472" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>20</v>
+      </c>
+      <c r="B473" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C473" t="s">
+        <v>37</v>
+      </c>
+      <c r="D473" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>20</v>
+      </c>
+      <c r="B474" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C474" t="s">
+        <v>37</v>
+      </c>
+      <c r="D474" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>20</v>
+      </c>
+      <c r="B475" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C475" t="s">
+        <v>37</v>
+      </c>
+      <c r="D475" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>20</v>
+      </c>
+      <c r="B476" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C476" t="s">
+        <v>37</v>
+      </c>
+      <c r="D476" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>20</v>
+      </c>
+      <c r="B477" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C477" t="s">
+        <v>37</v>
+      </c>
+      <c r="D477" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G477">
+    <sortCondition ref="A1:A477"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/PSL02_Compliance_Log.xlsx
+++ b/PSL02_Compliance_Log.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parcopk-my.sharepoint.com/personal/zohaib_hassan_parco_com_pk/Documents/Recordings/Zohaib_Parco/3. Projects/20. PSL App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB4D977-9AF0-44B8-A63A-0A777FBA664C}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C99ED19-D332-4C47-8976-5A1815E299DC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="1" r:id="rId1"/>
     <sheet name="Appearances" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$452</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$499</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matches!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="260">
   <si>
     <t>MatchID</t>
   </si>
@@ -812,6 +812,15 @@
   </si>
   <si>
     <t>Kashif Sultan</t>
+  </si>
+  <si>
+    <t>Abd-e-Munaf Kalimee</t>
+  </si>
+  <si>
+    <t>Umair Ahmed Siddiqui - IT</t>
+  </si>
+  <si>
+    <t>Muhammad Bilal Habib</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,6 +1795,34 @@
         <v>37</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7">
+        <v>46056</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7">
+        <v>46056</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1795,9 +1832,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G477"/>
+  <dimension ref="A1:G523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B513" sqref="B513"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11470,35 +11509,35 @@
         <v>30</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A395" s="4">
-        <v>17</v>
-      </c>
-      <c r="B395" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C395" s="3" t="s">
+      <c r="A395">
+        <v>21</v>
+      </c>
+      <c r="B395" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C395" t="s">
         <v>30</v>
       </c>
-      <c r="D395" s="3" t="s">
-        <v>152</v>
+      <c r="D395" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A396" s="4">
-        <v>17</v>
-      </c>
-      <c r="B396" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C396" s="3" t="s">
+      <c r="A396">
+        <v>21</v>
+      </c>
+      <c r="B396" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C396" t="s">
         <v>30</v>
       </c>
-      <c r="D396" s="3" t="s">
-        <v>150</v>
+      <c r="D396" s="9" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -11512,21 +11551,21 @@
         <v>30</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A398" s="4">
-        <v>17</v>
-      </c>
-      <c r="B398" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C398" s="3" t="s">
+      <c r="A398">
+        <v>21</v>
+      </c>
+      <c r="B398" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C398" t="s">
         <v>30</v>
       </c>
-      <c r="D398" s="3" t="s">
-        <v>227</v>
+      <c r="D398" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -11540,21 +11579,21 @@
         <v>30</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A400" s="4">
-        <v>17</v>
-      </c>
-      <c r="B400" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C400" s="3" t="s">
+      <c r="A400">
+        <v>21</v>
+      </c>
+      <c r="B400" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C400" t="s">
         <v>30</v>
       </c>
-      <c r="D400" s="3" t="s">
-        <v>202</v>
+      <c r="D400" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -11568,35 +11607,35 @@
         <v>30</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A402" s="4">
-        <v>17</v>
-      </c>
-      <c r="B402" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C402" s="3" t="s">
+      <c r="A402">
+        <v>21</v>
+      </c>
+      <c r="B402" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C402" t="s">
         <v>30</v>
       </c>
-      <c r="D402" s="3" t="s">
-        <v>234</v>
+      <c r="D402" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A403" s="4">
-        <v>17</v>
-      </c>
-      <c r="B403" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C403" s="3" t="s">
+      <c r="A403">
+        <v>21</v>
+      </c>
+      <c r="B403" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C403" t="s">
         <v>30</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -11610,7 +11649,7 @@
         <v>30</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -12310,21 +12349,21 @@
         <v>15</v>
       </c>
       <c r="D454" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B455" s="7">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="C455" t="s">
         <v>15</v>
       </c>
-      <c r="D455" t="s">
-        <v>105</v>
+      <c r="D455" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -12338,20 +12377,20 @@
         <v>15</v>
       </c>
       <c r="D456" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B457" s="7">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="C457" t="s">
         <v>15</v>
       </c>
-      <c r="D457" t="s">
+      <c r="D457" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -12371,44 +12410,44 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B459" s="7">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="C459" t="s">
         <v>15</v>
       </c>
-      <c r="D459" t="s">
-        <v>196</v>
+      <c r="D459" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B460" s="7">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="C460" t="s">
         <v>15</v>
       </c>
-      <c r="D460" t="s">
-        <v>107</v>
+      <c r="D460" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B461" s="7">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="C461" t="s">
         <v>15</v>
       </c>
       <c r="D461" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -12422,7 +12461,7 @@
         <v>15</v>
       </c>
       <c r="D462" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -12436,21 +12475,21 @@
         <v>15</v>
       </c>
       <c r="D463" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B464" s="7">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="C464" t="s">
         <v>15</v>
       </c>
-      <c r="D464" t="s">
-        <v>106</v>
+      <c r="D464" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -12464,7 +12503,7 @@
         <v>15</v>
       </c>
       <c r="D465" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -12635,7 +12674,652 @@
         <v>256</v>
       </c>
     </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>21</v>
+      </c>
+      <c r="B478" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C478" t="s">
+        <v>30</v>
+      </c>
+      <c r="D478" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="4">
+        <v>17</v>
+      </c>
+      <c r="B479" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>21</v>
+      </c>
+      <c r="B480" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C480" t="s">
+        <v>30</v>
+      </c>
+      <c r="D480" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="4">
+        <v>17</v>
+      </c>
+      <c r="B481" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>21</v>
+      </c>
+      <c r="B482" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C482" t="s">
+        <v>30</v>
+      </c>
+      <c r="D482" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="4">
+        <v>17</v>
+      </c>
+      <c r="B483" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>21</v>
+      </c>
+      <c r="B484" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C484" t="s">
+        <v>30</v>
+      </c>
+      <c r="D484" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" s="4">
+        <v>17</v>
+      </c>
+      <c r="B485" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>21</v>
+      </c>
+      <c r="B486" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C486" t="s">
+        <v>30</v>
+      </c>
+      <c r="D486" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" s="4">
+        <v>17</v>
+      </c>
+      <c r="B487" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>21</v>
+      </c>
+      <c r="B488" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C488" t="s">
+        <v>30</v>
+      </c>
+      <c r="D488" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" s="4">
+        <v>17</v>
+      </c>
+      <c r="B489" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>20</v>
+      </c>
+      <c r="B490" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C490" t="s">
+        <v>15</v>
+      </c>
+      <c r="D490" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>21</v>
+      </c>
+      <c r="B491" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C491" t="s">
+        <v>15</v>
+      </c>
+      <c r="D491" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>20</v>
+      </c>
+      <c r="B492" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C492" t="s">
+        <v>15</v>
+      </c>
+      <c r="D492" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>20</v>
+      </c>
+      <c r="B493" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C493" t="s">
+        <v>15</v>
+      </c>
+      <c r="D493" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>21</v>
+      </c>
+      <c r="B494" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C494" t="s">
+        <v>15</v>
+      </c>
+      <c r="D494" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>21</v>
+      </c>
+      <c r="B495" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C495" t="s">
+        <v>15</v>
+      </c>
+      <c r="D495" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>20</v>
+      </c>
+      <c r="B496" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C496" t="s">
+        <v>15</v>
+      </c>
+      <c r="D496" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>20</v>
+      </c>
+      <c r="B497" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C497" t="s">
+        <v>15</v>
+      </c>
+      <c r="D497" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>20</v>
+      </c>
+      <c r="B498" s="7">
+        <v>46055</v>
+      </c>
+      <c r="C498" t="s">
+        <v>15</v>
+      </c>
+      <c r="D498" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>21</v>
+      </c>
+      <c r="B499" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C499" t="s">
+        <v>15</v>
+      </c>
+      <c r="D499" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>22</v>
+      </c>
+      <c r="B500" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C500" t="s">
+        <v>22</v>
+      </c>
+      <c r="D500" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>22</v>
+      </c>
+      <c r="B501" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C501" t="s">
+        <v>22</v>
+      </c>
+      <c r="D501" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>22</v>
+      </c>
+      <c r="B502" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C502" t="s">
+        <v>22</v>
+      </c>
+      <c r="D502" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>22</v>
+      </c>
+      <c r="B503" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C503" t="s">
+        <v>22</v>
+      </c>
+      <c r="D503" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>22</v>
+      </c>
+      <c r="B504" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C504" t="s">
+        <v>22</v>
+      </c>
+      <c r="D504" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>22</v>
+      </c>
+      <c r="B505" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C505" t="s">
+        <v>22</v>
+      </c>
+      <c r="D505" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>22</v>
+      </c>
+      <c r="B506" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C506" t="s">
+        <v>22</v>
+      </c>
+      <c r="D506" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>22</v>
+      </c>
+      <c r="B507" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C507" t="s">
+        <v>22</v>
+      </c>
+      <c r="D507" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>22</v>
+      </c>
+      <c r="B508" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C508" t="s">
+        <v>22</v>
+      </c>
+      <c r="D508" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>22</v>
+      </c>
+      <c r="B509" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C509" t="s">
+        <v>22</v>
+      </c>
+      <c r="D509" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>22</v>
+      </c>
+      <c r="B510" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C510" t="s">
+        <v>22</v>
+      </c>
+      <c r="D510" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>22</v>
+      </c>
+      <c r="B511" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C511" t="s">
+        <v>22</v>
+      </c>
+      <c r="D511" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>22</v>
+      </c>
+      <c r="B512" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C512" t="s">
+        <v>37</v>
+      </c>
+      <c r="D512" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>22</v>
+      </c>
+      <c r="B513" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C513" t="s">
+        <v>37</v>
+      </c>
+      <c r="D513" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>22</v>
+      </c>
+      <c r="B514" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C514" t="s">
+        <v>37</v>
+      </c>
+      <c r="D514" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>22</v>
+      </c>
+      <c r="B515" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C515" t="s">
+        <v>37</v>
+      </c>
+      <c r="D515" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>22</v>
+      </c>
+      <c r="B516" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C516" t="s">
+        <v>37</v>
+      </c>
+      <c r="D516" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>22</v>
+      </c>
+      <c r="B517" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C517" t="s">
+        <v>37</v>
+      </c>
+      <c r="D517" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>22</v>
+      </c>
+      <c r="B518" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C518" t="s">
+        <v>37</v>
+      </c>
+      <c r="D518" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>22</v>
+      </c>
+      <c r="B519" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C519" t="s">
+        <v>37</v>
+      </c>
+      <c r="D519" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>22</v>
+      </c>
+      <c r="B520" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C520" t="s">
+        <v>37</v>
+      </c>
+      <c r="D520" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>22</v>
+      </c>
+      <c r="B521" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C521" t="s">
+        <v>37</v>
+      </c>
+      <c r="D521" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>22</v>
+      </c>
+      <c r="B522" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C522" t="s">
+        <v>37</v>
+      </c>
+      <c r="D522" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>22</v>
+      </c>
+      <c r="B523" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C523" t="s">
+        <v>37</v>
+      </c>
+      <c r="D523" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G499" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G477">
     <sortCondition ref="A1:A477"/>
   </sortState>

--- a/PSL02_Compliance_Log.xlsx
+++ b/PSL02_Compliance_Log.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parcopk-my.sharepoint.com/personal/zohaib_hassan_parco_com_pk/Documents/Recordings/Zohaib_Parco/3. Projects/20. PSL App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C99ED19-D332-4C47-8976-5A1815E299DC}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD308B1E-DDF8-4CF9-9019-4366E2F51581}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="1" r:id="rId1"/>
     <sheet name="Appearances" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$499</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$523</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matches!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="259">
   <si>
     <t>MatchID</t>
   </si>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t>Umer Farooq</t>
-  </si>
-  <si>
-    <t>Umair Ahmed Siddiqui</t>
   </si>
   <si>
     <t>Aamir Qarnain</t>
@@ -1111,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1778,7 +1775,7 @@
         <v>29</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1834,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G523"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B513" sqref="B513"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2333,7 +2330,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" t="s">
         <v>109</v>
@@ -2358,7 +2355,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" t="s">
         <v>99</v>
@@ -2383,7 +2380,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
         <v>99</v>
@@ -2408,7 +2405,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F23" t="b">
         <f>FALSE()</f>
@@ -2430,7 +2427,7 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E24" t="s">
         <v>99</v>
@@ -2455,7 +2452,7 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" t="s">
         <v>99</v>
@@ -2480,7 +2477,7 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
         <v>99</v>
@@ -2505,7 +2502,7 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
         <v>99</v>
@@ -2530,7 +2527,7 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
         <v>109</v>
@@ -2555,7 +2552,7 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E29" t="s">
         <v>99</v>
@@ -2580,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
         <v>99</v>
@@ -2605,10 +2602,10 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
         <v>128</v>
-      </c>
-      <c r="E31" t="s">
-        <v>129</v>
       </c>
       <c r="F31" t="b">
         <f>TRUE()</f>
@@ -2630,7 +2627,7 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
         <v>99</v>
@@ -2655,7 +2652,7 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
         <v>99</v>
@@ -2680,7 +2677,7 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
         <v>99</v>
@@ -2705,7 +2702,7 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
         <v>99</v>
@@ -2730,7 +2727,7 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
         <v>99</v>
@@ -2755,7 +2752,7 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
         <v>99</v>
@@ -2780,7 +2777,7 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
         <v>99</v>
@@ -2805,7 +2802,7 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
         <v>99</v>
@@ -2830,7 +2827,7 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E40" t="s">
         <v>99</v>
@@ -2855,7 +2852,7 @@
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
         <v>99</v>
@@ -2880,7 +2877,7 @@
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E42" t="s">
         <v>99</v>
@@ -2905,7 +2902,7 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E43" t="s">
         <v>99</v>
@@ -2930,7 +2927,7 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E44" t="s">
         <v>99</v>
@@ -2955,7 +2952,7 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
         <v>99</v>
@@ -2980,7 +2977,7 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
         <v>99</v>
@@ -3029,8 +3026,8 @@
       <c r="C48" t="s">
         <v>22</v>
       </c>
-      <c r="D48" t="s">
-        <v>120</v>
+      <c r="D48" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="E48" t="s">
         <v>99</v>
@@ -3080,7 +3077,7 @@
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
         <v>99</v>
@@ -3105,7 +3102,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E51" t="s">
         <v>99</v>
@@ -3130,7 +3127,7 @@
         <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
         <v>99</v>
@@ -3155,7 +3152,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s">
         <v>99</v>
@@ -3180,7 +3177,7 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E54" t="s">
         <v>99</v>
@@ -3205,7 +3202,7 @@
         <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E55" t="s">
         <v>99</v>
@@ -3230,7 +3227,7 @@
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
         <v>99</v>
@@ -3255,7 +3252,7 @@
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
         <v>99</v>
@@ -3280,7 +3277,7 @@
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
         <v>99</v>
@@ -3305,7 +3302,7 @@
         <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
         <v>99</v>
@@ -3330,7 +3327,7 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E60" t="s">
         <v>99</v>
@@ -3355,7 +3352,7 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
         <v>99</v>
@@ -3380,7 +3377,7 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E62" t="s">
         <v>99</v>
@@ -3405,7 +3402,7 @@
         <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s">
         <v>99</v>
@@ -3430,7 +3427,7 @@
         <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
         <v>99</v>
@@ -3455,7 +3452,7 @@
         <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E65" t="s">
         <v>99</v>
@@ -3480,7 +3477,7 @@
         <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E66" t="s">
         <v>99</v>
@@ -3505,7 +3502,7 @@
         <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E67" t="s">
         <v>109</v>
@@ -3530,7 +3527,7 @@
         <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
         <v>99</v>
@@ -3555,7 +3552,7 @@
         <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F69" t="b">
         <f>FALSE()</f>
@@ -3577,7 +3574,7 @@
         <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E70" t="s">
         <v>109</v>
@@ -3602,7 +3599,7 @@
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
         <v>99</v>
@@ -3627,7 +3624,7 @@
         <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
         <v>99</v>
@@ -3652,7 +3649,7 @@
         <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
         <v>99</v>
@@ -3677,7 +3674,7 @@
         <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E74" t="s">
         <v>99</v>
@@ -3702,7 +3699,7 @@
         <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E75" t="s">
         <v>109</v>
@@ -3727,7 +3724,7 @@
         <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E76" t="s">
         <v>99</v>
@@ -3752,7 +3749,7 @@
         <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E77" t="s">
         <v>99</v>
@@ -3777,7 +3774,7 @@
         <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
         <v>99</v>
@@ -3802,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E79" t="s">
         <v>99</v>
@@ -3827,7 +3824,7 @@
         <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E80" t="s">
         <v>99</v>
@@ -3852,7 +3849,7 @@
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E81" t="s">
         <v>99</v>
@@ -3877,7 +3874,7 @@
         <v>37</v>
       </c>
       <c r="D82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E82" t="s">
         <v>99</v>
@@ -3902,7 +3899,7 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E83" t="s">
         <v>99</v>
@@ -3927,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E84" t="s">
         <v>99</v>
@@ -3952,7 +3949,7 @@
         <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E85" t="s">
         <v>99</v>
@@ -3977,7 +3974,7 @@
         <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E86" t="s">
         <v>99</v>
@@ -4002,7 +3999,7 @@
         <v>37</v>
       </c>
       <c r="D87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E87" t="s">
         <v>99</v>
@@ -4027,7 +4024,7 @@
         <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E88" t="s">
         <v>99</v>
@@ -4052,7 +4049,7 @@
         <v>37</v>
       </c>
       <c r="D89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F89" t="b">
         <f>FALSE()</f>
@@ -4074,7 +4071,7 @@
         <v>36</v>
       </c>
       <c r="D90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E90" t="s">
         <v>99</v>
@@ -4099,7 +4096,7 @@
         <v>36</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E91" t="s">
         <v>99</v>
@@ -4124,7 +4121,7 @@
         <v>37</v>
       </c>
       <c r="D92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E92" t="s">
         <v>99</v>
@@ -4149,7 +4146,7 @@
         <v>37</v>
       </c>
       <c r="D93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E93" t="s">
         <v>99</v>
@@ -4174,7 +4171,7 @@
         <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E94" t="s">
         <v>109</v>
@@ -4199,7 +4196,7 @@
         <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E95" t="s">
         <v>99</v>
@@ -4274,7 +4271,7 @@
         <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E98" t="s">
         <v>99</v>
@@ -4399,7 +4396,7 @@
         <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E103" t="s">
         <v>109</v>
@@ -4499,7 +4496,7 @@
         <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E107" t="s">
         <v>99</v>
@@ -4524,10 +4521,10 @@
         <v>23</v>
       </c>
       <c r="D108" t="s">
+        <v>127</v>
+      </c>
+      <c r="E108" t="s">
         <v>128</v>
-      </c>
-      <c r="E108" t="s">
-        <v>129</v>
       </c>
       <c r="F108" t="b">
         <f>TRUE()</f>
@@ -4549,7 +4546,7 @@
         <v>23</v>
       </c>
       <c r="D109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E109" t="s">
         <v>99</v>
@@ -4574,7 +4571,7 @@
         <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E110" t="s">
         <v>99</v>
@@ -4599,7 +4596,7 @@
         <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E111" t="s">
         <v>99</v>
@@ -4624,7 +4621,7 @@
         <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E112" t="s">
         <v>99</v>
@@ -4649,7 +4646,7 @@
         <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E113" t="s">
         <v>99</v>
@@ -4674,7 +4671,7 @@
         <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E114" t="s">
         <v>99</v>
@@ -4699,7 +4696,7 @@
         <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E115" t="s">
         <v>99</v>
@@ -4724,7 +4721,7 @@
         <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E116" t="s">
         <v>99</v>
@@ -4749,7 +4746,7 @@
         <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F117" t="b">
         <f>FALSE()</f>
@@ -4771,7 +4768,7 @@
         <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E118" t="s">
         <v>99</v>
@@ -4821,7 +4818,7 @@
         <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E120" t="s">
         <v>99</v>
@@ -4846,7 +4843,7 @@
         <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E121" t="s">
         <v>99</v>
@@ -4871,7 +4868,7 @@
         <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E122" t="s">
         <v>99</v>
@@ -4896,7 +4893,7 @@
         <v>29</v>
       </c>
       <c r="D123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E123" t="s">
         <v>99</v>
@@ -4921,7 +4918,7 @@
         <v>29</v>
       </c>
       <c r="D124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E124" t="s">
         <v>99</v>
@@ -4946,7 +4943,7 @@
         <v>29</v>
       </c>
       <c r="D125" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E125" t="s">
         <v>99</v>
@@ -4971,7 +4968,7 @@
         <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E126" t="s">
         <v>99</v>
@@ -4996,7 +4993,7 @@
         <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E127" t="s">
         <v>99</v>
@@ -5021,7 +5018,7 @@
         <v>29</v>
       </c>
       <c r="D128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E128" t="s">
         <v>99</v>
@@ -5046,7 +5043,7 @@
         <v>29</v>
       </c>
       <c r="D129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F129" t="b">
         <f>FALSE()</f>
@@ -5168,7 +5165,7 @@
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E134" t="s">
         <v>99</v>
@@ -5218,7 +5215,7 @@
         <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E136" t="s">
         <v>99</v>
@@ -5243,7 +5240,7 @@
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E137" t="s">
         <v>99</v>
@@ -5268,7 +5265,7 @@
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E138" t="s">
         <v>99</v>
@@ -5293,7 +5290,7 @@
         <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E139" t="s">
         <v>99</v>
@@ -5318,7 +5315,7 @@
         <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E140" t="s">
         <v>99</v>
@@ -5343,7 +5340,7 @@
         <v>29</v>
       </c>
       <c r="D141" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E141" t="s">
         <v>99</v>
@@ -5368,7 +5365,7 @@
         <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E142" t="s">
         <v>99</v>
@@ -5393,7 +5390,7 @@
         <v>36</v>
       </c>
       <c r="D143" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E143" t="s">
         <v>99</v>
@@ -5418,7 +5415,7 @@
         <v>23</v>
       </c>
       <c r="D144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E144" t="s">
         <v>99</v>
@@ -5443,7 +5440,7 @@
         <v>36</v>
       </c>
       <c r="D145" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E145" t="s">
         <v>99</v>
@@ -5468,7 +5465,7 @@
         <v>36</v>
       </c>
       <c r="D146" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E146" t="s">
         <v>99</v>
@@ -5493,7 +5490,7 @@
         <v>36</v>
       </c>
       <c r="D147" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E147" t="s">
         <v>99</v>
@@ -5518,7 +5515,7 @@
         <v>36</v>
       </c>
       <c r="D148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E148" t="s">
         <v>99</v>
@@ -5543,7 +5540,7 @@
         <v>36</v>
       </c>
       <c r="D149" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E149" t="s">
         <v>109</v>
@@ -5568,7 +5565,7 @@
         <v>36</v>
       </c>
       <c r="D150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E150" t="s">
         <v>99</v>
@@ -5593,7 +5590,7 @@
         <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E151" t="s">
         <v>99</v>
@@ -5618,7 +5615,7 @@
         <v>36</v>
       </c>
       <c r="D152" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E152" t="s">
         <v>99</v>
@@ -5643,7 +5640,7 @@
         <v>36</v>
       </c>
       <c r="D153" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F153" t="b">
         <f>FALSE()</f>
@@ -5665,7 +5662,7 @@
         <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E154" t="s">
         <v>99</v>
@@ -5690,7 +5687,7 @@
         <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E155" t="s">
         <v>99</v>
@@ -5715,7 +5712,7 @@
         <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E156" t="s">
         <v>99</v>
@@ -5740,7 +5737,7 @@
         <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E157" t="s">
         <v>99</v>
@@ -5765,7 +5762,7 @@
         <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E158" t="s">
         <v>99</v>
@@ -5790,7 +5787,7 @@
         <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E159" t="s">
         <v>99</v>
@@ -5815,7 +5812,7 @@
         <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E160" t="s">
         <v>99</v>
@@ -5840,7 +5837,7 @@
         <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E161" t="s">
         <v>99</v>
@@ -5865,7 +5862,7 @@
         <v>23</v>
       </c>
       <c r="D162" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E162" t="s">
         <v>99</v>
@@ -5890,7 +5887,7 @@
         <v>23</v>
       </c>
       <c r="D163" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E163" t="s">
         <v>99</v>
@@ -5915,7 +5912,7 @@
         <v>36</v>
       </c>
       <c r="D164" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E164" t="s">
         <v>99</v>
@@ -5940,7 +5937,7 @@
         <v>36</v>
       </c>
       <c r="D165" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E165" t="s">
         <v>99</v>
@@ -5965,7 +5962,7 @@
         <v>23</v>
       </c>
       <c r="D166" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E166" t="s">
         <v>109</v>
@@ -6015,7 +6012,7 @@
         <v>29</v>
       </c>
       <c r="D168" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E168" t="s">
         <v>99</v>
@@ -6040,7 +6037,7 @@
         <v>15</v>
       </c>
       <c r="D169" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E169" t="s">
         <v>109</v>
@@ -6065,7 +6062,7 @@
         <v>29</v>
       </c>
       <c r="D170" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E170" t="s">
         <v>99</v>
@@ -6090,7 +6087,7 @@
         <v>29</v>
       </c>
       <c r="D171" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E171" t="s">
         <v>109</v>
@@ -6115,7 +6112,7 @@
         <v>29</v>
       </c>
       <c r="D172" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E172" t="s">
         <v>99</v>
@@ -6140,7 +6137,7 @@
         <v>29</v>
       </c>
       <c r="D173" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E173" t="s">
         <v>99</v>
@@ -6165,7 +6162,7 @@
         <v>29</v>
       </c>
       <c r="D174" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E174" t="s">
         <v>99</v>
@@ -6190,7 +6187,7 @@
         <v>29</v>
       </c>
       <c r="D175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E175" t="s">
         <v>99</v>
@@ -6215,7 +6212,7 @@
         <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E176" t="s">
         <v>99</v>
@@ -6240,7 +6237,7 @@
         <v>29</v>
       </c>
       <c r="D177" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E177" t="s">
         <v>99</v>
@@ -6265,7 +6262,7 @@
         <v>29</v>
       </c>
       <c r="D178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E178" t="s">
         <v>99</v>
@@ -6290,7 +6287,7 @@
         <v>29</v>
       </c>
       <c r="D179" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F179" t="b">
         <f>FALSE()</f>
@@ -6312,7 +6309,7 @@
         <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E180" t="s">
         <v>99</v>
@@ -6487,7 +6484,7 @@
         <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E187" t="s">
         <v>99</v>
@@ -6537,7 +6534,7 @@
         <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E189" t="s">
         <v>99</v>
@@ -6562,7 +6559,7 @@
         <v>29</v>
       </c>
       <c r="D190" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E190" t="s">
         <v>99</v>
@@ -6612,7 +6609,7 @@
         <v>37</v>
       </c>
       <c r="D192" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E192" t="s">
         <v>99</v>
@@ -6662,7 +6659,7 @@
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E194" t="s">
         <v>99</v>
@@ -6837,7 +6834,7 @@
         <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E201" t="s">
         <v>99</v>
@@ -6862,7 +6859,7 @@
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E202" t="s">
         <v>99</v>
@@ -6887,7 +6884,7 @@
         <v>37</v>
       </c>
       <c r="D203" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E203" t="s">
         <v>99</v>
@@ -6912,7 +6909,7 @@
         <v>37</v>
       </c>
       <c r="D204" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E204" t="s">
         <v>99</v>
@@ -6937,7 +6934,7 @@
         <v>37</v>
       </c>
       <c r="D205" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E205" t="s">
         <v>99</v>
@@ -6962,7 +6959,7 @@
         <v>37</v>
       </c>
       <c r="D206" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E206" t="s">
         <v>99</v>
@@ -6987,7 +6984,7 @@
         <v>37</v>
       </c>
       <c r="D207" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E207" t="s">
         <v>99</v>
@@ -7012,7 +7009,7 @@
         <v>37</v>
       </c>
       <c r="D208" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E208" t="s">
         <v>99</v>
@@ -7037,7 +7034,7 @@
         <v>37</v>
       </c>
       <c r="D209" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E209" t="s">
         <v>99</v>
@@ -7062,7 +7059,7 @@
         <v>37</v>
       </c>
       <c r="D210" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E210" t="s">
         <v>99</v>
@@ -7087,7 +7084,7 @@
         <v>37</v>
       </c>
       <c r="D211" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E211" t="s">
         <v>99</v>
@@ -7112,7 +7109,7 @@
         <v>37</v>
       </c>
       <c r="D212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E212" t="s">
         <v>109</v>
@@ -7137,7 +7134,7 @@
         <v>37</v>
       </c>
       <c r="D213" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F213" t="b">
         <f>FALSE()</f>
@@ -7159,7 +7156,7 @@
         <v>16</v>
       </c>
       <c r="D214" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E214" t="s">
         <v>99</v>
@@ -7209,7 +7206,7 @@
         <v>30</v>
       </c>
       <c r="D216" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E216" t="s">
         <v>99</v>
@@ -7234,7 +7231,7 @@
         <v>30</v>
       </c>
       <c r="D217" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E217" t="s">
         <v>99</v>
@@ -7259,7 +7256,7 @@
         <v>30</v>
       </c>
       <c r="D218" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E218" t="s">
         <v>99</v>
@@ -7284,7 +7281,7 @@
         <v>30</v>
       </c>
       <c r="D219" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E219" t="s">
         <v>99</v>
@@ -7309,7 +7306,7 @@
         <v>30</v>
       </c>
       <c r="D220" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E220" t="s">
         <v>99</v>
@@ -7334,7 +7331,7 @@
         <v>30</v>
       </c>
       <c r="D221" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E221" t="s">
         <v>99</v>
@@ -7359,7 +7356,7 @@
         <v>30</v>
       </c>
       <c r="D222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E222" t="s">
         <v>99</v>
@@ -7384,7 +7381,7 @@
         <v>30</v>
       </c>
       <c r="D223" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E223" t="s">
         <v>99</v>
@@ -7409,7 +7406,7 @@
         <v>30</v>
       </c>
       <c r="D224" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F224" t="b">
         <f>FALSE()</f>
@@ -7431,7 +7428,7 @@
         <v>22</v>
       </c>
       <c r="D225" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E225" t="s">
         <v>109</v>
@@ -7481,7 +7478,7 @@
         <v>22</v>
       </c>
       <c r="D227" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E227" t="s">
         <v>99</v>
@@ -7506,7 +7503,7 @@
         <v>22</v>
       </c>
       <c r="D228" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E228" t="s">
         <v>99</v>
@@ -7531,7 +7528,7 @@
         <v>22</v>
       </c>
       <c r="D229" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E229" t="s">
         <v>99</v>
@@ -7556,7 +7553,7 @@
         <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E230" t="s">
         <v>99</v>
@@ -7581,7 +7578,7 @@
         <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E231" t="s">
         <v>99</v>
@@ -7606,7 +7603,7 @@
         <v>22</v>
       </c>
       <c r="D232" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E232" t="s">
         <v>99</v>
@@ -7631,7 +7628,7 @@
         <v>22</v>
       </c>
       <c r="D233" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E233" t="s">
         <v>99</v>
@@ -7656,7 +7653,7 @@
         <v>22</v>
       </c>
       <c r="D234" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E234" t="s">
         <v>99</v>
@@ -7681,7 +7678,7 @@
         <v>30</v>
       </c>
       <c r="D235" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E235" t="s">
         <v>99</v>
@@ -7706,7 +7703,7 @@
         <v>30</v>
       </c>
       <c r="D236" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E236" t="s">
         <v>99</v>
@@ -7731,7 +7728,7 @@
         <v>30</v>
       </c>
       <c r="D237" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E237" t="s">
         <v>109</v>
@@ -7756,7 +7753,7 @@
         <v>22</v>
       </c>
       <c r="D238" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E238" t="s">
         <v>99</v>
@@ -7781,7 +7778,7 @@
         <v>36</v>
       </c>
       <c r="D239" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E239" t="s">
         <v>99</v>
@@ -7806,7 +7803,7 @@
         <v>36</v>
       </c>
       <c r="D240" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E240" t="s">
         <v>99</v>
@@ -7831,7 +7828,7 @@
         <v>36</v>
       </c>
       <c r="D241" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E241" t="s">
         <v>99</v>
@@ -7856,7 +7853,7 @@
         <v>36</v>
       </c>
       <c r="D242" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E242" t="s">
         <v>99</v>
@@ -7881,7 +7878,7 @@
         <v>36</v>
       </c>
       <c r="D243" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E243" t="s">
         <v>99</v>
@@ -7906,7 +7903,7 @@
         <v>36</v>
       </c>
       <c r="D244" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E244" t="s">
         <v>99</v>
@@ -7931,7 +7928,7 @@
         <v>36</v>
       </c>
       <c r="D245" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E245" t="s">
         <v>99</v>
@@ -7956,7 +7953,7 @@
         <v>36</v>
       </c>
       <c r="D246" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E246" t="s">
         <v>99</v>
@@ -7981,7 +7978,7 @@
         <v>36</v>
       </c>
       <c r="D247" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E247" t="s">
         <v>99</v>
@@ -8006,7 +8003,7 @@
         <v>36</v>
       </c>
       <c r="D248" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E248" t="s">
         <v>109</v>
@@ -8031,7 +8028,7 @@
         <v>36</v>
       </c>
       <c r="D249" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E249" t="s">
         <v>99</v>
@@ -8106,7 +8103,7 @@
         <v>15</v>
       </c>
       <c r="D252" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E252" t="s">
         <v>99</v>
@@ -8181,7 +8178,7 @@
         <v>15</v>
       </c>
       <c r="D255" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E255" t="s">
         <v>109</v>
@@ -8256,7 +8253,7 @@
         <v>15</v>
       </c>
       <c r="D258" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E258" t="s">
         <v>99</v>
@@ -8281,7 +8278,7 @@
         <v>15</v>
       </c>
       <c r="D259" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E259" t="s">
         <v>99</v>
@@ -8328,7 +8325,7 @@
         <v>36</v>
       </c>
       <c r="D261" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E261" t="s">
         <v>99</v>
@@ -8353,7 +8350,7 @@
         <v>37</v>
       </c>
       <c r="D262" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E262" t="s">
         <v>99</v>
@@ -8378,7 +8375,7 @@
         <v>29</v>
       </c>
       <c r="D263" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E263" t="s">
         <v>99</v>
@@ -8403,7 +8400,7 @@
         <v>29</v>
       </c>
       <c r="D264" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E264" t="s">
         <v>99</v>
@@ -8428,7 +8425,7 @@
         <v>37</v>
       </c>
       <c r="D265" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E265" t="s">
         <v>99</v>
@@ -8453,7 +8450,7 @@
         <v>29</v>
       </c>
       <c r="D266" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E266" t="s">
         <v>109</v>
@@ -8478,7 +8475,7 @@
         <v>29</v>
       </c>
       <c r="D267" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E267" t="s">
         <v>99</v>
@@ -8503,7 +8500,7 @@
         <v>29</v>
       </c>
       <c r="D268" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E268" t="s">
         <v>99</v>
@@ -8528,7 +8525,7 @@
         <v>29</v>
       </c>
       <c r="D269" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E269" t="s">
         <v>99</v>
@@ -8553,7 +8550,7 @@
         <v>29</v>
       </c>
       <c r="D270" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E270" t="s">
         <v>99</v>
@@ -8578,7 +8575,7 @@
         <v>29</v>
       </c>
       <c r="D271" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E271" t="s">
         <v>99</v>
@@ -8603,7 +8600,7 @@
         <v>29</v>
       </c>
       <c r="D272" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E272" t="s">
         <v>99</v>
@@ -8628,7 +8625,7 @@
         <v>29</v>
       </c>
       <c r="D273" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E273" t="s">
         <v>99</v>
@@ -8653,7 +8650,7 @@
         <v>29</v>
       </c>
       <c r="D274" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E274" t="s">
         <v>99</v>
@@ -8678,7 +8675,7 @@
         <v>29</v>
       </c>
       <c r="D275" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E275" t="s">
         <v>99</v>
@@ -8703,7 +8700,7 @@
         <v>37</v>
       </c>
       <c r="D276" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E276" t="s">
         <v>99</v>
@@ -8728,7 +8725,7 @@
         <v>37</v>
       </c>
       <c r="D277" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E277" t="s">
         <v>99</v>
@@ -8753,7 +8750,7 @@
         <v>37</v>
       </c>
       <c r="D278" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E278" t="s">
         <v>99</v>
@@ -8778,7 +8775,7 @@
         <v>37</v>
       </c>
       <c r="D279" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E279" t="s">
         <v>99</v>
@@ -8803,7 +8800,7 @@
         <v>37</v>
       </c>
       <c r="D280" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E280" t="s">
         <v>99</v>
@@ -8828,7 +8825,7 @@
         <v>37</v>
       </c>
       <c r="D281" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E281" t="s">
         <v>99</v>
@@ -8853,7 +8850,7 @@
         <v>37</v>
       </c>
       <c r="D282" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E282" t="s">
         <v>99</v>
@@ -8878,7 +8875,7 @@
         <v>37</v>
       </c>
       <c r="D283" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E283" t="s">
         <v>99</v>
@@ -8903,7 +8900,7 @@
         <v>37</v>
       </c>
       <c r="D284" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F284" t="b">
         <f>FALSE()</f>
@@ -8925,7 +8922,7 @@
         <v>37</v>
       </c>
       <c r="D285" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E285" t="s">
         <v>109</v>
@@ -8975,7 +8972,7 @@
         <v>36</v>
       </c>
       <c r="D287" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E287" t="s">
         <v>99</v>
@@ -9000,7 +8997,7 @@
         <v>36</v>
       </c>
       <c r="D288" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E288" t="s">
         <v>99</v>
@@ -9025,7 +9022,7 @@
         <v>22</v>
       </c>
       <c r="D289" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E289" t="s">
         <v>109</v>
@@ -9050,7 +9047,7 @@
         <v>36</v>
       </c>
       <c r="D290" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E290" t="s">
         <v>99</v>
@@ -9075,7 +9072,7 @@
         <v>36</v>
       </c>
       <c r="D291" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E291" t="s">
         <v>99</v>
@@ -9100,7 +9097,7 @@
         <v>36</v>
       </c>
       <c r="D292" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E292" t="s">
         <v>99</v>
@@ -9125,7 +9122,7 @@
         <v>36</v>
       </c>
       <c r="D293" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E293" t="s">
         <v>109</v>
@@ -9150,7 +9147,7 @@
         <v>36</v>
       </c>
       <c r="D294" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E294" t="s">
         <v>99</v>
@@ -9175,7 +9172,7 @@
         <v>36</v>
       </c>
       <c r="D295" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E295" t="s">
         <v>99</v>
@@ -9200,7 +9197,7 @@
         <v>36</v>
       </c>
       <c r="D296" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E296" t="s">
         <v>99</v>
@@ -9225,7 +9222,7 @@
         <v>36</v>
       </c>
       <c r="D297" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E297" t="s">
         <v>99</v>
@@ -9250,7 +9247,7 @@
         <v>36</v>
       </c>
       <c r="D298" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E298" t="s">
         <v>99</v>
@@ -9275,7 +9272,7 @@
         <v>36</v>
       </c>
       <c r="D299" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F299" t="b">
         <f>FALSE()</f>
@@ -9297,7 +9294,7 @@
         <v>22</v>
       </c>
       <c r="D300" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E300" t="s">
         <v>99</v>
@@ -9347,7 +9344,7 @@
         <v>22</v>
       </c>
       <c r="D302" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E302" t="s">
         <v>99</v>
@@ -9372,7 +9369,7 @@
         <v>22</v>
       </c>
       <c r="D303" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E303" t="s">
         <v>99</v>
@@ -9397,7 +9394,7 @@
         <v>22</v>
       </c>
       <c r="D304" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E304" t="s">
         <v>99</v>
@@ -9422,7 +9419,7 @@
         <v>22</v>
       </c>
       <c r="D305" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E305" t="s">
         <v>99</v>
@@ -9447,7 +9444,7 @@
         <v>22</v>
       </c>
       <c r="D306" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E306" t="s">
         <v>99</v>
@@ -9472,7 +9469,7 @@
         <v>22</v>
       </c>
       <c r="D307" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E307" t="s">
         <v>99</v>
@@ -9497,7 +9494,7 @@
         <v>22</v>
       </c>
       <c r="D308" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E308" t="s">
         <v>99</v>
@@ -9522,7 +9519,7 @@
         <v>22</v>
       </c>
       <c r="D309" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E309" t="s">
         <v>99</v>
@@ -9547,7 +9544,7 @@
         <v>30</v>
       </c>
       <c r="D310" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E310" t="s">
         <v>109</v>
@@ -9572,7 +9569,7 @@
         <v>37</v>
       </c>
       <c r="D311" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E311" t="s">
         <v>99</v>
@@ -9597,7 +9594,7 @@
         <v>37</v>
       </c>
       <c r="D312" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E312" t="s">
         <v>99</v>
@@ -9622,7 +9619,7 @@
         <v>30</v>
       </c>
       <c r="D313" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E313" t="s">
         <v>99</v>
@@ -9647,7 +9644,7 @@
         <v>37</v>
       </c>
       <c r="D314" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E314" t="s">
         <v>99</v>
@@ -9672,7 +9669,7 @@
         <v>37</v>
       </c>
       <c r="D315" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E315" t="s">
         <v>99</v>
@@ -9697,7 +9694,7 @@
         <v>37</v>
       </c>
       <c r="D316" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E316" t="s">
         <v>99</v>
@@ -9722,7 +9719,7 @@
         <v>37</v>
       </c>
       <c r="D317" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E317" t="s">
         <v>99</v>
@@ -9747,10 +9744,10 @@
         <v>37</v>
       </c>
       <c r="D318" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E318" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F318" t="b">
         <f>TRUE()</f>
@@ -9772,7 +9769,7 @@
         <v>37</v>
       </c>
       <c r="D319" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E319" t="s">
         <v>99</v>
@@ -9797,7 +9794,7 @@
         <v>37</v>
       </c>
       <c r="D320" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E320" t="s">
         <v>99</v>
@@ -9822,7 +9819,7 @@
         <v>37</v>
       </c>
       <c r="D321" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E321" t="s">
         <v>99</v>
@@ -9847,7 +9844,7 @@
         <v>37</v>
       </c>
       <c r="D322" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E322" t="s">
         <v>99</v>
@@ -9872,7 +9869,7 @@
         <v>37</v>
       </c>
       <c r="D323" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F323" t="b">
         <f>FALSE()</f>
@@ -9894,7 +9891,7 @@
         <v>30</v>
       </c>
       <c r="D324" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E324" t="s">
         <v>99</v>
@@ -9919,7 +9916,7 @@
         <v>30</v>
       </c>
       <c r="D325" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E325" t="s">
         <v>99</v>
@@ -9944,7 +9941,7 @@
         <v>30</v>
       </c>
       <c r="D326" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E326" t="s">
         <v>99</v>
@@ -9969,7 +9966,7 @@
         <v>30</v>
       </c>
       <c r="D327" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E327" t="s">
         <v>99</v>
@@ -9994,7 +9991,7 @@
         <v>30</v>
       </c>
       <c r="D328" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E328" t="s">
         <v>99</v>
@@ -10019,7 +10016,7 @@
         <v>30</v>
       </c>
       <c r="D329" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E329" t="s">
         <v>99</v>
@@ -10044,7 +10041,7 @@
         <v>30</v>
       </c>
       <c r="D330" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E330" t="s">
         <v>99</v>
@@ -10069,7 +10066,7 @@
         <v>30</v>
       </c>
       <c r="D331" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E331" t="s">
         <v>99</v>
@@ -10094,7 +10091,7 @@
         <v>30</v>
       </c>
       <c r="D332" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E332" t="s">
         <v>99</v>
@@ -10119,7 +10116,7 @@
         <v>30</v>
       </c>
       <c r="D333" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E333" t="s">
         <v>99</v>
@@ -10144,7 +10141,7 @@
         <v>23</v>
       </c>
       <c r="D334" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E334" t="s">
         <v>99</v>
@@ -10169,7 +10166,7 @@
         <v>23</v>
       </c>
       <c r="D335" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E335" t="s">
         <v>99</v>
@@ -10194,7 +10191,7 @@
         <v>30</v>
       </c>
       <c r="D336" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E336" t="s">
         <v>99</v>
@@ -10219,7 +10216,7 @@
         <v>30</v>
       </c>
       <c r="D337" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E337" t="s">
         <v>99</v>
@@ -10244,7 +10241,7 @@
         <v>30</v>
       </c>
       <c r="D338" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E338" t="s">
         <v>99</v>
@@ -10269,7 +10266,7 @@
         <v>30</v>
       </c>
       <c r="D339" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E339" t="s">
         <v>99</v>
@@ -10294,7 +10291,7 @@
         <v>30</v>
       </c>
       <c r="D340" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E340" t="s">
         <v>99</v>
@@ -10319,10 +10316,10 @@
         <v>30</v>
       </c>
       <c r="D341" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E341" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F341" t="b">
         <f>FALSE()</f>
@@ -10344,7 +10341,7 @@
         <v>30</v>
       </c>
       <c r="D342" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E342" t="s">
         <v>99</v>
@@ -10369,7 +10366,7 @@
         <v>30</v>
       </c>
       <c r="D343" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E343" t="s">
         <v>99</v>
@@ -10394,7 +10391,7 @@
         <v>30</v>
       </c>
       <c r="D344" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E344" t="s">
         <v>99</v>
@@ -10419,7 +10416,7 @@
         <v>30</v>
       </c>
       <c r="D345" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E345" t="s">
         <v>99</v>
@@ -10444,7 +10441,7 @@
         <v>30</v>
       </c>
       <c r="D346" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E346" t="s">
         <v>99</v>
@@ -10469,7 +10466,7 @@
         <v>30</v>
       </c>
       <c r="D347" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E347" t="s">
         <v>109</v>
@@ -10494,10 +10491,10 @@
         <v>23</v>
       </c>
       <c r="D348" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E348" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F348" t="b">
         <f>TRUE()</f>
@@ -10519,7 +10516,7 @@
         <v>23</v>
       </c>
       <c r="D349" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E349" t="s">
         <v>99</v>
@@ -10544,7 +10541,7 @@
         <v>23</v>
       </c>
       <c r="D350" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E350" t="s">
         <v>99</v>
@@ -10569,7 +10566,7 @@
         <v>23</v>
       </c>
       <c r="D351" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E351" t="s">
         <v>99</v>
@@ -10594,7 +10591,7 @@
         <v>23</v>
       </c>
       <c r="D352" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E352" t="s">
         <v>99</v>
@@ -10619,7 +10616,7 @@
         <v>23</v>
       </c>
       <c r="D353" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E353" t="s">
         <v>99</v>
@@ -10644,7 +10641,7 @@
         <v>23</v>
       </c>
       <c r="D354" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E354" t="s">
         <v>99</v>
@@ -10669,7 +10666,7 @@
         <v>23</v>
       </c>
       <c r="D355" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E355" t="s">
         <v>99</v>
@@ -10694,7 +10691,7 @@
         <v>23</v>
       </c>
       <c r="D356" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E356" t="s">
         <v>99</v>
@@ -10719,7 +10716,7 @@
         <v>23</v>
       </c>
       <c r="D357" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E357" t="s">
         <v>99</v>
@@ -10794,7 +10791,7 @@
         <v>16</v>
       </c>
       <c r="D360" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E360" t="s">
         <v>99</v>
@@ -10819,7 +10816,7 @@
         <v>16</v>
       </c>
       <c r="D361" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E361" t="s">
         <v>99</v>
@@ -10844,7 +10841,7 @@
         <v>22</v>
       </c>
       <c r="D362" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E362" t="s">
         <v>109</v>
@@ -10869,7 +10866,7 @@
         <v>22</v>
       </c>
       <c r="D363" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E363" t="s">
         <v>99</v>
@@ -11044,7 +11041,7 @@
         <v>16</v>
       </c>
       <c r="D370" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E370" t="s">
         <v>99</v>
@@ -11069,7 +11066,7 @@
         <v>16</v>
       </c>
       <c r="D371" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E371" t="s">
         <v>99</v>
@@ -11094,7 +11091,7 @@
         <v>16</v>
       </c>
       <c r="D372" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F372" t="b">
         <f>FALSE()</f>
@@ -11141,7 +11138,7 @@
         <v>22</v>
       </c>
       <c r="D374" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E374" t="s">
         <v>99</v>
@@ -11166,7 +11163,7 @@
         <v>22</v>
       </c>
       <c r="D375" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E375" t="s">
         <v>99</v>
@@ -11191,7 +11188,7 @@
         <v>22</v>
       </c>
       <c r="D376" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E376" t="s">
         <v>99</v>
@@ -11216,7 +11213,7 @@
         <v>22</v>
       </c>
       <c r="D377" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E377" t="s">
         <v>99</v>
@@ -11241,7 +11238,7 @@
         <v>22</v>
       </c>
       <c r="D378" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E378" t="s">
         <v>99</v>
@@ -11266,7 +11263,7 @@
         <v>22</v>
       </c>
       <c r="D379" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E379" t="s">
         <v>99</v>
@@ -11291,7 +11288,7 @@
         <v>22</v>
       </c>
       <c r="D380" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E380" t="s">
         <v>99</v>
@@ -11315,8 +11312,8 @@
       <c r="C381" t="s">
         <v>22</v>
       </c>
-      <c r="D381" t="s">
-        <v>120</v>
+      <c r="D381" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="E381" t="s">
         <v>99</v>
@@ -11341,7 +11338,7 @@
         <v>36</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
@@ -11355,7 +11352,7 @@
         <v>36</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.3">
@@ -11369,7 +11366,7 @@
         <v>36</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -11383,7 +11380,7 @@
         <v>36</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -11397,7 +11394,7 @@
         <v>36</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
@@ -11411,7 +11408,7 @@
         <v>36</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -11425,7 +11422,7 @@
         <v>36</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -11439,7 +11436,7 @@
         <v>36</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -11453,7 +11450,7 @@
         <v>36</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -11467,7 +11464,7 @@
         <v>36</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -11481,7 +11478,7 @@
         <v>36</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -11495,7 +11492,7 @@
         <v>36</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -11509,7 +11506,7 @@
         <v>30</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -11523,7 +11520,7 @@
         <v>30</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -11537,7 +11534,7 @@
         <v>30</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -11551,7 +11548,7 @@
         <v>30</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -11565,7 +11562,7 @@
         <v>30</v>
       </c>
       <c r="D398" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -11579,7 +11576,7 @@
         <v>30</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -11593,7 +11590,7 @@
         <v>30</v>
       </c>
       <c r="D400" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -11607,7 +11604,7 @@
         <v>30</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -11621,7 +11618,7 @@
         <v>30</v>
       </c>
       <c r="D402" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -11635,7 +11632,7 @@
         <v>30</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -11649,7 +11646,7 @@
         <v>30</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -11663,7 +11660,7 @@
         <v>23</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -11677,7 +11674,7 @@
         <v>23</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -11691,7 +11688,7 @@
         <v>23</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -11705,7 +11702,7 @@
         <v>23</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -11719,7 +11716,7 @@
         <v>23</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -11733,7 +11730,7 @@
         <v>23</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -11747,7 +11744,7 @@
         <v>23</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -11761,7 +11758,7 @@
         <v>23</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -11775,7 +11772,7 @@
         <v>23</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -11789,7 +11786,7 @@
         <v>23</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -11803,7 +11800,7 @@
         <v>23</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -11817,7 +11814,7 @@
         <v>23</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -11831,7 +11828,7 @@
         <v>23</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -11845,7 +11842,7 @@
         <v>16</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -11873,7 +11870,7 @@
         <v>16</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -11887,7 +11884,7 @@
         <v>16</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -11901,7 +11898,7 @@
         <v>16</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -11943,7 +11940,7 @@
         <v>16</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -11957,7 +11954,7 @@
         <v>16</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -11971,7 +11968,7 @@
         <v>16</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -11985,7 +11982,7 @@
         <v>16</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -12013,7 +12010,7 @@
         <v>22</v>
       </c>
       <c r="D430" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -12027,7 +12024,7 @@
         <v>22</v>
       </c>
       <c r="D431" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -12041,7 +12038,7 @@
         <v>22</v>
       </c>
       <c r="D432" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -12055,7 +12052,7 @@
         <v>22</v>
       </c>
       <c r="D433" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -12069,7 +12066,7 @@
         <v>22</v>
       </c>
       <c r="D434" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -12083,7 +12080,7 @@
         <v>22</v>
       </c>
       <c r="D435" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -12097,7 +12094,7 @@
         <v>22</v>
       </c>
       <c r="D436" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -12111,7 +12108,7 @@
         <v>22</v>
       </c>
       <c r="D437" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -12125,7 +12122,7 @@
         <v>22</v>
       </c>
       <c r="D438" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -12167,7 +12164,7 @@
         <v>22</v>
       </c>
       <c r="D441" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -12181,7 +12178,7 @@
         <v>29</v>
       </c>
       <c r="D442" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
@@ -12195,7 +12192,7 @@
         <v>29</v>
       </c>
       <c r="D443" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -12209,7 +12206,7 @@
         <v>29</v>
       </c>
       <c r="D444" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -12223,7 +12220,7 @@
         <v>29</v>
       </c>
       <c r="D445" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -12237,7 +12234,7 @@
         <v>29</v>
       </c>
       <c r="D446" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -12251,7 +12248,7 @@
         <v>29</v>
       </c>
       <c r="D447" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -12265,7 +12262,7 @@
         <v>29</v>
       </c>
       <c r="D448" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -12279,7 +12276,7 @@
         <v>29</v>
       </c>
       <c r="D449" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -12293,7 +12290,7 @@
         <v>29</v>
       </c>
       <c r="D450" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -12307,7 +12304,7 @@
         <v>29</v>
       </c>
       <c r="D451" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -12321,7 +12318,7 @@
         <v>29</v>
       </c>
       <c r="D452" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -12335,7 +12332,7 @@
         <v>29</v>
       </c>
       <c r="D453" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -12349,7 +12346,7 @@
         <v>15</v>
       </c>
       <c r="D454" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -12447,7 +12444,7 @@
         <v>15</v>
       </c>
       <c r="D461" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -12461,7 +12458,7 @@
         <v>15</v>
       </c>
       <c r="D462" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -12475,7 +12472,7 @@
         <v>15</v>
       </c>
       <c r="D463" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -12489,7 +12486,7 @@
         <v>15</v>
       </c>
       <c r="D464" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -12517,7 +12514,7 @@
         <v>37</v>
       </c>
       <c r="D466" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -12531,7 +12528,7 @@
         <v>37</v>
       </c>
       <c r="D467" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -12545,7 +12542,7 @@
         <v>37</v>
       </c>
       <c r="D468" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -12559,7 +12556,7 @@
         <v>37</v>
       </c>
       <c r="D469" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -12573,7 +12570,7 @@
         <v>37</v>
       </c>
       <c r="D470" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -12587,7 +12584,7 @@
         <v>37</v>
       </c>
       <c r="D471" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
@@ -12601,7 +12598,7 @@
         <v>37</v>
       </c>
       <c r="D472" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -12615,7 +12612,7 @@
         <v>37</v>
       </c>
       <c r="D473" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -12629,7 +12626,7 @@
         <v>37</v>
       </c>
       <c r="D474" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
@@ -12643,7 +12640,7 @@
         <v>37</v>
       </c>
       <c r="D475" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -12657,7 +12654,7 @@
         <v>37</v>
       </c>
       <c r="D476" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
@@ -12671,7 +12668,7 @@
         <v>37</v>
       </c>
       <c r="D477" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
@@ -12685,7 +12682,7 @@
         <v>30</v>
       </c>
       <c r="D478" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
@@ -12699,7 +12696,7 @@
         <v>30</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -12713,7 +12710,7 @@
         <v>30</v>
       </c>
       <c r="D480" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -12727,7 +12724,7 @@
         <v>30</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
@@ -12741,7 +12738,7 @@
         <v>30</v>
       </c>
       <c r="D482" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -12755,7 +12752,7 @@
         <v>30</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
@@ -12769,7 +12766,7 @@
         <v>30</v>
       </c>
       <c r="D484" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -12783,7 +12780,7 @@
         <v>30</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -12797,7 +12794,7 @@
         <v>30</v>
       </c>
       <c r="D486" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -12811,7 +12808,7 @@
         <v>30</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
@@ -12825,7 +12822,7 @@
         <v>30</v>
       </c>
       <c r="D488" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
@@ -12839,7 +12836,7 @@
         <v>30</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
@@ -12881,7 +12878,7 @@
         <v>15</v>
       </c>
       <c r="D492" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -12923,7 +12920,7 @@
         <v>15</v>
       </c>
       <c r="D495" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
@@ -12937,7 +12934,7 @@
         <v>15</v>
       </c>
       <c r="D496" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -12951,7 +12948,7 @@
         <v>15</v>
       </c>
       <c r="D497" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
@@ -12993,7 +12990,7 @@
         <v>22</v>
       </c>
       <c r="D500" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
@@ -13007,7 +13004,7 @@
         <v>22</v>
       </c>
       <c r="D501" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
@@ -13021,7 +13018,7 @@
         <v>22</v>
       </c>
       <c r="D502" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
@@ -13049,7 +13046,7 @@
         <v>22</v>
       </c>
       <c r="D504" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
@@ -13063,7 +13060,7 @@
         <v>22</v>
       </c>
       <c r="D505" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
@@ -13077,7 +13074,7 @@
         <v>22</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
@@ -13105,7 +13102,7 @@
         <v>22</v>
       </c>
       <c r="D508" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
@@ -13119,7 +13116,7 @@
         <v>22</v>
       </c>
       <c r="D509" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
@@ -13133,7 +13130,7 @@
         <v>22</v>
       </c>
       <c r="D510" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
@@ -13147,7 +13144,7 @@
         <v>22</v>
       </c>
       <c r="D511" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
@@ -13161,7 +13158,7 @@
         <v>37</v>
       </c>
       <c r="D512" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
@@ -13175,7 +13172,7 @@
         <v>37</v>
       </c>
       <c r="D513" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
@@ -13189,7 +13186,7 @@
         <v>37</v>
       </c>
       <c r="D514" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
@@ -13203,7 +13200,7 @@
         <v>37</v>
       </c>
       <c r="D515" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
@@ -13217,7 +13214,7 @@
         <v>37</v>
       </c>
       <c r="D516" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
@@ -13231,7 +13228,7 @@
         <v>37</v>
       </c>
       <c r="D517" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
@@ -13245,7 +13242,7 @@
         <v>37</v>
       </c>
       <c r="D518" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
@@ -13259,7 +13256,7 @@
         <v>37</v>
       </c>
       <c r="D519" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
@@ -13273,7 +13270,7 @@
         <v>37</v>
       </c>
       <c r="D520" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -13287,7 +13284,7 @@
         <v>37</v>
       </c>
       <c r="D521" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
@@ -13301,7 +13298,7 @@
         <v>37</v>
       </c>
       <c r="D522" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
@@ -13315,11 +13312,11 @@
         <v>37</v>
       </c>
       <c r="D523" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G499" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:G523" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G477">
     <sortCondition ref="A1:A477"/>
   </sortState>

--- a/PSL02_Compliance_Log.xlsx
+++ b/PSL02_Compliance_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parcopk-my.sharepoint.com/personal/zohaib_hassan_parco_com_pk/Documents/Recordings/Zohaib_Parco/3. Projects/20. PSL App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD308B1E-DDF8-4CF9-9019-4366E2F51581}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0980D210-EA31-457E-BD9E-D27E9DE820F6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Appearances" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$523</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$522</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matches!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="259">
   <si>
     <t>MatchID</t>
   </si>
@@ -1829,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G523"/>
+  <dimension ref="A1:G522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3026,8 +3026,8 @@
       <c r="C48" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>257</v>
+      <c r="D48" t="s">
+        <v>119</v>
       </c>
       <c r="E48" t="s">
         <v>99</v>
@@ -3052,7 +3052,7 @@
         <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s">
         <v>99</v>
@@ -3068,16 +3068,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" s="2">
-        <v>46038</v>
+        <v>46041</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
         <v>99</v>
@@ -3102,7 +3102,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" t="s">
         <v>99</v>
@@ -3127,7 +3127,7 @@
         <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
         <v>99</v>
@@ -3152,7 +3152,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="E53" t="s">
         <v>99</v>
@@ -3174,10 +3174,10 @@
         <v>46041</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
         <v>99</v>
@@ -3202,7 +3202,7 @@
         <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
         <v>99</v>
@@ -3227,7 +3227,7 @@
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E56" t="s">
         <v>99</v>
@@ -3252,7 +3252,7 @@
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E57" t="s">
         <v>99</v>
@@ -3277,7 +3277,7 @@
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
         <v>99</v>
@@ -3302,7 +3302,7 @@
         <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
         <v>99</v>
@@ -3327,7 +3327,7 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E60" t="s">
         <v>99</v>
@@ -3352,7 +3352,7 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E61" t="s">
         <v>99</v>
@@ -3374,10 +3374,10 @@
         <v>46041</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="E62" t="s">
         <v>99</v>
@@ -3402,7 +3402,7 @@
         <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="E63" t="s">
         <v>99</v>
@@ -3424,10 +3424,10 @@
         <v>46041</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="E64" t="s">
         <v>99</v>
@@ -3452,7 +3452,7 @@
         <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="E65" t="s">
         <v>99</v>
@@ -3477,14 +3477,14 @@
         <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F66" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
         <f>FALSE()</f>
@@ -3499,17 +3499,17 @@
         <v>46041</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F67" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G67" t="b">
         <f>FALSE()</f>
@@ -3527,10 +3527,7 @@
         <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="F68" t="b">
         <f>FALSE()</f>
@@ -3552,11 +3549,14 @@
         <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>139</v>
+      </c>
+      <c r="E69" t="s">
+        <v>109</v>
       </c>
       <c r="F69" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
         <f>FALSE()</f>
@@ -3574,14 +3574,14 @@
         <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F70" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G70" t="b">
         <f>FALSE()</f>
@@ -3599,7 +3599,7 @@
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E71" t="s">
         <v>99</v>
@@ -3615,16 +3615,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B72" s="2">
         <v>46041</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
         <v>99</v>
@@ -3649,7 +3649,7 @@
         <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
         <v>99</v>
@@ -3674,14 +3674,14 @@
         <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F74" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
         <f>FALSE()</f>
@@ -3699,14 +3699,14 @@
         <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F75" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G75" t="b">
         <f>FALSE()</f>
@@ -3724,7 +3724,7 @@
         <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
         <v>99</v>
@@ -3749,7 +3749,7 @@
         <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
         <v>99</v>
@@ -3774,7 +3774,7 @@
         <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
         <v>99</v>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
         <v>99</v>
@@ -3821,10 +3821,10 @@
         <v>46041</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
         <v>99</v>
@@ -3849,7 +3849,7 @@
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E81" t="s">
         <v>99</v>
@@ -3874,7 +3874,7 @@
         <v>37</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E82" t="s">
         <v>99</v>
@@ -3899,7 +3899,7 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E83" t="s">
         <v>99</v>
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E84" t="s">
         <v>99</v>
@@ -3949,7 +3949,7 @@
         <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s">
         <v>99</v>
@@ -3974,7 +3974,7 @@
         <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E86" t="s">
         <v>99</v>
@@ -3999,7 +3999,7 @@
         <v>37</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E87" t="s">
         <v>99</v>
@@ -4024,10 +4024,7 @@
         <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>171</v>
-      </c>
-      <c r="E88" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="F88" t="b">
         <f>FALSE()</f>
@@ -4046,10 +4043,13 @@
         <v>46041</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>172</v>
+        <v>183</v>
+      </c>
+      <c r="E89" t="s">
+        <v>99</v>
       </c>
       <c r="F89" t="b">
         <f>FALSE()</f>
@@ -4071,7 +4071,7 @@
         <v>36</v>
       </c>
       <c r="D90" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E90" t="s">
         <v>99</v>
@@ -4093,10 +4093,10 @@
         <v>46041</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D91" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E91" t="s">
         <v>99</v>
@@ -4121,7 +4121,7 @@
         <v>37</v>
       </c>
       <c r="D92" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E92" t="s">
         <v>99</v>
@@ -4146,14 +4146,14 @@
         <v>37</v>
       </c>
       <c r="D93" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E93" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F93" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
         <f>FALSE()</f>
@@ -4168,17 +4168,17 @@
         <v>46041</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E94" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F94" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G94" t="b">
         <f>FALSE()</f>
@@ -4187,16 +4187,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B95" s="2">
-        <v>46041</v>
+        <v>46042</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="E95" t="s">
         <v>99</v>
@@ -4221,7 +4221,7 @@
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E96" t="s">
         <v>99</v>
@@ -4243,10 +4243,10 @@
         <v>46042</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E97" t="s">
         <v>99</v>
@@ -4268,10 +4268,10 @@
         <v>46042</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E98" t="s">
         <v>99</v>
@@ -4296,7 +4296,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E99" t="s">
         <v>99</v>
@@ -4321,7 +4321,7 @@
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E100" t="s">
         <v>99</v>
@@ -4346,7 +4346,7 @@
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E101" t="s">
         <v>99</v>
@@ -4371,14 +4371,14 @@
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="E102" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F102" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
         <f>FALSE()</f>
@@ -4396,14 +4396,14 @@
         <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F103" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G103" t="b">
         <f>FALSE()</f>
@@ -4421,7 +4421,7 @@
         <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E104" t="s">
         <v>99</v>
@@ -4446,7 +4446,7 @@
         <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E105" t="s">
         <v>99</v>
@@ -4471,7 +4471,7 @@
         <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="E106" t="s">
         <v>99</v>
@@ -4493,17 +4493,17 @@
         <v>46042</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="E107" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="F107" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
         <f>FALSE()</f>
@@ -4521,14 +4521,14 @@
         <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E108" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="F108" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G108" t="b">
         <f>FALSE()</f>
@@ -4546,7 +4546,7 @@
         <v>23</v>
       </c>
       <c r="D109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E109" t="s">
         <v>99</v>
@@ -4571,7 +4571,7 @@
         <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E110" t="s">
         <v>99</v>
@@ -4596,7 +4596,7 @@
         <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="E111" t="s">
         <v>99</v>
@@ -4621,7 +4621,7 @@
         <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="E112" t="s">
         <v>99</v>
@@ -4646,7 +4646,7 @@
         <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E113" t="s">
         <v>99</v>
@@ -4671,7 +4671,7 @@
         <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E114" t="s">
         <v>99</v>
@@ -4696,7 +4696,7 @@
         <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E115" t="s">
         <v>99</v>
@@ -4718,13 +4718,10 @@
         <v>46042</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>137</v>
-      </c>
-      <c r="E116" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="F116" t="b">
         <f>FALSE()</f>
@@ -4743,10 +4740,13 @@
         <v>46042</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="E117" t="s">
+        <v>99</v>
       </c>
       <c r="F117" t="b">
         <f>FALSE()</f>
@@ -4759,16 +4759,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B118" s="2">
         <v>46042</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="E118" t="s">
         <v>99</v>
@@ -4790,10 +4790,10 @@
         <v>46042</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="E119" t="s">
         <v>99</v>
@@ -4818,7 +4818,7 @@
         <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E120" t="s">
         <v>99</v>
@@ -4843,7 +4843,7 @@
         <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E121" t="s">
         <v>99</v>
@@ -4868,7 +4868,7 @@
         <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E122" t="s">
         <v>99</v>
@@ -4893,7 +4893,7 @@
         <v>29</v>
       </c>
       <c r="D123" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E123" t="s">
         <v>99</v>
@@ -4918,7 +4918,7 @@
         <v>29</v>
       </c>
       <c r="D124" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="E124" t="s">
         <v>99</v>
@@ -4943,7 +4943,7 @@
         <v>29</v>
       </c>
       <c r="D125" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="E125" t="s">
         <v>99</v>
@@ -4968,7 +4968,7 @@
         <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E126" t="s">
         <v>99</v>
@@ -4993,7 +4993,7 @@
         <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E127" t="s">
         <v>99</v>
@@ -5018,10 +5018,7 @@
         <v>29</v>
       </c>
       <c r="D128" t="s">
-        <v>147</v>
-      </c>
-      <c r="E128" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="F128" t="b">
         <f>FALSE()</f>
@@ -5040,14 +5037,17 @@
         <v>46042</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>177</v>
+        <v>108</v>
+      </c>
+      <c r="E129" t="s">
+        <v>109</v>
       </c>
       <c r="F129" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
         <f>FALSE()</f>
@@ -5065,14 +5065,14 @@
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E130" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F130" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G130" t="b">
         <f>FALSE()</f>
@@ -5090,7 +5090,7 @@
         <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E131" t="s">
         <v>99</v>
@@ -5115,7 +5115,7 @@
         <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E132" t="s">
         <v>99</v>
@@ -5140,7 +5140,7 @@
         <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="E133" t="s">
         <v>99</v>
@@ -5165,7 +5165,7 @@
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="E134" t="s">
         <v>99</v>
@@ -5190,7 +5190,7 @@
         <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="E135" t="s">
         <v>99</v>
@@ -5215,7 +5215,7 @@
         <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E136" t="s">
         <v>99</v>
@@ -5240,7 +5240,7 @@
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E137" t="s">
         <v>99</v>
@@ -5262,10 +5262,10 @@
         <v>46042</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D138" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E138" t="s">
         <v>99</v>
@@ -5287,10 +5287,10 @@
         <v>46042</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E139" t="s">
         <v>99</v>
@@ -5312,10 +5312,10 @@
         <v>46042</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D140" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E140" t="s">
         <v>99</v>
@@ -5337,10 +5337,10 @@
         <v>46042</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E141" t="s">
         <v>99</v>
@@ -5356,16 +5356,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B142" s="2">
-        <v>46042</v>
+        <v>46045</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D142" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="E142" t="s">
         <v>99</v>
@@ -5387,10 +5387,10 @@
         <v>46045</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E143" t="s">
         <v>99</v>
@@ -5412,10 +5412,10 @@
         <v>46045</v>
       </c>
       <c r="C144" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D144" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="E144" t="s">
         <v>99</v>
@@ -5440,7 +5440,7 @@
         <v>36</v>
       </c>
       <c r="D145" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E145" t="s">
         <v>99</v>
@@ -5465,7 +5465,7 @@
         <v>36</v>
       </c>
       <c r="D146" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E146" t="s">
         <v>99</v>
@@ -5490,7 +5490,7 @@
         <v>36</v>
       </c>
       <c r="D147" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E147" t="s">
         <v>99</v>
@@ -5515,14 +5515,14 @@
         <v>36</v>
       </c>
       <c r="D148" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="E148" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F148" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
         <f>FALSE()</f>
@@ -5540,14 +5540,14 @@
         <v>36</v>
       </c>
       <c r="D149" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E149" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F149" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G149" t="b">
         <f>FALSE()</f>
@@ -5565,7 +5565,7 @@
         <v>36</v>
       </c>
       <c r="D150" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E150" t="s">
         <v>99</v>
@@ -5590,7 +5590,7 @@
         <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="E151" t="s">
         <v>99</v>
@@ -5615,10 +5615,7 @@
         <v>36</v>
       </c>
       <c r="D152" t="s">
-        <v>184</v>
-      </c>
-      <c r="E152" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="F152" t="b">
         <f>FALSE()</f>
@@ -5637,10 +5634,13 @@
         <v>46045</v>
       </c>
       <c r="C153" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="E153" t="s">
+        <v>99</v>
       </c>
       <c r="F153" t="b">
         <f>FALSE()</f>
@@ -5662,7 +5662,7 @@
         <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="E154" t="s">
         <v>99</v>
@@ -5687,7 +5687,7 @@
         <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E155" t="s">
         <v>99</v>
@@ -5712,7 +5712,7 @@
         <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E156" t="s">
         <v>99</v>
@@ -5737,7 +5737,7 @@
         <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E157" t="s">
         <v>99</v>
@@ -5762,7 +5762,7 @@
         <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="E158" t="s">
         <v>99</v>
@@ -5787,7 +5787,7 @@
         <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="E159" t="s">
         <v>99</v>
@@ -5812,7 +5812,7 @@
         <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="E160" t="s">
         <v>99</v>
@@ -5837,7 +5837,7 @@
         <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="E161" t="s">
         <v>99</v>
@@ -5862,7 +5862,7 @@
         <v>23</v>
       </c>
       <c r="D162" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E162" t="s">
         <v>99</v>
@@ -5884,10 +5884,10 @@
         <v>46045</v>
       </c>
       <c r="C163" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D163" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="E163" t="s">
         <v>99</v>
@@ -5912,7 +5912,7 @@
         <v>36</v>
       </c>
       <c r="D164" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="E164" t="s">
         <v>99</v>
@@ -5934,17 +5934,17 @@
         <v>46045</v>
       </c>
       <c r="C165" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D165" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="E165" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F165" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
         <f>FALSE()</f>
@@ -5953,23 +5953,23 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B166" s="2">
         <v>46045</v>
       </c>
       <c r="C166" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="E166" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F166" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G166" t="b">
         <f>FALSE()</f>
@@ -5984,10 +5984,10 @@
         <v>46045</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D167" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E167" t="s">
         <v>99</v>
@@ -6009,17 +6009,17 @@
         <v>46045</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="E168" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F168" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
         <f>FALSE()</f>
@@ -6034,17 +6034,17 @@
         <v>46045</v>
       </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D169" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E169" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F169" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G169" t="b">
         <f>FALSE()</f>
@@ -6062,14 +6062,14 @@
         <v>29</v>
       </c>
       <c r="D170" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E170" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F170" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
         <f>FALSE()</f>
@@ -6087,14 +6087,14 @@
         <v>29</v>
       </c>
       <c r="D171" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E171" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F171" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G171" t="b">
         <f>FALSE()</f>
@@ -6112,7 +6112,7 @@
         <v>29</v>
       </c>
       <c r="D172" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E172" t="s">
         <v>99</v>
@@ -6137,7 +6137,7 @@
         <v>29</v>
       </c>
       <c r="D173" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E173" t="s">
         <v>99</v>
@@ -6162,7 +6162,7 @@
         <v>29</v>
       </c>
       <c r="D174" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E174" t="s">
         <v>99</v>
@@ -6187,7 +6187,7 @@
         <v>29</v>
       </c>
       <c r="D175" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E175" t="s">
         <v>99</v>
@@ -6212,7 +6212,7 @@
         <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="E176" t="s">
         <v>99</v>
@@ -6237,7 +6237,7 @@
         <v>29</v>
       </c>
       <c r="D177" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="E177" t="s">
         <v>99</v>
@@ -6262,10 +6262,7 @@
         <v>29</v>
       </c>
       <c r="D178" t="s">
-        <v>147</v>
-      </c>
-      <c r="E178" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="F178" t="b">
         <f>FALSE()</f>
@@ -6284,10 +6281,13 @@
         <v>46045</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D179" t="s">
-        <v>192</v>
+        <v>174</v>
+      </c>
+      <c r="E179" t="s">
+        <v>99</v>
       </c>
       <c r="F179" t="b">
         <f>FALSE()</f>
@@ -6309,7 +6309,7 @@
         <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="E180" t="s">
         <v>99</v>
@@ -6334,7 +6334,7 @@
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E181" t="s">
         <v>99</v>
@@ -6359,7 +6359,7 @@
         <v>15</v>
       </c>
       <c r="D182" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E182" t="s">
         <v>99</v>
@@ -6384,7 +6384,7 @@
         <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E183" t="s">
         <v>99</v>
@@ -6409,7 +6409,7 @@
         <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E184" t="s">
         <v>99</v>
@@ -6434,7 +6434,7 @@
         <v>15</v>
       </c>
       <c r="D185" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E185" t="s">
         <v>99</v>
@@ -6459,7 +6459,7 @@
         <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="E186" t="s">
         <v>99</v>
@@ -6484,7 +6484,7 @@
         <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="E187" t="s">
         <v>99</v>
@@ -6509,7 +6509,7 @@
         <v>15</v>
       </c>
       <c r="D188" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="E188" t="s">
         <v>99</v>
@@ -6531,10 +6531,10 @@
         <v>46045</v>
       </c>
       <c r="C189" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D189" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E189" t="s">
         <v>99</v>
@@ -6550,16 +6550,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B190" s="2">
-        <v>46045</v>
+        <v>46048</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="E190" t="s">
         <v>99</v>
@@ -6581,10 +6581,10 @@
         <v>46048</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D191" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="E191" t="s">
         <v>99</v>
@@ -6606,10 +6606,10 @@
         <v>46048</v>
       </c>
       <c r="C192" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="E192" t="s">
         <v>99</v>
@@ -6634,7 +6634,7 @@
         <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="E193" t="s">
         <v>99</v>
@@ -6659,14 +6659,14 @@
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="E194" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F194" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
         <f>FALSE()</f>
@@ -6684,14 +6684,14 @@
         <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E195" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F195" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G195" t="b">
         <f>FALSE()</f>
@@ -6709,7 +6709,7 @@
         <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E196" t="s">
         <v>99</v>
@@ -6734,7 +6734,7 @@
         <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E197" t="s">
         <v>99</v>
@@ -6759,7 +6759,7 @@
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E198" t="s">
         <v>99</v>
@@ -6784,7 +6784,7 @@
         <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E199" t="s">
         <v>99</v>
@@ -6809,7 +6809,7 @@
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="E200" t="s">
         <v>99</v>
@@ -6834,7 +6834,7 @@
         <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E201" t="s">
         <v>99</v>
@@ -6856,10 +6856,10 @@
         <v>46048</v>
       </c>
       <c r="C202" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D202" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E202" t="s">
         <v>99</v>
@@ -6884,7 +6884,7 @@
         <v>37</v>
       </c>
       <c r="D203" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E203" t="s">
         <v>99</v>
@@ -6909,7 +6909,7 @@
         <v>37</v>
       </c>
       <c r="D204" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E204" t="s">
         <v>99</v>
@@ -6934,7 +6934,7 @@
         <v>37</v>
       </c>
       <c r="D205" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E205" t="s">
         <v>99</v>
@@ -6959,7 +6959,7 @@
         <v>37</v>
       </c>
       <c r="D206" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E206" t="s">
         <v>99</v>
@@ -6984,7 +6984,7 @@
         <v>37</v>
       </c>
       <c r="D207" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E207" t="s">
         <v>99</v>
@@ -7009,7 +7009,7 @@
         <v>37</v>
       </c>
       <c r="D208" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="E208" t="s">
         <v>99</v>
@@ -7034,7 +7034,7 @@
         <v>37</v>
       </c>
       <c r="D209" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="E209" t="s">
         <v>99</v>
@@ -7059,7 +7059,7 @@
         <v>37</v>
       </c>
       <c r="D210" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="E210" t="s">
         <v>99</v>
@@ -7084,14 +7084,14 @@
         <v>37</v>
       </c>
       <c r="D211" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E211" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F211" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G211" t="b">
         <f>FALSE()</f>
@@ -7109,14 +7109,11 @@
         <v>37</v>
       </c>
       <c r="D212" t="s">
-        <v>214</v>
-      </c>
-      <c r="E212" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="F212" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G212" t="b">
         <f>FALSE()</f>
@@ -7131,10 +7128,13 @@
         <v>46048</v>
       </c>
       <c r="C213" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D213" t="s">
-        <v>220</v>
+        <v>228</v>
+      </c>
+      <c r="E213" t="s">
+        <v>99</v>
       </c>
       <c r="F213" t="b">
         <f>FALSE()</f>
@@ -7147,16 +7147,16 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B214" s="2">
         <v>46048</v>
       </c>
       <c r="C214" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D214" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="E214" t="s">
         <v>99</v>
@@ -7178,10 +7178,10 @@
         <v>46048</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D215" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E215" t="s">
         <v>99</v>
@@ -7206,7 +7206,7 @@
         <v>30</v>
       </c>
       <c r="D216" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="E216" t="s">
         <v>99</v>
@@ -7231,7 +7231,7 @@
         <v>30</v>
       </c>
       <c r="D217" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="E217" t="s">
         <v>99</v>
@@ -7256,7 +7256,7 @@
         <v>30</v>
       </c>
       <c r="D218" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E218" t="s">
         <v>99</v>
@@ -7281,7 +7281,7 @@
         <v>30</v>
       </c>
       <c r="D219" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="E219" t="s">
         <v>99</v>
@@ -7306,7 +7306,7 @@
         <v>30</v>
       </c>
       <c r="D220" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="E220" t="s">
         <v>99</v>
@@ -7331,7 +7331,7 @@
         <v>30</v>
       </c>
       <c r="D221" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="E221" t="s">
         <v>99</v>
@@ -7356,7 +7356,7 @@
         <v>30</v>
       </c>
       <c r="D222" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E222" t="s">
         <v>99</v>
@@ -7381,10 +7381,7 @@
         <v>30</v>
       </c>
       <c r="D223" t="s">
-        <v>204</v>
-      </c>
-      <c r="E223" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="F223" t="b">
         <f>FALSE()</f>
@@ -7403,14 +7400,17 @@
         <v>46048</v>
       </c>
       <c r="C224" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D224" t="s">
-        <v>205</v>
+        <v>123</v>
+      </c>
+      <c r="E224" t="s">
+        <v>109</v>
       </c>
       <c r="F224" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G224" t="b">
         <f>FALSE()</f>
@@ -7428,14 +7428,14 @@
         <v>22</v>
       </c>
       <c r="D225" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E225" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F225" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G225" t="b">
         <f>FALSE()</f>
@@ -7453,7 +7453,7 @@
         <v>22</v>
       </c>
       <c r="D226" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E226" t="s">
         <v>99</v>
@@ -7478,7 +7478,7 @@
         <v>22</v>
       </c>
       <c r="D227" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E227" t="s">
         <v>99</v>
@@ -7503,7 +7503,7 @@
         <v>22</v>
       </c>
       <c r="D228" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E228" t="s">
         <v>99</v>
@@ -7528,7 +7528,7 @@
         <v>22</v>
       </c>
       <c r="D229" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="E229" t="s">
         <v>99</v>
@@ -7553,7 +7553,7 @@
         <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="E230" t="s">
         <v>99</v>
@@ -7578,7 +7578,7 @@
         <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E231" t="s">
         <v>99</v>
@@ -7603,7 +7603,7 @@
         <v>22</v>
       </c>
       <c r="D232" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E232" t="s">
         <v>99</v>
@@ -7628,7 +7628,7 @@
         <v>22</v>
       </c>
       <c r="D233" t="s">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="E233" t="s">
         <v>99</v>
@@ -7650,10 +7650,10 @@
         <v>46048</v>
       </c>
       <c r="C234" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D234" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E234" t="s">
         <v>99</v>
@@ -7678,7 +7678,7 @@
         <v>30</v>
       </c>
       <c r="D235" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E235" t="s">
         <v>99</v>
@@ -7703,14 +7703,14 @@
         <v>30</v>
       </c>
       <c r="D236" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E236" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F236" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
         <f>FALSE()</f>
@@ -7725,17 +7725,17 @@
         <v>46048</v>
       </c>
       <c r="C237" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D237" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E237" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F237" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G237" t="b">
         <f>FALSE()</f>
@@ -7744,16 +7744,16 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B238" s="2">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="C238" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D238" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="E238" t="s">
         <v>99</v>
@@ -7778,7 +7778,7 @@
         <v>36</v>
       </c>
       <c r="D239" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E239" t="s">
         <v>99</v>
@@ -7803,7 +7803,7 @@
         <v>36</v>
       </c>
       <c r="D240" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E240" t="s">
         <v>99</v>
@@ -7828,7 +7828,7 @@
         <v>36</v>
       </c>
       <c r="D241" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E241" t="s">
         <v>99</v>
@@ -7853,7 +7853,7 @@
         <v>36</v>
       </c>
       <c r="D242" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E242" t="s">
         <v>99</v>
@@ -7878,7 +7878,7 @@
         <v>36</v>
       </c>
       <c r="D243" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="E243" t="s">
         <v>99</v>
@@ -7903,7 +7903,7 @@
         <v>36</v>
       </c>
       <c r="D244" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="E244" t="s">
         <v>99</v>
@@ -7928,7 +7928,7 @@
         <v>36</v>
       </c>
       <c r="D245" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E245" t="s">
         <v>99</v>
@@ -7953,7 +7953,7 @@
         <v>36</v>
       </c>
       <c r="D246" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="E246" t="s">
         <v>99</v>
@@ -7978,14 +7978,14 @@
         <v>36</v>
       </c>
       <c r="D247" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="E247" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F247" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G247" t="b">
         <f>FALSE()</f>
@@ -8003,14 +8003,14 @@
         <v>36</v>
       </c>
       <c r="D248" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E248" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F248" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G248" t="b">
         <f>FALSE()</f>
@@ -8025,10 +8025,10 @@
         <v>46049</v>
       </c>
       <c r="C249" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D249" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="E249" t="s">
         <v>99</v>
@@ -8053,7 +8053,7 @@
         <v>15</v>
       </c>
       <c r="D250" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E250" t="s">
         <v>99</v>
@@ -8078,7 +8078,7 @@
         <v>15</v>
       </c>
       <c r="D251" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="E251" t="s">
         <v>99</v>
@@ -8103,7 +8103,7 @@
         <v>15</v>
       </c>
       <c r="D252" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="E252" t="s">
         <v>99</v>
@@ -8128,7 +8128,7 @@
         <v>15</v>
       </c>
       <c r="D253" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E253" t="s">
         <v>99</v>
@@ -8153,14 +8153,14 @@
         <v>15</v>
       </c>
       <c r="D254" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="E254" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F254" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G254" t="b">
         <f>FALSE()</f>
@@ -8178,14 +8178,14 @@
         <v>15</v>
       </c>
       <c r="D255" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="E255" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F255" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G255" t="b">
         <f>FALSE()</f>
@@ -8203,7 +8203,7 @@
         <v>15</v>
       </c>
       <c r="D256" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E256" t="s">
         <v>99</v>
@@ -8228,7 +8228,7 @@
         <v>15</v>
       </c>
       <c r="D257" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="E257" t="s">
         <v>99</v>
@@ -8253,7 +8253,7 @@
         <v>15</v>
       </c>
       <c r="D258" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E258" t="s">
         <v>99</v>
@@ -8278,10 +8278,7 @@
         <v>15</v>
       </c>
       <c r="D259" t="s">
-        <v>173</v>
-      </c>
-      <c r="E259" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F259" t="b">
         <f>FALSE()</f>
@@ -8300,10 +8297,13 @@
         <v>46049</v>
       </c>
       <c r="C260" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D260" t="s">
-        <v>98</v>
+        <v>216</v>
+      </c>
+      <c r="E260" t="s">
+        <v>99</v>
       </c>
       <c r="F260" t="b">
         <f>FALSE()</f>
@@ -8316,16 +8316,16 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B261" s="2">
         <v>46049</v>
       </c>
       <c r="C261" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D261" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="E261" t="s">
         <v>99</v>
@@ -8347,10 +8347,10 @@
         <v>46049</v>
       </c>
       <c r="C262" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D262" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="E262" t="s">
         <v>99</v>
@@ -8375,7 +8375,7 @@
         <v>29</v>
       </c>
       <c r="D263" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="E263" t="s">
         <v>99</v>
@@ -8397,10 +8397,10 @@
         <v>46049</v>
       </c>
       <c r="C264" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D264" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="E264" t="s">
         <v>99</v>
@@ -8422,17 +8422,17 @@
         <v>46049</v>
       </c>
       <c r="C265" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D265" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="E265" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F265" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G265" t="b">
         <f>FALSE()</f>
@@ -8450,14 +8450,14 @@
         <v>29</v>
       </c>
       <c r="D266" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="E266" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F266" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G266" t="b">
         <f>FALSE()</f>
@@ -8475,7 +8475,7 @@
         <v>29</v>
       </c>
       <c r="D267" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="E267" t="s">
         <v>99</v>
@@ -8500,7 +8500,7 @@
         <v>29</v>
       </c>
       <c r="D268" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E268" t="s">
         <v>99</v>
@@ -8525,7 +8525,7 @@
         <v>29</v>
       </c>
       <c r="D269" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E269" t="s">
         <v>99</v>
@@ -8550,7 +8550,7 @@
         <v>29</v>
       </c>
       <c r="D270" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E270" t="s">
         <v>99</v>
@@ -8575,7 +8575,7 @@
         <v>29</v>
       </c>
       <c r="D271" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="E271" t="s">
         <v>99</v>
@@ -8600,7 +8600,7 @@
         <v>29</v>
       </c>
       <c r="D272" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E272" t="s">
         <v>99</v>
@@ -8625,7 +8625,7 @@
         <v>29</v>
       </c>
       <c r="D273" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="E273" t="s">
         <v>99</v>
@@ -8650,7 +8650,7 @@
         <v>29</v>
       </c>
       <c r="D274" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="E274" t="s">
         <v>99</v>
@@ -8672,10 +8672,10 @@
         <v>46049</v>
       </c>
       <c r="C275" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D275" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="E275" t="s">
         <v>99</v>
@@ -8700,7 +8700,7 @@
         <v>37</v>
       </c>
       <c r="D276" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E276" t="s">
         <v>99</v>
@@ -8725,7 +8725,7 @@
         <v>37</v>
       </c>
       <c r="D277" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="E277" t="s">
         <v>99</v>
@@ -8750,7 +8750,7 @@
         <v>37</v>
       </c>
       <c r="D278" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="E278" t="s">
         <v>99</v>
@@ -8775,7 +8775,7 @@
         <v>37</v>
       </c>
       <c r="D279" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E279" t="s">
         <v>99</v>
@@ -8800,7 +8800,7 @@
         <v>37</v>
       </c>
       <c r="D280" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E280" t="s">
         <v>99</v>
@@ -8825,7 +8825,7 @@
         <v>37</v>
       </c>
       <c r="D281" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E281" t="s">
         <v>99</v>
@@ -8850,7 +8850,7 @@
         <v>37</v>
       </c>
       <c r="D282" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E282" t="s">
         <v>99</v>
@@ -8875,10 +8875,7 @@
         <v>37</v>
       </c>
       <c r="D283" t="s">
-        <v>171</v>
-      </c>
-      <c r="E283" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="F283" t="b">
         <f>FALSE()</f>
@@ -8900,11 +8897,14 @@
         <v>37</v>
       </c>
       <c r="D284" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="E284" t="s">
+        <v>109</v>
       </c>
       <c r="F284" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G284" t="b">
         <f>FALSE()</f>
@@ -8913,23 +8913,23 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B285" s="2">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="C285" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D285" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="E285" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F285" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G285" t="b">
         <f>FALSE()</f>
@@ -8944,10 +8944,10 @@
         <v>46050</v>
       </c>
       <c r="C286" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D286" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="E286" t="s">
         <v>99</v>
@@ -8972,7 +8972,7 @@
         <v>36</v>
       </c>
       <c r="D287" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E287" t="s">
         <v>99</v>
@@ -8994,17 +8994,17 @@
         <v>46050</v>
       </c>
       <c r="C288" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D288" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="E288" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F288" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G288" t="b">
         <f>FALSE()</f>
@@ -9019,17 +9019,17 @@
         <v>46050</v>
       </c>
       <c r="C289" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D289" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="E289" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F289" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G289" t="b">
         <f>FALSE()</f>
@@ -9047,7 +9047,7 @@
         <v>36</v>
       </c>
       <c r="D290" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E290" t="s">
         <v>99</v>
@@ -9072,7 +9072,7 @@
         <v>36</v>
       </c>
       <c r="D291" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E291" t="s">
         <v>99</v>
@@ -9097,14 +9097,14 @@
         <v>36</v>
       </c>
       <c r="D292" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="E292" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F292" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G292" t="b">
         <f>FALSE()</f>
@@ -9122,14 +9122,14 @@
         <v>36</v>
       </c>
       <c r="D293" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="E293" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F293" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G293" t="b">
         <f>FALSE()</f>
@@ -9147,7 +9147,7 @@
         <v>36</v>
       </c>
       <c r="D294" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="E294" t="s">
         <v>99</v>
@@ -9172,7 +9172,7 @@
         <v>36</v>
       </c>
       <c r="D295" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="E295" t="s">
         <v>99</v>
@@ -9197,7 +9197,7 @@
         <v>36</v>
       </c>
       <c r="D296" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="E296" t="s">
         <v>99</v>
@@ -9222,7 +9222,7 @@
         <v>36</v>
       </c>
       <c r="D297" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="E297" t="s">
         <v>99</v>
@@ -9247,10 +9247,7 @@
         <v>36</v>
       </c>
       <c r="D298" t="s">
-        <v>216</v>
-      </c>
-      <c r="E298" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="F298" t="b">
         <f>FALSE()</f>
@@ -9269,10 +9266,13 @@
         <v>46050</v>
       </c>
       <c r="C299" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D299" t="s">
-        <v>158</v>
+        <v>206</v>
+      </c>
+      <c r="E299" t="s">
+        <v>99</v>
       </c>
       <c r="F299" t="b">
         <f>FALSE()</f>
@@ -9294,7 +9294,7 @@
         <v>22</v>
       </c>
       <c r="D300" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="E300" t="s">
         <v>99</v>
@@ -9319,7 +9319,7 @@
         <v>22</v>
       </c>
       <c r="D301" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E301" t="s">
         <v>99</v>
@@ -9344,7 +9344,7 @@
         <v>22</v>
       </c>
       <c r="D302" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E302" t="s">
         <v>99</v>
@@ -9369,7 +9369,7 @@
         <v>22</v>
       </c>
       <c r="D303" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="E303" t="s">
         <v>99</v>
@@ -9394,7 +9394,7 @@
         <v>22</v>
       </c>
       <c r="D304" t="s">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="E304" t="s">
         <v>99</v>
@@ -9419,7 +9419,7 @@
         <v>22</v>
       </c>
       <c r="D305" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E305" t="s">
         <v>99</v>
@@ -9444,7 +9444,7 @@
         <v>22</v>
       </c>
       <c r="D306" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E306" t="s">
         <v>99</v>
@@ -9469,7 +9469,7 @@
         <v>22</v>
       </c>
       <c r="D307" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="E307" t="s">
         <v>99</v>
@@ -9494,7 +9494,7 @@
         <v>22</v>
       </c>
       <c r="D308" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E308" t="s">
         <v>99</v>
@@ -9510,23 +9510,23 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B309" s="2">
         <v>46050</v>
       </c>
       <c r="C309" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D309" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="E309" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F309" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G309" t="b">
         <f>FALSE()</f>
@@ -9541,17 +9541,17 @@
         <v>46050</v>
       </c>
       <c r="C310" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D310" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E310" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F310" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G310" t="b">
         <f>FALSE()</f>
@@ -9569,7 +9569,7 @@
         <v>37</v>
       </c>
       <c r="D311" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E311" t="s">
         <v>99</v>
@@ -9591,10 +9591,10 @@
         <v>46050</v>
       </c>
       <c r="C312" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D312" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E312" t="s">
         <v>99</v>
@@ -9616,10 +9616,10 @@
         <v>46050</v>
       </c>
       <c r="C313" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D313" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E313" t="s">
         <v>99</v>
@@ -9644,7 +9644,7 @@
         <v>37</v>
       </c>
       <c r="D314" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="E314" t="s">
         <v>99</v>
@@ -9669,7 +9669,7 @@
         <v>37</v>
       </c>
       <c r="D315" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E315" t="s">
         <v>99</v>
@@ -9694,7 +9694,7 @@
         <v>37</v>
       </c>
       <c r="D316" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E316" t="s">
         <v>99</v>
@@ -9719,18 +9719,18 @@
         <v>37</v>
       </c>
       <c r="D317" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="E317" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="F317" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G317" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
@@ -9744,18 +9744,18 @@
         <v>37</v>
       </c>
       <c r="D318" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="E318" t="s">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="F318" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G318" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -9769,7 +9769,7 @@
         <v>37</v>
       </c>
       <c r="D319" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E319" t="s">
         <v>99</v>
@@ -9794,7 +9794,7 @@
         <v>37</v>
       </c>
       <c r="D320" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E320" t="s">
         <v>99</v>
@@ -9819,7 +9819,7 @@
         <v>37</v>
       </c>
       <c r="D321" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E321" t="s">
         <v>99</v>
@@ -9844,10 +9844,7 @@
         <v>37</v>
       </c>
       <c r="D322" t="s">
-        <v>171</v>
-      </c>
-      <c r="E322" t="s">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="F322" t="b">
         <f>FALSE()</f>
@@ -9866,10 +9863,13 @@
         <v>46050</v>
       </c>
       <c r="C323" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D323" t="s">
-        <v>221</v>
+        <v>151</v>
+      </c>
+      <c r="E323" t="s">
+        <v>99</v>
       </c>
       <c r="F323" t="b">
         <f>FALSE()</f>
@@ -9891,7 +9891,7 @@
         <v>30</v>
       </c>
       <c r="D324" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E324" t="s">
         <v>99</v>
@@ -9916,7 +9916,7 @@
         <v>30</v>
       </c>
       <c r="D325" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E325" t="s">
         <v>99</v>
@@ -9941,7 +9941,7 @@
         <v>30</v>
       </c>
       <c r="D326" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="E326" t="s">
         <v>99</v>
@@ -9966,7 +9966,7 @@
         <v>30</v>
       </c>
       <c r="D327" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="E327" t="s">
         <v>99</v>
@@ -9991,7 +9991,7 @@
         <v>30</v>
       </c>
       <c r="D328" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="E328" t="s">
         <v>99</v>
@@ -10016,7 +10016,7 @@
         <v>30</v>
       </c>
       <c r="D329" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E329" t="s">
         <v>99</v>
@@ -10041,7 +10041,7 @@
         <v>30</v>
       </c>
       <c r="D330" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="E330" t="s">
         <v>99</v>
@@ -10066,7 +10066,7 @@
         <v>30</v>
       </c>
       <c r="D331" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E331" t="s">
         <v>99</v>
@@ -10091,7 +10091,7 @@
         <v>30</v>
       </c>
       <c r="D332" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E332" t="s">
         <v>99</v>
@@ -10107,16 +10107,16 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B333" s="2">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="C333" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D333" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="E333" t="s">
         <v>99</v>
@@ -10141,7 +10141,7 @@
         <v>23</v>
       </c>
       <c r="D334" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="E334" t="s">
         <v>99</v>
@@ -10163,10 +10163,10 @@
         <v>46051</v>
       </c>
       <c r="C335" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D335" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="E335" t="s">
         <v>99</v>
@@ -10191,7 +10191,7 @@
         <v>30</v>
       </c>
       <c r="D336" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="E336" t="s">
         <v>99</v>
@@ -10216,7 +10216,7 @@
         <v>30</v>
       </c>
       <c r="D337" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="E337" t="s">
         <v>99</v>
@@ -10241,7 +10241,7 @@
         <v>30</v>
       </c>
       <c r="D338" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E338" t="s">
         <v>99</v>
@@ -10266,7 +10266,7 @@
         <v>30</v>
       </c>
       <c r="D339" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="E339" t="s">
         <v>99</v>
@@ -10291,18 +10291,18 @@
         <v>30</v>
       </c>
       <c r="D340" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E340" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="F340" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="G340" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
@@ -10316,18 +10316,18 @@
         <v>30</v>
       </c>
       <c r="D341" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E341" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="F341" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="G341" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
@@ -10341,7 +10341,7 @@
         <v>30</v>
       </c>
       <c r="D342" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="E342" t="s">
         <v>99</v>
@@ -10366,7 +10366,7 @@
         <v>30</v>
       </c>
       <c r="D343" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="E343" t="s">
         <v>99</v>
@@ -10391,7 +10391,7 @@
         <v>30</v>
       </c>
       <c r="D344" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E344" t="s">
         <v>99</v>
@@ -10416,7 +10416,7 @@
         <v>30</v>
       </c>
       <c r="D345" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="E345" t="s">
         <v>99</v>
@@ -10441,14 +10441,14 @@
         <v>30</v>
       </c>
       <c r="D346" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="E346" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F346" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G346" t="b">
         <f>FALSE()</f>
@@ -10463,21 +10463,21 @@
         <v>46051</v>
       </c>
       <c r="C347" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D347" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E347" t="s">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c r="F347" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="G347" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
@@ -10491,18 +10491,18 @@
         <v>23</v>
       </c>
       <c r="D348" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E348" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="F348" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G348" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
@@ -10516,7 +10516,7 @@
         <v>23</v>
       </c>
       <c r="D349" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E349" t="s">
         <v>99</v>
@@ -10541,7 +10541,7 @@
         <v>23</v>
       </c>
       <c r="D350" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E350" t="s">
         <v>99</v>
@@ -10566,7 +10566,7 @@
         <v>23</v>
       </c>
       <c r="D351" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="E351" t="s">
         <v>99</v>
@@ -10591,7 +10591,7 @@
         <v>23</v>
       </c>
       <c r="D352" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="E352" t="s">
         <v>99</v>
@@ -10616,7 +10616,7 @@
         <v>23</v>
       </c>
       <c r="D353" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E353" t="s">
         <v>99</v>
@@ -10641,7 +10641,7 @@
         <v>23</v>
       </c>
       <c r="D354" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E354" t="s">
         <v>99</v>
@@ -10666,7 +10666,7 @@
         <v>23</v>
       </c>
       <c r="D355" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E355" t="s">
         <v>99</v>
@@ -10691,7 +10691,7 @@
         <v>23</v>
       </c>
       <c r="D356" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="E356" t="s">
         <v>99</v>
@@ -10707,16 +10707,16 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B357" s="2">
         <v>46051</v>
       </c>
       <c r="C357" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D357" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="E357" t="s">
         <v>99</v>
@@ -10738,10 +10738,10 @@
         <v>46051</v>
       </c>
       <c r="C358" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D358" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E358" t="s">
         <v>99</v>
@@ -10763,10 +10763,10 @@
         <v>46051</v>
       </c>
       <c r="C359" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D359" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="E359" t="s">
         <v>99</v>
@@ -10791,7 +10791,7 @@
         <v>16</v>
       </c>
       <c r="D360" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E360" t="s">
         <v>99</v>
@@ -10813,17 +10813,17 @@
         <v>46051</v>
       </c>
       <c r="C361" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D361" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="E361" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F361" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G361" t="b">
         <f>FALSE()</f>
@@ -10841,14 +10841,14 @@
         <v>22</v>
       </c>
       <c r="D362" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="E362" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F362" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G362" t="b">
         <f>FALSE()</f>
@@ -10863,17 +10863,17 @@
         <v>46051</v>
       </c>
       <c r="C363" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D363" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="E363" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F363" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G363" t="b">
         <f>FALSE()</f>
@@ -10891,14 +10891,14 @@
         <v>16</v>
       </c>
       <c r="D364" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E364" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F364" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G364" t="b">
         <f>FALSE()</f>
@@ -10916,7 +10916,7 @@
         <v>16</v>
       </c>
       <c r="D365" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E365" t="s">
         <v>99</v>
@@ -10941,7 +10941,7 @@
         <v>16</v>
       </c>
       <c r="D366" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E366" t="s">
         <v>99</v>
@@ -10966,7 +10966,7 @@
         <v>16</v>
       </c>
       <c r="D367" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E367" t="s">
         <v>99</v>
@@ -10991,7 +10991,7 @@
         <v>16</v>
       </c>
       <c r="D368" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E368" t="s">
         <v>99</v>
@@ -11016,7 +11016,7 @@
         <v>16</v>
       </c>
       <c r="D369" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="E369" t="s">
         <v>99</v>
@@ -11041,7 +11041,7 @@
         <v>16</v>
       </c>
       <c r="D370" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="E370" t="s">
         <v>99</v>
@@ -11066,10 +11066,7 @@
         <v>16</v>
       </c>
       <c r="D371" t="s">
-        <v>228</v>
-      </c>
-      <c r="E371" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="F371" t="b">
         <f>FALSE()</f>
@@ -11088,10 +11085,13 @@
         <v>46051</v>
       </c>
       <c r="C372" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D372" t="s">
-        <v>180</v>
+        <v>119</v>
+      </c>
+      <c r="E372" t="s">
+        <v>99</v>
       </c>
       <c r="F372" t="b">
         <f>FALSE()</f>
@@ -11113,7 +11113,7 @@
         <v>22</v>
       </c>
       <c r="D373" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E373" t="s">
         <v>99</v>
@@ -11138,7 +11138,7 @@
         <v>22</v>
       </c>
       <c r="D374" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="E374" t="s">
         <v>99</v>
@@ -11163,7 +11163,7 @@
         <v>22</v>
       </c>
       <c r="D375" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E375" t="s">
         <v>99</v>
@@ -11188,7 +11188,7 @@
         <v>22</v>
       </c>
       <c r="D376" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E376" t="s">
         <v>99</v>
@@ -11213,7 +11213,7 @@
         <v>22</v>
       </c>
       <c r="D377" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E377" t="s">
         <v>99</v>
@@ -11238,7 +11238,7 @@
         <v>22</v>
       </c>
       <c r="D378" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E378" t="s">
         <v>99</v>
@@ -11263,7 +11263,7 @@
         <v>22</v>
       </c>
       <c r="D379" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E379" t="s">
         <v>99</v>
@@ -11287,8 +11287,8 @@
       <c r="C380" t="s">
         <v>22</v>
       </c>
-      <c r="D380" t="s">
-        <v>125</v>
+      <c r="D380" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="E380" t="s">
         <v>99</v>
@@ -11303,28 +11303,17 @@
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A381">
-        <v>16</v>
+      <c r="A381" s="4">
+        <v>17</v>
       </c>
       <c r="B381" s="2">
-        <v>46051</v>
-      </c>
-      <c r="C381" t="s">
-        <v>22</v>
-      </c>
-      <c r="D381" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E381" t="s">
-        <v>99</v>
-      </c>
-      <c r="F381" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G381" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>46052</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.3">
@@ -11338,7 +11327,7 @@
         <v>36</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
@@ -11352,7 +11341,7 @@
         <v>36</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.3">
@@ -11366,7 +11355,7 @@
         <v>36</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -11380,7 +11369,7 @@
         <v>36</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -11394,7 +11383,7 @@
         <v>36</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
@@ -11408,7 +11397,7 @@
         <v>36</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -11422,7 +11411,7 @@
         <v>36</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -11436,7 +11425,7 @@
         <v>36</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -11450,7 +11439,7 @@
         <v>36</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -11464,48 +11453,48 @@
         <v>36</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A392" s="4">
+      <c r="A392">
         <v>17</v>
       </c>
       <c r="B392" s="2">
         <v>46052</v>
       </c>
-      <c r="C392" s="3" t="s">
+      <c r="C392" t="s">
         <v>36</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A393">
+      <c r="A393" s="4">
         <v>17</v>
       </c>
-      <c r="B393" s="2">
+      <c r="B393" s="5">
         <v>46052</v>
       </c>
-      <c r="C393" t="s">
-        <v>36</v>
+      <c r="C393" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A394" s="4">
-        <v>17</v>
-      </c>
-      <c r="B394" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C394" s="3" t="s">
+      <c r="A394">
+        <v>21</v>
+      </c>
+      <c r="B394" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C394" t="s">
         <v>30</v>
       </c>
-      <c r="D394" s="3" t="s">
+      <c r="D394" s="9" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11520,90 +11509,90 @@
         <v>30</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A396">
+      <c r="A396" s="4">
+        <v>17</v>
+      </c>
+      <c r="B396" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
         <v>21</v>
       </c>
-      <c r="B396" s="7">
+      <c r="B397" s="7">
         <v>46056</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C397" t="s">
         <v>30</v>
       </c>
-      <c r="D396" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A397" s="4">
+      <c r="D397" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="4">
         <v>17</v>
       </c>
-      <c r="B397" s="5">
+      <c r="B398" s="5">
         <v>46052</v>
       </c>
-      <c r="C397" s="3" t="s">
+      <c r="C398" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D397" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A398">
+      <c r="D398" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
         <v>21</v>
       </c>
-      <c r="B398" s="7">
+      <c r="B399" s="7">
         <v>46056</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C399" t="s">
         <v>30</v>
       </c>
-      <c r="D398" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A399" s="4">
+      <c r="D399" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="4">
         <v>17</v>
       </c>
-      <c r="B399" s="5">
+      <c r="B400" s="5">
         <v>46052</v>
       </c>
-      <c r="C399" s="3" t="s">
+      <c r="C400" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D399" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A400">
+      <c r="D400" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401">
         <v>21</v>
       </c>
-      <c r="B400" s="7">
+      <c r="B401" s="7">
         <v>46056</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C401" t="s">
         <v>30</v>
       </c>
-      <c r="D400" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A401" s="4">
-        <v>17</v>
-      </c>
-      <c r="B401" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D401" s="3" t="s">
+      <c r="D401" t="s">
         <v>152</v>
       </c>
     </row>
@@ -11617,18 +11606,18 @@
       <c r="C402" t="s">
         <v>30</v>
       </c>
-      <c r="D402" t="s">
-        <v>152</v>
+      <c r="D402" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A403">
-        <v>21</v>
-      </c>
-      <c r="B403" s="7">
-        <v>46056</v>
-      </c>
-      <c r="C403" t="s">
+      <c r="A403" s="4">
+        <v>17</v>
+      </c>
+      <c r="B403" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C403" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D403" s="3" t="s">
@@ -11636,17 +11625,17 @@
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A404" s="4">
-        <v>17</v>
+      <c r="A404">
+        <v>18</v>
       </c>
       <c r="B404" s="5">
         <v>46052</v>
       </c>
-      <c r="C404" s="3" t="s">
-        <v>30</v>
+      <c r="C404" t="s">
+        <v>23</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -11660,7 +11649,7 @@
         <v>23</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -11674,7 +11663,7 @@
         <v>23</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>235</v>
+        <v>131</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -11688,7 +11677,7 @@
         <v>23</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -11701,8 +11690,8 @@
       <c r="C408" t="s">
         <v>23</v>
       </c>
-      <c r="D408" s="3" t="s">
-        <v>236</v>
+      <c r="D408" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -11715,8 +11704,8 @@
       <c r="C409" t="s">
         <v>23</v>
       </c>
-      <c r="D409" s="6" t="s">
-        <v>136</v>
+      <c r="D409" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -11730,7 +11719,7 @@
         <v>23</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -11744,7 +11733,7 @@
         <v>23</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -11758,7 +11747,7 @@
         <v>23</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -11772,7 +11761,7 @@
         <v>23</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>239</v>
+        <v>134</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -11786,7 +11775,7 @@
         <v>23</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -11800,7 +11789,7 @@
         <v>23</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -11814,7 +11803,7 @@
         <v>23</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -11825,10 +11814,10 @@
         <v>46052</v>
       </c>
       <c r="C417" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -11842,7 +11831,7 @@
         <v>16</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -11856,7 +11845,7 @@
         <v>16</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>112</v>
+        <v>242</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -11870,7 +11859,7 @@
         <v>16</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -11884,7 +11873,7 @@
         <v>16</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -11898,7 +11887,7 @@
         <v>16</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -11912,7 +11901,7 @@
         <v>16</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
@@ -11926,7 +11915,7 @@
         <v>16</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>110</v>
+        <v>245</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -11940,7 +11929,7 @@
         <v>16</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -11954,7 +11943,7 @@
         <v>16</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -11968,7 +11957,7 @@
         <v>16</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -11982,21 +11971,21 @@
         <v>16</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>247</v>
+        <v>115</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>18</v>
-      </c>
-      <c r="B429" s="5">
-        <v>46052</v>
+        <v>19</v>
+      </c>
+      <c r="B429" s="7">
+        <v>46055</v>
       </c>
       <c r="C429" t="s">
-        <v>16</v>
-      </c>
-      <c r="D429" s="3" t="s">
-        <v>115</v>
+        <v>22</v>
+      </c>
+      <c r="D429" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
@@ -12010,7 +11999,7 @@
         <v>22</v>
       </c>
       <c r="D430" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -12024,7 +12013,7 @@
         <v>22</v>
       </c>
       <c r="D431" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -12038,7 +12027,7 @@
         <v>22</v>
       </c>
       <c r="D432" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -12052,7 +12041,7 @@
         <v>22</v>
       </c>
       <c r="D433" t="s">
-        <v>217</v>
+        <v>122</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -12066,7 +12055,7 @@
         <v>22</v>
       </c>
       <c r="D434" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -12080,7 +12069,7 @@
         <v>22</v>
       </c>
       <c r="D435" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -12094,7 +12083,7 @@
         <v>22</v>
       </c>
       <c r="D436" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -12108,7 +12097,7 @@
         <v>22</v>
       </c>
       <c r="D437" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -12122,7 +12111,7 @@
         <v>22</v>
       </c>
       <c r="D438" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -12136,7 +12125,7 @@
         <v>22</v>
       </c>
       <c r="D439" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -12150,7 +12139,7 @@
         <v>22</v>
       </c>
       <c r="D440" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -12161,10 +12150,10 @@
         <v>46055</v>
       </c>
       <c r="C441" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D441" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -12178,7 +12167,7 @@
         <v>29</v>
       </c>
       <c r="D442" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
@@ -12192,7 +12181,7 @@
         <v>29</v>
       </c>
       <c r="D443" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -12206,7 +12195,7 @@
         <v>29</v>
       </c>
       <c r="D444" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -12220,7 +12209,7 @@
         <v>29</v>
       </c>
       <c r="D445" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -12234,7 +12223,7 @@
         <v>29</v>
       </c>
       <c r="D446" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -12248,7 +12237,7 @@
         <v>29</v>
       </c>
       <c r="D447" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -12262,7 +12251,7 @@
         <v>29</v>
       </c>
       <c r="D448" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -12276,7 +12265,7 @@
         <v>29</v>
       </c>
       <c r="D449" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -12290,7 +12279,7 @@
         <v>29</v>
       </c>
       <c r="D450" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -12304,7 +12293,7 @@
         <v>29</v>
       </c>
       <c r="D451" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -12318,90 +12307,90 @@
         <v>29</v>
       </c>
       <c r="D452" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B453" s="7">
         <v>46055</v>
       </c>
       <c r="C453" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D453" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B454" s="7">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="C454" t="s">
         <v>15</v>
       </c>
-      <c r="D454" t="s">
-        <v>195</v>
+      <c r="D454" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B455" s="7">
-        <v>46056</v>
+        <v>46055</v>
       </c>
       <c r="C455" t="s">
         <v>15</v>
       </c>
-      <c r="D455" s="9" t="s">
-        <v>102</v>
+      <c r="D455" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B456" s="7">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="C456" t="s">
         <v>15</v>
       </c>
-      <c r="D456" t="s">
+      <c r="D456" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B457" s="7">
-        <v>46056</v>
+        <v>46055</v>
       </c>
       <c r="C457" t="s">
         <v>15</v>
       </c>
-      <c r="D457" s="9" t="s">
-        <v>104</v>
+      <c r="D457" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B458" s="7">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="C458" t="s">
         <v>15</v>
       </c>
-      <c r="D458" t="s">
+      <c r="D458" s="9" t="s">
         <v>98</v>
       </c>
     </row>
@@ -12416,7 +12405,7 @@
         <v>15</v>
       </c>
       <c r="D459" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -12429,16 +12418,16 @@
       <c r="C460" t="s">
         <v>15</v>
       </c>
-      <c r="D460" s="9" t="s">
-        <v>101</v>
+      <c r="D460" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B461" s="7">
-        <v>46056</v>
+        <v>46055</v>
       </c>
       <c r="C461" t="s">
         <v>15</v>
@@ -12458,35 +12447,35 @@
         <v>15</v>
       </c>
       <c r="D462" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B463" s="7">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="C463" t="s">
         <v>15</v>
       </c>
-      <c r="D463" t="s">
+      <c r="D463" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B464" s="7">
-        <v>46056</v>
+        <v>46055</v>
       </c>
       <c r="C464" t="s">
         <v>15</v>
       </c>
-      <c r="D464" s="9" t="s">
-        <v>174</v>
+      <c r="D464" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -12497,10 +12486,10 @@
         <v>46055</v>
       </c>
       <c r="C465" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D465" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -12514,7 +12503,7 @@
         <v>37</v>
       </c>
       <c r="D466" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -12528,7 +12517,7 @@
         <v>37</v>
       </c>
       <c r="D467" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -12542,7 +12531,7 @@
         <v>37</v>
       </c>
       <c r="D468" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -12556,7 +12545,7 @@
         <v>37</v>
       </c>
       <c r="D469" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -12570,7 +12559,7 @@
         <v>37</v>
       </c>
       <c r="D470" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -12584,7 +12573,7 @@
         <v>37</v>
       </c>
       <c r="D471" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
@@ -12598,7 +12587,7 @@
         <v>37</v>
       </c>
       <c r="D472" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -12612,7 +12601,7 @@
         <v>37</v>
       </c>
       <c r="D473" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -12626,7 +12615,7 @@
         <v>37</v>
       </c>
       <c r="D474" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
@@ -12640,7 +12629,7 @@
         <v>37</v>
       </c>
       <c r="D475" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -12654,217 +12643,217 @@
         <v>37</v>
       </c>
       <c r="D476" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477">
+        <v>21</v>
+      </c>
+      <c r="B477" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C477" t="s">
+        <v>30</v>
+      </c>
+      <c r="D477" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="4">
+        <v>17</v>
+      </c>
+      <c r="B478" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>21</v>
+      </c>
+      <c r="B479" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C479" t="s">
+        <v>30</v>
+      </c>
+      <c r="D479" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="4">
+        <v>17</v>
+      </c>
+      <c r="B480" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>21</v>
+      </c>
+      <c r="B481" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C481" t="s">
+        <v>30</v>
+      </c>
+      <c r="D481" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="4">
+        <v>17</v>
+      </c>
+      <c r="B482" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>21</v>
+      </c>
+      <c r="B483" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C483" t="s">
+        <v>30</v>
+      </c>
+      <c r="D483" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" s="4">
+        <v>17</v>
+      </c>
+      <c r="B484" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>21</v>
+      </c>
+      <c r="B485" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C485" t="s">
+        <v>30</v>
+      </c>
+      <c r="D485" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" s="4">
+        <v>17</v>
+      </c>
+      <c r="B486" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>21</v>
+      </c>
+      <c r="B487" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C487" t="s">
+        <v>30</v>
+      </c>
+      <c r="D487" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" s="4">
+        <v>17</v>
+      </c>
+      <c r="B488" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489">
         <v>20</v>
       </c>
-      <c r="B477" s="7">
+      <c r="B489" s="7">
         <v>46055</v>
       </c>
-      <c r="C477" t="s">
-        <v>37</v>
-      </c>
-      <c r="D477" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A478">
-        <v>21</v>
-      </c>
-      <c r="B478" s="7">
-        <v>46056</v>
-      </c>
-      <c r="C478" t="s">
-        <v>30</v>
-      </c>
-      <c r="D478" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A479" s="4">
-        <v>17</v>
-      </c>
-      <c r="B479" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D479" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A480">
-        <v>21</v>
-      </c>
-      <c r="B480" s="7">
-        <v>46056</v>
-      </c>
-      <c r="C480" t="s">
-        <v>30</v>
-      </c>
-      <c r="D480" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A481" s="4">
-        <v>17</v>
-      </c>
-      <c r="B481" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D481" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A482">
-        <v>21</v>
-      </c>
-      <c r="B482" s="7">
-        <v>46056</v>
-      </c>
-      <c r="C482" t="s">
-        <v>30</v>
-      </c>
-      <c r="D482" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A483" s="4">
-        <v>17</v>
-      </c>
-      <c r="B483" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A484">
-        <v>21</v>
-      </c>
-      <c r="B484" s="7">
-        <v>46056</v>
-      </c>
-      <c r="C484" t="s">
-        <v>30</v>
-      </c>
-      <c r="D484" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A485" s="4">
-        <v>17</v>
-      </c>
-      <c r="B485" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D485" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A486">
-        <v>21</v>
-      </c>
-      <c r="B486" s="7">
-        <v>46056</v>
-      </c>
-      <c r="C486" t="s">
-        <v>30</v>
-      </c>
-      <c r="D486" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A487" s="4">
-        <v>17</v>
-      </c>
-      <c r="B487" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A488">
-        <v>21</v>
-      </c>
-      <c r="B488" s="7">
-        <v>46056</v>
-      </c>
-      <c r="C488" t="s">
-        <v>30</v>
-      </c>
-      <c r="D488" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A489" s="4">
-        <v>17</v>
-      </c>
-      <c r="B489" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>153</v>
+      <c r="C489" t="s">
+        <v>15</v>
+      </c>
+      <c r="D489" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B490" s="7">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="C490" t="s">
         <v>15</v>
       </c>
-      <c r="D490" t="s">
+      <c r="D490" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B491" s="7">
-        <v>46056</v>
+        <v>46055</v>
       </c>
       <c r="C491" t="s">
         <v>15</v>
       </c>
-      <c r="D491" s="9" t="s">
-        <v>100</v>
+      <c r="D491" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -12878,20 +12867,20 @@
         <v>15</v>
       </c>
       <c r="D492" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B493" s="7">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="C493" t="s">
         <v>15</v>
       </c>
-      <c r="D493" t="s">
+      <c r="D493" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -12905,22 +12894,22 @@
       <c r="C494" t="s">
         <v>15</v>
       </c>
-      <c r="D494" s="9" t="s">
-        <v>106</v>
+      <c r="D494" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B495" s="7">
-        <v>46056</v>
+        <v>46055</v>
       </c>
       <c r="C495" t="s">
         <v>15</v>
       </c>
       <c r="D495" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
@@ -12934,7 +12923,7 @@
         <v>15</v>
       </c>
       <c r="D496" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -12948,35 +12937,35 @@
         <v>15</v>
       </c>
       <c r="D497" t="s">
-        <v>211</v>
+        <v>105</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B498" s="7">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="C498" t="s">
         <v>15</v>
       </c>
-      <c r="D498" t="s">
+      <c r="D498" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B499" s="7">
         <v>46056</v>
       </c>
       <c r="C499" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D499" s="9" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -12990,7 +12979,7 @@
         <v>22</v>
       </c>
       <c r="D500" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
@@ -13004,7 +12993,7 @@
         <v>22</v>
       </c>
       <c r="D501" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
@@ -13018,7 +13007,7 @@
         <v>22</v>
       </c>
       <c r="D502" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
@@ -13032,7 +13021,7 @@
         <v>22</v>
       </c>
       <c r="D503" s="9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
@@ -13046,7 +13035,7 @@
         <v>22</v>
       </c>
       <c r="D504" s="9" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
@@ -13060,7 +13049,7 @@
         <v>22</v>
       </c>
       <c r="D505" s="9" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
@@ -13074,7 +13063,7 @@
         <v>22</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
@@ -13088,7 +13077,7 @@
         <v>22</v>
       </c>
       <c r="D507" s="9" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
@@ -13102,7 +13091,7 @@
         <v>22</v>
       </c>
       <c r="D508" s="9" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
@@ -13116,7 +13105,7 @@
         <v>22</v>
       </c>
       <c r="D509" s="9" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
@@ -13130,7 +13119,7 @@
         <v>22</v>
       </c>
       <c r="D510" s="9" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
@@ -13141,10 +13130,10 @@
         <v>46056</v>
       </c>
       <c r="C511" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D511" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
@@ -13158,7 +13147,7 @@
         <v>37</v>
       </c>
       <c r="D512" s="9" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
@@ -13172,7 +13161,7 @@
         <v>37</v>
       </c>
       <c r="D513" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
@@ -13186,7 +13175,7 @@
         <v>37</v>
       </c>
       <c r="D514" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
@@ -13200,7 +13189,7 @@
         <v>37</v>
       </c>
       <c r="D515" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
@@ -13214,7 +13203,7 @@
         <v>37</v>
       </c>
       <c r="D516" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
@@ -13228,7 +13217,7 @@
         <v>37</v>
       </c>
       <c r="D517" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
@@ -13242,7 +13231,7 @@
         <v>37</v>
       </c>
       <c r="D518" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
@@ -13256,7 +13245,7 @@
         <v>37</v>
       </c>
       <c r="D519" s="9" t="s">
-        <v>169</v>
+        <v>255</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
@@ -13270,7 +13259,7 @@
         <v>37</v>
       </c>
       <c r="D520" s="9" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -13284,7 +13273,7 @@
         <v>37</v>
       </c>
       <c r="D521" s="9" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
@@ -13298,27 +13287,12 @@
         <v>37</v>
       </c>
       <c r="D522" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A523">
-        <v>22</v>
-      </c>
-      <c r="B523" s="7">
-        <v>46056</v>
-      </c>
-      <c r="C523" t="s">
-        <v>37</v>
-      </c>
-      <c r="D523" s="9" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G523" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G477">
-    <sortCondition ref="A1:A477"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G476">
+    <sortCondition ref="A1:A476"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/PSL02_Compliance_Log.xlsx
+++ b/PSL02_Compliance_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parcopk-my.sharepoint.com/personal/zohaib_hassan_parco_com_pk/Documents/Recordings/Zohaib_Parco/3. Projects/20. PSL App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0980D210-EA31-457E-BD9E-D27E9DE820F6}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2101B4F6-E34C-46B1-976E-1CB4207A61C7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="261">
   <si>
     <t>MatchID</t>
   </si>
@@ -818,6 +818,12 @@
   </si>
   <si>
     <t>Muhammad Bilal Habib</t>
+  </si>
+  <si>
+    <t>Shah Muhammad</t>
+  </si>
+  <si>
+    <t>Shahzad ur Rehman</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1820,6 +1826,20 @@
         <v>37</v>
       </c>
     </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7">
+        <v>46057</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1829,11 +1849,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G522"/>
+  <dimension ref="A1:G547"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13290,6 +13308,356 @@
         <v>258</v>
       </c>
     </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>23</v>
+      </c>
+      <c r="B523" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C523" t="s">
+        <v>36</v>
+      </c>
+      <c r="D523" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>23</v>
+      </c>
+      <c r="B524" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C524" t="s">
+        <v>36</v>
+      </c>
+      <c r="D524" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>23</v>
+      </c>
+      <c r="B525" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C525" t="s">
+        <v>36</v>
+      </c>
+      <c r="D525" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>23</v>
+      </c>
+      <c r="B526" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C526" t="s">
+        <v>36</v>
+      </c>
+      <c r="D526" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>23</v>
+      </c>
+      <c r="B527" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C527" t="s">
+        <v>36</v>
+      </c>
+      <c r="D527" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>23</v>
+      </c>
+      <c r="B528" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C528" t="s">
+        <v>36</v>
+      </c>
+      <c r="D528" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>23</v>
+      </c>
+      <c r="B529" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C529" t="s">
+        <v>36</v>
+      </c>
+      <c r="D529" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>23</v>
+      </c>
+      <c r="B530" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C530" t="s">
+        <v>36</v>
+      </c>
+      <c r="D530" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>23</v>
+      </c>
+      <c r="B531" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C531" t="s">
+        <v>36</v>
+      </c>
+      <c r="D531" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>23</v>
+      </c>
+      <c r="B532" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C532" t="s">
+        <v>36</v>
+      </c>
+      <c r="D532" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>23</v>
+      </c>
+      <c r="B533" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C533" t="s">
+        <v>36</v>
+      </c>
+      <c r="D533" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>23</v>
+      </c>
+      <c r="B534" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C534" t="s">
+        <v>36</v>
+      </c>
+      <c r="D534" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>23</v>
+      </c>
+      <c r="B535" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C535" t="s">
+        <v>16</v>
+      </c>
+      <c r="D535" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>23</v>
+      </c>
+      <c r="B536" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C536" t="s">
+        <v>16</v>
+      </c>
+      <c r="D536" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>23</v>
+      </c>
+      <c r="B537" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C537" t="s">
+        <v>16</v>
+      </c>
+      <c r="D537" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>23</v>
+      </c>
+      <c r="B538" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C538" t="s">
+        <v>16</v>
+      </c>
+      <c r="D538" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>23</v>
+      </c>
+      <c r="B539" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C539" t="s">
+        <v>16</v>
+      </c>
+      <c r="D539" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>23</v>
+      </c>
+      <c r="B540" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C540" t="s">
+        <v>16</v>
+      </c>
+      <c r="D540" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>23</v>
+      </c>
+      <c r="B541" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C541" t="s">
+        <v>16</v>
+      </c>
+      <c r="D541" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>23</v>
+      </c>
+      <c r="B542" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C542" t="s">
+        <v>16</v>
+      </c>
+      <c r="D542" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>23</v>
+      </c>
+      <c r="B543" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C543" t="s">
+        <v>16</v>
+      </c>
+      <c r="D543" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>23</v>
+      </c>
+      <c r="B544" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C544" t="s">
+        <v>16</v>
+      </c>
+      <c r="D544" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>23</v>
+      </c>
+      <c r="B545" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C545" t="s">
+        <v>16</v>
+      </c>
+      <c r="D545" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>23</v>
+      </c>
+      <c r="B546" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C546" t="s">
+        <v>16</v>
+      </c>
+      <c r="D546" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>23</v>
+      </c>
+      <c r="B547" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C547" t="s">
+        <v>16</v>
+      </c>
+      <c r="D547" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G476">
     <sortCondition ref="A1:A476"/>

--- a/PSL02_Compliance_Log.xlsx
+++ b/PSL02_Compliance_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parcopk-my.sharepoint.com/personal/zohaib_hassan_parco_com_pk/Documents/Recordings/Zohaib_Parco/3. Projects/20. PSL App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2101B4F6-E34C-46B1-976E-1CB4207A61C7}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1421EA83-FD0E-42F6-9248-A1E69A382508}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Appearances" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$522</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$547</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matches!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="264">
   <si>
     <t>MatchID</t>
   </si>
@@ -824,6 +824,15 @@
   </si>
   <si>
     <t>Shahzad ur Rehman</t>
+  </si>
+  <si>
+    <t>Mustafa Kamal Sherwani</t>
+  </si>
+  <si>
+    <t>Shahmir</t>
+  </si>
+  <si>
+    <t>Yahya Shahid</t>
   </si>
 </sst>
 </file>
@@ -891,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -916,6 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1840,6 +1850,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7">
+        <v>46057</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1849,9 +1873,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G547"/>
+  <dimension ref="A1:G574"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13658,7 +13684,386 @@
         <v>108</v>
       </c>
     </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>24</v>
+      </c>
+      <c r="B548" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C548" t="s">
+        <v>29</v>
+      </c>
+      <c r="D548" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>24</v>
+      </c>
+      <c r="B549" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C549" t="s">
+        <v>29</v>
+      </c>
+      <c r="D549" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>24</v>
+      </c>
+      <c r="B550" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C550" t="s">
+        <v>29</v>
+      </c>
+      <c r="D550" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>24</v>
+      </c>
+      <c r="B551" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C551" t="s">
+        <v>29</v>
+      </c>
+      <c r="D551" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>24</v>
+      </c>
+      <c r="B552" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C552" t="s">
+        <v>29</v>
+      </c>
+      <c r="D552" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>24</v>
+      </c>
+      <c r="B553" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C553" t="s">
+        <v>29</v>
+      </c>
+      <c r="D553" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>24</v>
+      </c>
+      <c r="B554" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C554" t="s">
+        <v>29</v>
+      </c>
+      <c r="D554" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>24</v>
+      </c>
+      <c r="B555" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C555" t="s">
+        <v>29</v>
+      </c>
+      <c r="D555" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>24</v>
+      </c>
+      <c r="B556" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C556" t="s">
+        <v>29</v>
+      </c>
+      <c r="D556" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>24</v>
+      </c>
+      <c r="B557" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C557" t="s">
+        <v>29</v>
+      </c>
+      <c r="D557" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>24</v>
+      </c>
+      <c r="B558" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C558" t="s">
+        <v>29</v>
+      </c>
+      <c r="D558" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>24</v>
+      </c>
+      <c r="B559" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C559" t="s">
+        <v>29</v>
+      </c>
+      <c r="D559" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>24</v>
+      </c>
+      <c r="B560" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C560" t="s">
+        <v>29</v>
+      </c>
+      <c r="D560" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>24</v>
+      </c>
+      <c r="B561" s="7">
+        <v>46057</v>
+      </c>
+      <c r="C561" t="s">
+        <v>29</v>
+      </c>
+      <c r="D561" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>24</v>
+      </c>
+      <c r="B562" s="7">
+        <v>45326</v>
+      </c>
+      <c r="C562" t="s">
+        <v>23</v>
+      </c>
+      <c r="D562" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>24</v>
+      </c>
+      <c r="B563" s="7">
+        <v>45326</v>
+      </c>
+      <c r="C563" t="s">
+        <v>23</v>
+      </c>
+      <c r="D563" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>24</v>
+      </c>
+      <c r="B564" s="7">
+        <v>45326</v>
+      </c>
+      <c r="C564" t="s">
+        <v>23</v>
+      </c>
+      <c r="D564" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>24</v>
+      </c>
+      <c r="B565" s="7">
+        <v>45326</v>
+      </c>
+      <c r="C565" t="s">
+        <v>23</v>
+      </c>
+      <c r="D565" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>24</v>
+      </c>
+      <c r="B566" s="7">
+        <v>45326</v>
+      </c>
+      <c r="C566" t="s">
+        <v>23</v>
+      </c>
+      <c r="D566" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>24</v>
+      </c>
+      <c r="B567" s="7">
+        <v>45326</v>
+      </c>
+      <c r="C567" t="s">
+        <v>23</v>
+      </c>
+      <c r="D567" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>24</v>
+      </c>
+      <c r="B568" s="7">
+        <v>45326</v>
+      </c>
+      <c r="C568" t="s">
+        <v>23</v>
+      </c>
+      <c r="D568" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>24</v>
+      </c>
+      <c r="B569" s="7">
+        <v>45326</v>
+      </c>
+      <c r="C569" t="s">
+        <v>23</v>
+      </c>
+      <c r="D569" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>24</v>
+      </c>
+      <c r="B570" s="7">
+        <v>45326</v>
+      </c>
+      <c r="C570" t="s">
+        <v>23</v>
+      </c>
+      <c r="D570" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>24</v>
+      </c>
+      <c r="B571" s="7">
+        <v>45326</v>
+      </c>
+      <c r="C571" t="s">
+        <v>23</v>
+      </c>
+      <c r="D571" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>24</v>
+      </c>
+      <c r="B572" s="7">
+        <v>45326</v>
+      </c>
+      <c r="C572" t="s">
+        <v>23</v>
+      </c>
+      <c r="D572" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>24</v>
+      </c>
+      <c r="B573" s="7">
+        <v>45326</v>
+      </c>
+      <c r="C573" t="s">
+        <v>23</v>
+      </c>
+      <c r="D573" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>24</v>
+      </c>
+      <c r="B574" s="7">
+        <v>45326</v>
+      </c>
+      <c r="C574" t="s">
+        <v>23</v>
+      </c>
+      <c r="D574" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G547" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G476">
     <sortCondition ref="A1:A476"/>
   </sortState>

--- a/PSL02_Compliance_Log.xlsx
+++ b/PSL02_Compliance_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parcopk-my.sharepoint.com/personal/zohaib_hassan_parco_com_pk/Documents/Recordings/Zohaib_Parco/3. Projects/20. PSL App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F8D093-1BB8-445A-BCB9-2C4E80FA7B50}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5279781-C514-4E62-B814-72B1690CDBCB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Appearances" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$573</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$599</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matches!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="259">
   <si>
     <t>MatchID</t>
   </si>
@@ -640,9 +640,6 @@
     <t>Muhammad Hameed Alam Khan</t>
   </si>
   <si>
-    <t>Muhammad Bilal</t>
-  </si>
-  <si>
     <t>Muhammad Idrees</t>
   </si>
   <si>
@@ -686,9 +683,6 @@
   </si>
   <si>
     <t xml:space="preserve">Shabbir Sultan (c) </t>
-  </si>
-  <si>
-    <t>Syed Hammad Ahmed</t>
   </si>
   <si>
     <t>Muhammad Zubair</t>
@@ -1781,7 +1775,7 @@
         <v>29</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1879,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A573" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A587" sqref="A587:C599"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2259,7 +2253,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3112,10 +3106,10 @@
         <v>46049</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E53" t="s">
         <v>99</v>
@@ -3243,7 +3237,7 @@
         <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E59" t="s">
         <v>99</v>
@@ -3268,7 +3262,7 @@
         <v>30</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -3432,10 +3426,10 @@
         <v>46049</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="E68" t="s">
         <v>99</v>
@@ -3493,10 +3487,10 @@
         <v>46049</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
         <v>99</v>
@@ -3699,7 +3693,7 @@
         <v>37</v>
       </c>
       <c r="D80" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3763,7 +3757,7 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E83" t="s">
         <v>99</v>
@@ -3841,7 +3835,7 @@
         <v>37</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F87" t="b">
         <f>FALSE()</f>
@@ -3863,7 +3857,7 @@
         <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3877,7 +3871,7 @@
         <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E89" t="s">
         <v>99</v>
@@ -3927,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -4563,10 +4557,10 @@
         <v>46049</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D120" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E120" t="s">
         <v>99</v>
@@ -4958,10 +4952,10 @@
         <v>46049</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D138" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E138" t="s">
         <v>99</v>
@@ -5220,7 +5214,7 @@
         <v>36</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -5234,7 +5228,7 @@
         <v>36</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -5498,7 +5492,7 @@
         <v>36</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -5512,7 +5506,7 @@
         <v>36</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -5615,7 +5609,7 @@
         <v>29</v>
       </c>
       <c r="D169" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5701,17 +5695,17 @@
         <v>46049</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D173" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="E173" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F173" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
         <f>FALSE()</f>
@@ -5743,7 +5737,7 @@
         <v>29</v>
       </c>
       <c r="D175" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E175" t="s">
         <v>99</v>
@@ -5768,7 +5762,7 @@
         <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E176" t="s">
         <v>99</v>
@@ -5790,10 +5784,10 @@
         <v>46049</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D177" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="E177" t="s">
         <v>99</v>
@@ -5818,7 +5812,7 @@
         <v>29</v>
       </c>
       <c r="D178" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -6038,7 +6032,7 @@
         <v>29</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -6077,7 +6071,7 @@
         <v>37</v>
       </c>
       <c r="D191" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="E191" t="s">
         <v>99</v>
@@ -6319,7 +6313,7 @@
         <v>37</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -6383,10 +6377,7 @@
         <v>37</v>
       </c>
       <c r="D205" t="s">
-        <v>165</v>
-      </c>
-      <c r="E205" t="s">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="F205" t="b">
         <f>FALSE()</f>
@@ -6511,7 +6502,7 @@
         <v>37</v>
       </c>
       <c r="D211" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E211" t="s">
         <v>99</v>
@@ -6703,7 +6694,7 @@
         <v>150</v>
       </c>
       <c r="E219" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F219" t="b">
         <f>FALSE()</f>
@@ -6845,7 +6836,7 @@
         <v>22</v>
       </c>
       <c r="D227" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E227" t="s">
         <v>99</v>
@@ -6870,7 +6861,7 @@
         <v>22</v>
       </c>
       <c r="D228" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E228" t="s">
         <v>99</v>
@@ -6895,7 +6886,7 @@
         <v>22</v>
       </c>
       <c r="D229" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E229" t="s">
         <v>99</v>
@@ -6920,7 +6911,7 @@
         <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E230" t="s">
         <v>99</v>
@@ -6945,7 +6936,7 @@
         <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -6959,7 +6950,7 @@
         <v>22</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -7012,7 +7003,7 @@
         <v>30</v>
       </c>
       <c r="D235" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E235" t="s">
         <v>99</v>
@@ -7037,7 +7028,7 @@
         <v>30</v>
       </c>
       <c r="D236" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E236" t="s">
         <v>99</v>
@@ -7240,7 +7231,7 @@
         <v>36</v>
       </c>
       <c r="D245" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E245" t="s">
         <v>99</v>
@@ -7265,7 +7256,7 @@
         <v>36</v>
       </c>
       <c r="D246" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E246" t="s">
         <v>99</v>
@@ -7290,7 +7281,7 @@
         <v>36</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -7304,7 +7295,7 @@
         <v>36</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -7599,7 +7590,7 @@
         <v>29</v>
       </c>
       <c r="D262" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -7613,7 +7604,7 @@
         <v>29</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -7713,10 +7704,10 @@
         <v>46049</v>
       </c>
       <c r="C268" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D268" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E268" t="s">
         <v>99</v>
@@ -7841,10 +7832,10 @@
         <v>46049</v>
       </c>
       <c r="C274" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D274" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E274" t="s">
         <v>99</v>
@@ -7891,10 +7882,10 @@
         <v>46049</v>
       </c>
       <c r="C276" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D276" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="E276" t="s">
         <v>99</v>
@@ -7944,7 +7935,7 @@
         <v>37</v>
       </c>
       <c r="D278" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E278" t="s">
         <v>99</v>
@@ -7969,7 +7960,7 @@
         <v>37</v>
       </c>
       <c r="D279" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E279" t="s">
         <v>99</v>
@@ -7991,10 +7982,10 @@
         <v>46049</v>
       </c>
       <c r="C280" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D280" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="E280" t="s">
         <v>99</v>
@@ -8019,7 +8010,7 @@
         <v>37</v>
       </c>
       <c r="D281" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E281" t="s">
         <v>99</v>
@@ -8044,7 +8035,7 @@
         <v>37</v>
       </c>
       <c r="D282" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -8058,7 +8049,7 @@
         <v>37</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -8325,7 +8316,7 @@
         <v>36</v>
       </c>
       <c r="D295" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E295" t="s">
         <v>99</v>
@@ -8350,7 +8341,7 @@
         <v>36</v>
       </c>
       <c r="D296" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E296" t="s">
         <v>99</v>
@@ -8375,7 +8366,7 @@
         <v>36</v>
       </c>
       <c r="D297" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E297" t="s">
         <v>99</v>
@@ -8400,7 +8391,7 @@
         <v>36</v>
       </c>
       <c r="D298" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E298" t="s">
         <v>99</v>
@@ -8453,7 +8444,7 @@
         <v>22</v>
       </c>
       <c r="D301" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E301" t="s">
         <v>99</v>
@@ -8478,7 +8469,7 @@
         <v>22</v>
       </c>
       <c r="D302" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E302" t="s">
         <v>99</v>
@@ -8503,7 +8494,7 @@
         <v>22</v>
       </c>
       <c r="D303" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E303" t="s">
         <v>99</v>
@@ -8528,7 +8519,7 @@
         <v>22</v>
       </c>
       <c r="D304" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
@@ -8542,7 +8533,7 @@
         <v>22</v>
       </c>
       <c r="D305" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E305" t="s">
         <v>99</v>
@@ -8567,7 +8558,7 @@
         <v>22</v>
       </c>
       <c r="D306" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E306" t="s">
         <v>99</v>
@@ -8592,7 +8583,7 @@
         <v>22</v>
       </c>
       <c r="D307" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E307" t="s">
         <v>99</v>
@@ -8617,7 +8608,7 @@
         <v>22</v>
       </c>
       <c r="D308" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E308" t="s">
         <v>99</v>
@@ -8642,7 +8633,7 @@
         <v>30</v>
       </c>
       <c r="D309" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E309" t="s">
         <v>99</v>
@@ -8689,10 +8680,10 @@
         <v>46049</v>
       </c>
       <c r="C311" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D311" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="E311" t="s">
         <v>99</v>
@@ -8795,7 +8786,7 @@
         <v>37</v>
       </c>
       <c r="D316" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
@@ -8809,7 +8800,7 @@
         <v>37</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
@@ -8823,7 +8814,7 @@
         <v>37</v>
       </c>
       <c r="D318" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E318" t="s">
         <v>109</v>
@@ -8848,7 +8839,7 @@
         <v>37</v>
       </c>
       <c r="D319" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E319" t="s">
         <v>109</v>
@@ -8870,17 +8861,17 @@
         <v>46049</v>
       </c>
       <c r="C320" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D320" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="E320" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F320" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G320" t="b">
         <f>FALSE()</f>
@@ -8898,10 +8889,10 @@
         <v>37</v>
       </c>
       <c r="D321" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E321" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F321" t="b">
         <f>TRUE()</f>
@@ -8923,7 +8914,7 @@
         <v>37</v>
       </c>
       <c r="D322" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F322" t="b">
         <f>FALSE()</f>
@@ -9048,7 +9039,7 @@
         <v>30</v>
       </c>
       <c r="D328" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F328" t="b">
         <f>FALSE()</f>
@@ -9070,7 +9061,7 @@
         <v>30</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
@@ -9109,7 +9100,7 @@
         <v>30</v>
       </c>
       <c r="D331" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E331" t="s">
         <v>99</v>
@@ -9134,7 +9125,7 @@
         <v>30</v>
       </c>
       <c r="D332" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E332" t="s">
         <v>99</v>
@@ -9209,7 +9200,7 @@
         <v>30</v>
       </c>
       <c r="D335" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E335" t="s">
         <v>99</v>
@@ -9234,7 +9225,7 @@
         <v>30</v>
       </c>
       <c r="D336" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E336" t="s">
         <v>99</v>
@@ -9259,7 +9250,7 @@
         <v>30</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
@@ -9273,7 +9264,7 @@
         <v>30</v>
       </c>
       <c r="D338" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
@@ -9287,7 +9278,7 @@
         <v>30</v>
       </c>
       <c r="D339" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E339" t="s">
         <v>99</v>
@@ -9312,7 +9303,7 @@
         <v>30</v>
       </c>
       <c r="D340" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E340" t="s">
         <v>99</v>
@@ -9337,7 +9328,7 @@
         <v>30</v>
       </c>
       <c r="D341" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E341" t="s">
         <v>99</v>
@@ -9362,7 +9353,7 @@
         <v>30</v>
       </c>
       <c r="D342" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E342" t="s">
         <v>99</v>
@@ -9387,7 +9378,7 @@
         <v>30</v>
       </c>
       <c r="D343" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E343" t="s">
         <v>99</v>
@@ -9412,7 +9403,7 @@
         <v>30</v>
       </c>
       <c r="D344" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E344" t="s">
         <v>99</v>
@@ -9437,7 +9428,7 @@
         <v>30</v>
       </c>
       <c r="D345" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E345" t="s">
         <v>99</v>
@@ -9462,7 +9453,7 @@
         <v>30</v>
       </c>
       <c r="D346" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E346" t="s">
         <v>99</v>
@@ -9490,7 +9481,7 @@
         <v>127</v>
       </c>
       <c r="E347" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F347" t="b">
         <f>TRUE()</f>
@@ -9762,7 +9753,7 @@
         <v>22</v>
       </c>
       <c r="D358" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
@@ -9815,7 +9806,7 @@
         <v>22</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
@@ -10238,7 +10229,7 @@
         <v>36</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.3">
@@ -10252,7 +10243,7 @@
         <v>36</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
@@ -10480,7 +10471,7 @@
         <v>30</v>
       </c>
       <c r="D393" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E393" t="s">
         <v>99</v>
@@ -10505,7 +10496,7 @@
         <v>30</v>
       </c>
       <c r="D394" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E394" t="s">
         <v>99</v>
@@ -10530,7 +10521,7 @@
         <v>30</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
@@ -10544,7 +10535,7 @@
         <v>30</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
@@ -10558,7 +10549,7 @@
         <v>30</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.3">
@@ -10572,7 +10563,7 @@
         <v>30</v>
       </c>
       <c r="D398" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
@@ -10700,7 +10691,7 @@
         <v>23</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
@@ -10714,7 +10705,7 @@
         <v>23</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
@@ -10742,7 +10733,7 @@
         <v>23</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
@@ -10770,7 +10761,7 @@
         <v>23</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
@@ -10784,7 +10775,7 @@
         <v>23</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.3">
@@ -10812,7 +10803,7 @@
         <v>23</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.3">
@@ -10868,7 +10859,7 @@
         <v>23</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.3">
@@ -10946,7 +10937,7 @@
         <v>16</v>
       </c>
       <c r="D420" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.3">
@@ -10960,7 +10951,7 @@
         <v>16</v>
       </c>
       <c r="D421" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
@@ -11263,7 +11254,7 @@
         <v>22</v>
       </c>
       <c r="D435" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E435" t="s">
         <v>99</v>
@@ -11288,7 +11279,7 @@
         <v>22</v>
       </c>
       <c r="D436" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.3">
@@ -11302,7 +11293,7 @@
         <v>22</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.3">
@@ -11316,7 +11307,7 @@
         <v>22</v>
       </c>
       <c r="D438" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.3">
@@ -11330,7 +11321,7 @@
         <v>22</v>
       </c>
       <c r="D439" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.3">
@@ -11344,7 +11335,7 @@
         <v>22</v>
       </c>
       <c r="D440" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E440" t="s">
         <v>99</v>
@@ -11469,7 +11460,7 @@
         <v>29</v>
       </c>
       <c r="D446" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="E446" t="s">
         <v>99</v>
@@ -11522,7 +11513,7 @@
         <v>29</v>
       </c>
       <c r="D449" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.3">
@@ -11911,10 +11902,10 @@
         <v>46049</v>
       </c>
       <c r="C467" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D467" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="E467" t="s">
         <v>99</v>
@@ -11989,10 +11980,13 @@
         <v>46049</v>
       </c>
       <c r="C471" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D471" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="E471" t="s">
+        <v>99</v>
       </c>
       <c r="F471" t="b">
         <f>FALSE()</f>
@@ -12061,10 +12055,10 @@
         <v>46049</v>
       </c>
       <c r="C474" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D474" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="E474" t="s">
         <v>99</v>
@@ -12142,7 +12136,7 @@
         <v>30</v>
       </c>
       <c r="D478" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E478" t="s">
         <v>109</v>
@@ -12167,7 +12161,7 @@
         <v>30</v>
       </c>
       <c r="D479" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E479" t="s">
         <v>109</v>
@@ -12192,7 +12186,7 @@
         <v>30</v>
       </c>
       <c r="D480" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E480" t="s">
         <v>99</v>
@@ -12217,7 +12211,7 @@
         <v>30</v>
       </c>
       <c r="D481" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E481" t="s">
         <v>109</v>
@@ -12242,7 +12236,7 @@
         <v>30</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.3">
@@ -12256,7 +12250,7 @@
         <v>30</v>
       </c>
       <c r="D483" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.3">
@@ -12420,7 +12414,7 @@
         <v>15</v>
       </c>
       <c r="D491" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E491" t="s">
         <v>99</v>
@@ -12445,7 +12439,7 @@
         <v>15</v>
       </c>
       <c r="D492" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.3">
@@ -12587,7 +12581,7 @@
         <v>22</v>
       </c>
       <c r="D499" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.3">
@@ -12904,10 +12898,10 @@
         <v>46049</v>
       </c>
       <c r="C514" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D514" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E514" t="s">
         <v>99</v>
@@ -13007,10 +13001,10 @@
         <v>46049</v>
       </c>
       <c r="C519" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D519" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E519" t="s">
         <v>99</v>
@@ -13138,7 +13132,7 @@
         <v>36</v>
       </c>
       <c r="D525" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E525" t="s">
         <v>99</v>
@@ -13163,7 +13157,7 @@
         <v>36</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.3">
@@ -13177,7 +13171,7 @@
         <v>36</v>
       </c>
       <c r="D527" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.3">
@@ -13263,7 +13257,7 @@
         <v>36</v>
       </c>
       <c r="D531" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E531" t="s">
         <v>109</v>
@@ -13288,7 +13282,7 @@
         <v>36</v>
       </c>
       <c r="D532" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E532" t="s">
         <v>109</v>
@@ -13313,7 +13307,7 @@
         <v>36</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.3">
@@ -13327,7 +13321,7 @@
         <v>36</v>
       </c>
       <c r="D534" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.3">
@@ -13380,7 +13374,7 @@
         <v>16</v>
       </c>
       <c r="D537" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.3">
@@ -13394,7 +13388,7 @@
         <v>16</v>
       </c>
       <c r="D538" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E538" t="s">
         <v>99</v>
@@ -13419,7 +13413,7 @@
         <v>16</v>
       </c>
       <c r="D539" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E539" t="s">
         <v>99</v>
@@ -13444,7 +13438,7 @@
         <v>16</v>
       </c>
       <c r="D540" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E540" t="s">
         <v>99</v>
@@ -13469,7 +13463,7 @@
         <v>16</v>
       </c>
       <c r="D541" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E541" t="s">
         <v>99</v>
@@ -13494,7 +13488,7 @@
         <v>16</v>
       </c>
       <c r="D542" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.3">
@@ -13951,7 +13945,7 @@
         <v>23</v>
       </c>
       <c r="D566" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
@@ -14007,7 +14001,7 @@
         <v>23</v>
       </c>
       <c r="D570" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
@@ -14049,7 +14043,7 @@
         <v>23</v>
       </c>
       <c r="D573" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
@@ -14091,7 +14085,7 @@
         <v>22</v>
       </c>
       <c r="D576" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
@@ -14105,7 +14099,7 @@
         <v>22</v>
       </c>
       <c r="D577" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
@@ -14189,7 +14183,7 @@
         <v>22</v>
       </c>
       <c r="D583" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
@@ -14203,7 +14197,7 @@
         <v>22</v>
       </c>
       <c r="D584" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
@@ -14217,7 +14211,7 @@
         <v>22</v>
       </c>
       <c r="D585" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
@@ -14357,7 +14351,7 @@
         <v>15</v>
       </c>
       <c r="D595" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
@@ -14413,11 +14407,10 @@
         <v>15</v>
       </c>
       <c r="D599" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G573" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G476">
     <sortCondition ref="A1:A476"/>
   </sortState>

--- a/PSL02_Compliance_Log.xlsx
+++ b/PSL02_Compliance_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parcopk-my.sharepoint.com/personal/zohaib_hassan_parco_com_pk/Documents/Recordings/Zohaib_Parco/3. Projects/20. PSL App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5279781-C514-4E62-B814-72B1690CDBCB}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="11_F90E9778B53050763575F67EE49C1BF8469E97A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0A1F6D2-3D0C-4BC1-81F5-0F21CC7B9268}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Appearances" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$599</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Appearances!$A$1:$G$624</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matches!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="259">
   <si>
     <t>MatchID</t>
   </si>
@@ -1106,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,6 +1862,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7">
+        <v>46059</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1871,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G599"/>
+  <dimension ref="A1:G624"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H210" sqref="H210"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3228,66 +3242,55 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>14</v>
-      </c>
-      <c r="B59" s="2">
-        <v>46050</v>
+        <v>26</v>
+      </c>
+      <c r="B59" s="7">
+        <v>46059</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>222</v>
-      </c>
-      <c r="E59" t="s">
-        <v>99</v>
-      </c>
-      <c r="F59" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G59" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>21</v>
-      </c>
-      <c r="B60" s="7">
-        <v>46056</v>
+        <v>14</v>
+      </c>
+      <c r="B60" s="2">
+        <v>46050</v>
       </c>
       <c r="C60" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>248</v>
+      <c r="D60" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2">
-        <v>46041</v>
+        <v>21</v>
+      </c>
+      <c r="B61" s="7">
+        <v>46056</v>
       </c>
       <c r="C61" t="s">
         <v>30</v>
       </c>
-      <c r="D61" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" t="s">
-        <v>99</v>
-      </c>
-      <c r="F61" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G61" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="D61" s="9" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -3331,10 +3334,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B64" s="2">
-        <v>46050</v>
+        <v>46041</v>
       </c>
       <c r="C64" t="s">
         <v>30</v>
@@ -3356,10 +3359,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65" s="2">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
@@ -3380,17 +3383,28 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>17</v>
-      </c>
-      <c r="B66" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="A66">
+        <v>15</v>
+      </c>
+      <c r="B66" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C66" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" t="s">
         <v>155</v>
+      </c>
+      <c r="E66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F66" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -6592,75 +6606,53 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215">
-        <v>21</v>
-      </c>
-      <c r="B215" s="7">
-        <v>46056</v>
-      </c>
-      <c r="C215" t="s">
+      <c r="A215" s="4">
+        <v>17</v>
+      </c>
+      <c r="B215" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D215" s="9" t="s">
+      <c r="D215" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>3</v>
-      </c>
-      <c r="B216" s="2">
-        <v>46041</v>
+        <v>21</v>
+      </c>
+      <c r="B216" s="7">
+        <v>46056</v>
       </c>
       <c r="C216" t="s">
         <v>30</v>
       </c>
-      <c r="D216" t="s">
-        <v>150</v>
-      </c>
-      <c r="E216" t="s">
-        <v>99</v>
-      </c>
-      <c r="F216" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G216" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="D216" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>10</v>
-      </c>
-      <c r="B217" s="2">
-        <v>46048</v>
+        <v>26</v>
+      </c>
+      <c r="B217" s="7">
+        <v>46059</v>
       </c>
       <c r="C217" t="s">
         <v>30</v>
       </c>
       <c r="D217" t="s">
-        <v>150</v>
-      </c>
-      <c r="E217" t="s">
-        <v>99</v>
-      </c>
-      <c r="F217" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G217" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B218" s="2">
-        <v>46050</v>
+        <v>46041</v>
       </c>
       <c r="C218" t="s">
         <v>30</v>
@@ -6682,10 +6674,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B219" s="2">
-        <v>46051</v>
+        <v>46048</v>
       </c>
       <c r="C219" t="s">
         <v>30</v>
@@ -6694,82 +6686,93 @@
         <v>150</v>
       </c>
       <c r="E219" t="s">
+        <v>99</v>
+      </c>
+      <c r="F219" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G219" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>14</v>
+      </c>
+      <c r="B220" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D220" t="s">
+        <v>150</v>
+      </c>
+      <c r="E220" t="s">
+        <v>99</v>
+      </c>
+      <c r="F220" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G220" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>15</v>
+      </c>
+      <c r="B221" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C221" t="s">
+        <v>30</v>
+      </c>
+      <c r="D221" t="s">
+        <v>150</v>
+      </c>
+      <c r="E221" t="s">
         <v>223</v>
       </c>
-      <c r="F219" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G219" t="b">
+      <c r="F221" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G221" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="4">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="4">
         <v>17</v>
       </c>
-      <c r="B220" s="5">
+      <c r="B222" s="5">
         <v>46052</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C222" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D222" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223">
         <v>21</v>
       </c>
-      <c r="B221" s="7">
+      <c r="B223" s="7">
         <v>46056</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C223" t="s">
         <v>30</v>
       </c>
-      <c r="D221" s="9" t="s">
+      <c r="D223" s="9" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222">
-        <v>3</v>
-      </c>
-      <c r="B222" s="2">
-        <v>46041</v>
-      </c>
-      <c r="C222" t="s">
-        <v>30</v>
-      </c>
-      <c r="D222" t="s">
-        <v>152</v>
-      </c>
-      <c r="E222" t="s">
-        <v>99</v>
-      </c>
-      <c r="F222" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G222" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="4">
-        <v>17</v>
-      </c>
-      <c r="B223" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -6980,30 +6983,30 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B234" s="7">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="C234" t="s">
         <v>30</v>
       </c>
       <c r="D234" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B235" s="2">
-        <v>46048</v>
+        <v>46041</v>
       </c>
       <c r="C235" t="s">
         <v>30</v>
       </c>
       <c r="D235" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="E235" t="s">
         <v>99</v>
@@ -7018,28 +7021,17 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236">
-        <v>15</v>
-      </c>
-      <c r="B236" s="2">
-        <v>46051</v>
-      </c>
-      <c r="C236" t="s">
+      <c r="A236" s="4">
+        <v>17</v>
+      </c>
+      <c r="B236" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D236" t="s">
-        <v>201</v>
-      </c>
-      <c r="E236" t="s">
-        <v>99</v>
-      </c>
-      <c r="F236" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G236" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="D236" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -8624,27 +8616,16 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>10</v>
-      </c>
-      <c r="B309" s="2">
-        <v>46048</v>
+        <v>21</v>
+      </c>
+      <c r="B309" s="7">
+        <v>46056</v>
       </c>
       <c r="C309" t="s">
         <v>30</v>
       </c>
       <c r="D309" t="s">
-        <v>202</v>
-      </c>
-      <c r="E309" t="s">
-        <v>99</v>
-      </c>
-      <c r="F309" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G309" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -8699,16 +8680,16 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B312" s="2">
-        <v>46041</v>
+        <v>46048</v>
       </c>
       <c r="C312" t="s">
         <v>30</v>
       </c>
       <c r="D312" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="E312" t="s">
         <v>99</v>
@@ -8927,16 +8908,16 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B323" s="2">
-        <v>46048</v>
+        <v>46051</v>
       </c>
       <c r="C323" t="s">
         <v>30</v>
       </c>
       <c r="D323" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="E323" t="s">
         <v>99</v>
@@ -8952,99 +8933,113 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>14</v>
-      </c>
-      <c r="B324" s="2">
-        <v>46050</v>
+        <v>26</v>
+      </c>
+      <c r="B324" s="7">
+        <v>46059</v>
       </c>
       <c r="C324" t="s">
         <v>30</v>
       </c>
       <c r="D324" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>10</v>
+      </c>
+      <c r="B325" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C325" t="s">
+        <v>30</v>
+      </c>
+      <c r="D325" t="s">
+        <v>202</v>
+      </c>
+      <c r="E325" t="s">
+        <v>99</v>
+      </c>
+      <c r="F325" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G325" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>3</v>
+      </c>
+      <c r="B326" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C326" t="s">
+        <v>30</v>
+      </c>
+      <c r="D326" t="s">
         <v>148</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E326" t="s">
+        <v>99</v>
+      </c>
+      <c r="F326" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G326" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>10</v>
+      </c>
+      <c r="B327" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C327" t="s">
+        <v>30</v>
+      </c>
+      <c r="D327" t="s">
+        <v>148</v>
+      </c>
+      <c r="E327" t="s">
+        <v>99</v>
+      </c>
+      <c r="F327" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G327" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>14</v>
+      </c>
+      <c r="B328" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C328" t="s">
+        <v>30</v>
+      </c>
+      <c r="D328" t="s">
+        <v>148</v>
+      </c>
+      <c r="E328" t="s">
         <v>109</v>
       </c>
-      <c r="F324" t="b">
+      <c r="F328" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G324" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A325">
-        <v>15</v>
-      </c>
-      <c r="B325" s="2">
-        <v>46051</v>
-      </c>
-      <c r="C325" t="s">
-        <v>30</v>
-      </c>
-      <c r="D325" t="s">
-        <v>148</v>
-      </c>
-      <c r="E325" t="s">
-        <v>99</v>
-      </c>
-      <c r="F325" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G325" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A326">
-        <v>21</v>
-      </c>
-      <c r="B326" s="7">
-        <v>46056</v>
-      </c>
-      <c r="C326" t="s">
-        <v>30</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A327" s="4">
-        <v>17</v>
-      </c>
-      <c r="B327" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A328">
-        <v>10</v>
-      </c>
-      <c r="B328" s="2">
-        <v>46048</v>
-      </c>
-      <c r="C328" t="s">
-        <v>30</v>
-      </c>
-      <c r="D328" t="s">
-        <v>204</v>
-      </c>
-      <c r="F328" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
       <c r="G328" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -9052,91 +9047,69 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>21</v>
-      </c>
-      <c r="B329" s="7">
-        <v>46056</v>
+        <v>15</v>
+      </c>
+      <c r="B329" s="2">
+        <v>46051</v>
       </c>
       <c r="C329" t="s">
         <v>30</v>
       </c>
-      <c r="D329" s="9" t="s">
-        <v>204</v>
+      <c r="D329" t="s">
+        <v>148</v>
+      </c>
+      <c r="E329" t="s">
+        <v>99</v>
+      </c>
+      <c r="F329" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G329" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>3</v>
-      </c>
-      <c r="B330" s="2">
-        <v>46041</v>
+        <v>21</v>
+      </c>
+      <c r="B330" s="7">
+        <v>46056</v>
       </c>
       <c r="C330" t="s">
         <v>30</v>
       </c>
-      <c r="D330" t="s">
-        <v>154</v>
-      </c>
-      <c r="E330" t="s">
-        <v>99</v>
-      </c>
-      <c r="F330" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G330" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="D330" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A331">
-        <v>3</v>
-      </c>
-      <c r="B331" s="2">
-        <v>46041</v>
-      </c>
-      <c r="C331" t="s">
+      <c r="A331" s="4">
+        <v>17</v>
+      </c>
+      <c r="B331" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C331" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D331" t="s">
-        <v>200</v>
-      </c>
-      <c r="E331" t="s">
-        <v>99</v>
-      </c>
-      <c r="F331" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G331" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="D331" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>10</v>
-      </c>
-      <c r="B332" s="2">
-        <v>46048</v>
+        <v>26</v>
+      </c>
+      <c r="B332" s="7">
+        <v>46059</v>
       </c>
       <c r="C332" t="s">
         <v>30</v>
       </c>
       <c r="D332" t="s">
-        <v>200</v>
-      </c>
-      <c r="E332" t="s">
-        <v>99</v>
-      </c>
-      <c r="F332" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G332" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
@@ -9191,19 +9164,16 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B335" s="2">
-        <v>46050</v>
+        <v>46048</v>
       </c>
       <c r="C335" t="s">
         <v>30</v>
       </c>
       <c r="D335" t="s">
-        <v>200</v>
-      </c>
-      <c r="E335" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="F335" t="b">
         <f>FALSE()</f>
@@ -9216,69 +9186,69 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>15</v>
-      </c>
-      <c r="B336" s="2">
-        <v>46051</v>
+        <v>21</v>
+      </c>
+      <c r="B336" s="7">
+        <v>46056</v>
       </c>
       <c r="C336" t="s">
         <v>30</v>
       </c>
-      <c r="D336" t="s">
-        <v>200</v>
-      </c>
-      <c r="E336" t="s">
-        <v>99</v>
-      </c>
-      <c r="F336" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G336" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="D336" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A337" s="4">
-        <v>17</v>
-      </c>
-      <c r="B337" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C337" s="3" t="s">
+      <c r="A337">
+        <v>26</v>
+      </c>
+      <c r="B337" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C337" t="s">
         <v>30</v>
       </c>
-      <c r="D337" s="3" t="s">
-        <v>200</v>
+      <c r="D337" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>21</v>
-      </c>
-      <c r="B338" s="7">
-        <v>46056</v>
+        <v>3</v>
+      </c>
+      <c r="B338" s="2">
+        <v>46041</v>
       </c>
       <c r="C338" t="s">
         <v>30</v>
       </c>
-      <c r="D338" s="9" t="s">
-        <v>200</v>
+      <c r="D338" t="s">
+        <v>154</v>
+      </c>
+      <c r="E338" t="s">
+        <v>99</v>
+      </c>
+      <c r="F338" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G338" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B339" s="2">
-        <v>46048</v>
+        <v>46041</v>
       </c>
       <c r="C339" t="s">
         <v>30</v>
       </c>
       <c r="D339" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E339" t="s">
         <v>99</v>
@@ -9294,16 +9264,16 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B340" s="2">
-        <v>46050</v>
+        <v>46048</v>
       </c>
       <c r="C340" t="s">
         <v>30</v>
       </c>
       <c r="D340" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E340" t="s">
         <v>99</v>
@@ -9319,16 +9289,16 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B341" s="2">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="C341" t="s">
         <v>30</v>
       </c>
       <c r="D341" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E341" t="s">
         <v>99</v>
@@ -9344,16 +9314,16 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B342" s="2">
-        <v>46048</v>
+        <v>46051</v>
       </c>
       <c r="C342" t="s">
         <v>30</v>
       </c>
       <c r="D342" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="E342" t="s">
         <v>99</v>
@@ -9368,78 +9338,45 @@
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A343">
-        <v>14</v>
-      </c>
-      <c r="B343" s="2">
-        <v>46050</v>
-      </c>
-      <c r="C343" t="s">
+      <c r="A343" s="4">
+        <v>17</v>
+      </c>
+      <c r="B343" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C343" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D343" t="s">
-        <v>221</v>
-      </c>
-      <c r="E343" t="s">
-        <v>99</v>
-      </c>
-      <c r="F343" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G343" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="D343" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>15</v>
-      </c>
-      <c r="B344" s="2">
-        <v>46051</v>
+        <v>21</v>
+      </c>
+      <c r="B344" s="7">
+        <v>46056</v>
       </c>
       <c r="C344" t="s">
         <v>30</v>
       </c>
-      <c r="D344" t="s">
-        <v>221</v>
-      </c>
-      <c r="E344" t="s">
-        <v>99</v>
-      </c>
-      <c r="F344" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G344" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="D344" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>3</v>
-      </c>
-      <c r="B345" s="2">
-        <v>46041</v>
+        <v>26</v>
+      </c>
+      <c r="B345" s="7">
+        <v>46059</v>
       </c>
       <c r="C345" t="s">
         <v>30</v>
       </c>
       <c r="D345" t="s">
-        <v>220</v>
-      </c>
-      <c r="E345" t="s">
-        <v>99</v>
-      </c>
-      <c r="F345" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G345" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
@@ -9453,7 +9390,7 @@
         <v>30</v>
       </c>
       <c r="D346" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E346" t="s">
         <v>99</v>
@@ -10471,7 +10408,7 @@
         <v>30</v>
       </c>
       <c r="D393" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E393" t="s">
         <v>99</v>
@@ -10496,7 +10433,7 @@
         <v>30</v>
       </c>
       <c r="D394" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E394" t="s">
         <v>99</v>
@@ -10511,59 +10448,92 @@
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A395" s="4">
-        <v>17</v>
-      </c>
-      <c r="B395" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C395" s="3" t="s">
+      <c r="A395">
+        <v>10</v>
+      </c>
+      <c r="B395" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C395" t="s">
         <v>30</v>
       </c>
-      <c r="D395" s="3" t="s">
-        <v>220</v>
+      <c r="D395" t="s">
+        <v>221</v>
+      </c>
+      <c r="E395" t="s">
+        <v>99</v>
+      </c>
+      <c r="F395" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G395" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>21</v>
-      </c>
-      <c r="B396" s="7">
-        <v>46056</v>
+        <v>14</v>
+      </c>
+      <c r="B396" s="2">
+        <v>46050</v>
       </c>
       <c r="C396" t="s">
         <v>30</v>
       </c>
-      <c r="D396" s="9" t="s">
-        <v>220</v>
+      <c r="D396" t="s">
+        <v>221</v>
+      </c>
+      <c r="E396" t="s">
+        <v>99</v>
+      </c>
+      <c r="F396" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G396" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A397" s="4">
-        <v>17</v>
-      </c>
-      <c r="B397" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C397" s="3" t="s">
+      <c r="A397">
+        <v>15</v>
+      </c>
+      <c r="B397" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C397" t="s">
         <v>30</v>
       </c>
-      <c r="D397" s="3" t="s">
-        <v>231</v>
+      <c r="D397" t="s">
+        <v>221</v>
+      </c>
+      <c r="E397" t="s">
+        <v>99</v>
+      </c>
+      <c r="F397" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G397" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B398" s="7">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="C398" t="s">
         <v>30</v>
       </c>
-      <c r="D398" s="9" t="s">
-        <v>231</v>
+      <c r="D398" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
@@ -10577,7 +10547,7 @@
         <v>30</v>
       </c>
       <c r="D399" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="E399" t="s">
         <v>99</v>
@@ -10602,7 +10572,7 @@
         <v>30</v>
       </c>
       <c r="D400" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="E400" t="s">
         <v>99</v>
@@ -10627,7 +10597,7 @@
         <v>30</v>
       </c>
       <c r="D401" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="E401" t="s">
         <v>99</v>
@@ -10652,7 +10622,7 @@
         <v>30</v>
       </c>
       <c r="D402" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="E402" t="s">
         <v>99</v>
@@ -10677,7 +10647,7 @@
         <v>30</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
@@ -12122,249 +12092,216 @@
         <v>30</v>
       </c>
       <c r="D477" s="9" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>3</v>
-      </c>
-      <c r="B478" s="2">
-        <v>46041</v>
+        <v>26</v>
+      </c>
+      <c r="B478" s="7">
+        <v>46059</v>
       </c>
       <c r="C478" t="s">
         <v>30</v>
       </c>
       <c r="D478" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A479" s="4">
+        <v>17</v>
+      </c>
+      <c r="B479" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>21</v>
+      </c>
+      <c r="B480" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C480" t="s">
+        <v>30</v>
+      </c>
+      <c r="D480" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>3</v>
+      </c>
+      <c r="B481" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C481" t="s">
+        <v>30</v>
+      </c>
+      <c r="D481" t="s">
+        <v>151</v>
+      </c>
+      <c r="E481" t="s">
+        <v>99</v>
+      </c>
+      <c r="F481" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G481" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>10</v>
+      </c>
+      <c r="B482" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C482" t="s">
+        <v>30</v>
+      </c>
+      <c r="D482" t="s">
+        <v>151</v>
+      </c>
+      <c r="E482" t="s">
+        <v>99</v>
+      </c>
+      <c r="F482" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G482" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>14</v>
+      </c>
+      <c r="B483" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C483" t="s">
+        <v>30</v>
+      </c>
+      <c r="D483" t="s">
+        <v>151</v>
+      </c>
+      <c r="E483" t="s">
+        <v>99</v>
+      </c>
+      <c r="F483" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G483" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>15</v>
+      </c>
+      <c r="B484" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C484" t="s">
+        <v>30</v>
+      </c>
+      <c r="D484" t="s">
+        <v>151</v>
+      </c>
+      <c r="E484" t="s">
+        <v>99</v>
+      </c>
+      <c r="F484" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G484" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A485" s="4">
+        <v>17</v>
+      </c>
+      <c r="B485" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>21</v>
+      </c>
+      <c r="B486" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C486" t="s">
+        <v>30</v>
+      </c>
+      <c r="D486" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>26</v>
+      </c>
+      <c r="B487" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C487" t="s">
+        <v>30</v>
+      </c>
+      <c r="D487" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>3</v>
+      </c>
+      <c r="B488" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C488" t="s">
+        <v>30</v>
+      </c>
+      <c r="D488" t="s">
         <v>224</v>
       </c>
-      <c r="E478" t="s">
+      <c r="E488" t="s">
         <v>109</v>
       </c>
-      <c r="F478" t="b">
+      <c r="F488" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G478" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A479">
-        <v>10</v>
-      </c>
-      <c r="B479" s="2">
-        <v>46048</v>
-      </c>
-      <c r="C479" t="s">
-        <v>30</v>
-      </c>
-      <c r="D479" t="s">
-        <v>224</v>
-      </c>
-      <c r="E479" t="s">
-        <v>109</v>
-      </c>
-      <c r="F479" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G479" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A480">
-        <v>14</v>
-      </c>
-      <c r="B480" s="2">
-        <v>46050</v>
-      </c>
-      <c r="C480" t="s">
-        <v>30</v>
-      </c>
-      <c r="D480" t="s">
-        <v>224</v>
-      </c>
-      <c r="E480" t="s">
-        <v>99</v>
-      </c>
-      <c r="F480" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G480" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A481">
-        <v>15</v>
-      </c>
-      <c r="B481" s="2">
-        <v>46051</v>
-      </c>
-      <c r="C481" t="s">
-        <v>30</v>
-      </c>
-      <c r="D481" t="s">
-        <v>224</v>
-      </c>
-      <c r="E481" t="s">
-        <v>109</v>
-      </c>
-      <c r="F481" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G481" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A482" s="4">
-        <v>17</v>
-      </c>
-      <c r="B482" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C482" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D482" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A483">
-        <v>21</v>
-      </c>
-      <c r="B483" s="7">
-        <v>46056</v>
-      </c>
-      <c r="C483" t="s">
-        <v>30</v>
-      </c>
-      <c r="D483" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A484">
-        <v>3</v>
-      </c>
-      <c r="B484" s="2">
-        <v>46041</v>
-      </c>
-      <c r="C484" t="s">
-        <v>30</v>
-      </c>
-      <c r="D484" t="s">
-        <v>153</v>
-      </c>
-      <c r="E484" t="s">
-        <v>99</v>
-      </c>
-      <c r="F484" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G484" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A485">
-        <v>10</v>
-      </c>
-      <c r="B485" s="2">
-        <v>46048</v>
-      </c>
-      <c r="C485" t="s">
-        <v>30</v>
-      </c>
-      <c r="D485" t="s">
-        <v>153</v>
-      </c>
-      <c r="E485" t="s">
-        <v>99</v>
-      </c>
-      <c r="F485" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G485" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A486">
-        <v>14</v>
-      </c>
-      <c r="B486" s="2">
-        <v>46050</v>
-      </c>
-      <c r="C486" t="s">
-        <v>30</v>
-      </c>
-      <c r="D486" t="s">
-        <v>153</v>
-      </c>
-      <c r="E486" t="s">
-        <v>99</v>
-      </c>
-      <c r="F486" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G486" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A487">
-        <v>15</v>
-      </c>
-      <c r="B487" s="2">
-        <v>46051</v>
-      </c>
-      <c r="C487" t="s">
-        <v>30</v>
-      </c>
-      <c r="D487" t="s">
-        <v>153</v>
-      </c>
-      <c r="E487" t="s">
-        <v>99</v>
-      </c>
-      <c r="F487" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G487" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A488" s="4">
-        <v>17</v>
-      </c>
-      <c r="B488" s="5">
-        <v>46052</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>153</v>
+      <c r="G488" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.3">
@@ -14408,6 +14345,433 @@
       </c>
       <c r="D599" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>26</v>
+      </c>
+      <c r="B600" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C600" t="s">
+        <v>16</v>
+      </c>
+      <c r="D600" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>26</v>
+      </c>
+      <c r="B601" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C601" t="s">
+        <v>16</v>
+      </c>
+      <c r="D601" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>26</v>
+      </c>
+      <c r="B602" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C602" t="s">
+        <v>16</v>
+      </c>
+      <c r="D602" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>26</v>
+      </c>
+      <c r="B603" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C603" t="s">
+        <v>16</v>
+      </c>
+      <c r="D603" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>26</v>
+      </c>
+      <c r="B604" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C604" t="s">
+        <v>16</v>
+      </c>
+      <c r="D604" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>26</v>
+      </c>
+      <c r="B605" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C605" t="s">
+        <v>16</v>
+      </c>
+      <c r="D605" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>26</v>
+      </c>
+      <c r="B606" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C606" t="s">
+        <v>16</v>
+      </c>
+      <c r="D606" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>26</v>
+      </c>
+      <c r="B607" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C607" t="s">
+        <v>16</v>
+      </c>
+      <c r="D607" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>26</v>
+      </c>
+      <c r="B608" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C608" t="s">
+        <v>16</v>
+      </c>
+      <c r="D608" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>26</v>
+      </c>
+      <c r="B609" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C609" t="s">
+        <v>16</v>
+      </c>
+      <c r="D609" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>26</v>
+      </c>
+      <c r="B610" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C610" t="s">
+        <v>16</v>
+      </c>
+      <c r="D610" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>26</v>
+      </c>
+      <c r="B611" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C611" t="s">
+        <v>16</v>
+      </c>
+      <c r="D611" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>26</v>
+      </c>
+      <c r="B612" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C612" t="s">
+        <v>16</v>
+      </c>
+      <c r="D612" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>10</v>
+      </c>
+      <c r="B613" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C613" t="s">
+        <v>30</v>
+      </c>
+      <c r="D613" t="s">
+        <v>224</v>
+      </c>
+      <c r="E613" t="s">
+        <v>109</v>
+      </c>
+      <c r="F613" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G613" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>14</v>
+      </c>
+      <c r="B614" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C614" t="s">
+        <v>30</v>
+      </c>
+      <c r="D614" t="s">
+        <v>224</v>
+      </c>
+      <c r="E614" t="s">
+        <v>99</v>
+      </c>
+      <c r="F614" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G614" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>15</v>
+      </c>
+      <c r="B615" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C615" t="s">
+        <v>30</v>
+      </c>
+      <c r="D615" t="s">
+        <v>224</v>
+      </c>
+      <c r="E615" t="s">
+        <v>109</v>
+      </c>
+      <c r="F615" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G615" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A616" s="4">
+        <v>17</v>
+      </c>
+      <c r="B616" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>21</v>
+      </c>
+      <c r="B617" s="7">
+        <v>46056</v>
+      </c>
+      <c r="C617" t="s">
+        <v>30</v>
+      </c>
+      <c r="D617" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>26</v>
+      </c>
+      <c r="B618" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C618" t="s">
+        <v>30</v>
+      </c>
+      <c r="D618" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>3</v>
+      </c>
+      <c r="B619" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C619" t="s">
+        <v>30</v>
+      </c>
+      <c r="D619" t="s">
+        <v>153</v>
+      </c>
+      <c r="E619" t="s">
+        <v>99</v>
+      </c>
+      <c r="F619" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G619" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>10</v>
+      </c>
+      <c r="B620" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C620" t="s">
+        <v>30</v>
+      </c>
+      <c r="D620" t="s">
+        <v>153</v>
+      </c>
+      <c r="E620" t="s">
+        <v>99</v>
+      </c>
+      <c r="F620" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G620" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>14</v>
+      </c>
+      <c r="B621" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C621" t="s">
+        <v>30</v>
+      </c>
+      <c r="D621" t="s">
+        <v>153</v>
+      </c>
+      <c r="E621" t="s">
+        <v>99</v>
+      </c>
+      <c r="F621" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G621" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>15</v>
+      </c>
+      <c r="B622" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C622" t="s">
+        <v>30</v>
+      </c>
+      <c r="D622" t="s">
+        <v>153</v>
+      </c>
+      <c r="E622" t="s">
+        <v>99</v>
+      </c>
+      <c r="F622" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G622" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A623" s="4">
+        <v>17</v>
+      </c>
+      <c r="B623" s="5">
+        <v>46052</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>26</v>
+      </c>
+      <c r="B624" s="7">
+        <v>46059</v>
+      </c>
+      <c r="C624" t="s">
+        <v>30</v>
+      </c>
+      <c r="D624" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
